--- a/000 TABLAS GENERALES/27-01 Colección VIOLENCIA.xlsx
+++ b/000 TABLAS GENERALES/27-01 Colección VIOLENCIA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\Diseño DATA's (1)\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4EB7B5-9B42-4DA6-9FAE-4EACE093F7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2BBA57-E31D-4FD7-859B-4C5CA4D73DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Industria" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="85">
   <si>
     <t>Id_industria</t>
   </si>
@@ -310,6 +310,15 @@
   </si>
   <si>
     <t xml:space="preserve">Fallecimiento </t>
+  </si>
+  <si>
+    <t>Violencia Económica</t>
+  </si>
+  <si>
+    <t>Violencia Psicológica</t>
+  </si>
+  <si>
+    <t>Aborto</t>
   </si>
 </sst>
 </file>
@@ -317,7 +326,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -443,7 +452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -466,12 +475,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -565,6 +587,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
@@ -1686,7 +1732,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>143510</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>7440</xdr:rowOff>
     </xdr:to>
@@ -1758,13 +1804,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:colOff>181610</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:colOff>161290</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
@@ -1844,7 +1890,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>1173480</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>167460</xdr:rowOff>
+      <xdr:rowOff>161110</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -1914,15 +1960,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1203960</xdr:colOff>
+      <xdr:colOff>1210310</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>746760</xdr:colOff>
+      <xdr:colOff>753110</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>167460</xdr:rowOff>
+      <xdr:rowOff>161110</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -2210,8 +2256,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B64F2DF3-4D7E-46EF-A4E5-B8107E819F63}" name="Categorias" displayName="Categorias" ref="A9:M66" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A9:M66" xr:uid="{2A0DEF65-5AE9-475C-BE4C-05864630122D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B64F2DF3-4D7E-46EF-A4E5-B8107E819F63}" name="Categorias" displayName="Categorias" ref="A9:M71" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A9:M71" xr:uid="{2A0DEF65-5AE9-475C-BE4C-05864630122D}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{2B095AA1-D6BB-4496-A43C-BB7252FA6BED}" name="Id_industria" dataDxfId="12">
       <calculatedColumnFormula>+A9</calculatedColumnFormula>
@@ -2552,21 +2598,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0B4F77-22B7-4C2A-8BD3-673667633AEC}">
   <dimension ref="A4:E5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -2583,7 +2629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="31">
         <v>27</v>
       </c>
@@ -2620,26 +2666,26 @@
       <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.77734375" customWidth="1"/>
-    <col min="8" max="8" width="59.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.36328125" customWidth="1"/>
+    <col min="4" max="4" width="5.36328125" customWidth="1"/>
+    <col min="5" max="5" width="26.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.81640625" customWidth="1"/>
+    <col min="8" max="8" width="59.08984375" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H9" s="29">
         <f>+SUBTOTAL(3,Sector[Sector])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -2665,7 +2711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="17">
         <v>27</v>
       </c>
@@ -2717,31 +2763,31 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+    <col min="6" max="6" width="5.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
     <col min="9" max="9" width="33" customWidth="1"/>
-    <col min="10" max="10" width="64.77734375" customWidth="1"/>
+    <col min="10" max="10" width="64.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J9" s="29">
         <f>+SUBTOTAL(3,Productos[Producto])</f>
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="31.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -2773,7 +2819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>27</v>
       </c>
@@ -2814,7 +2860,7 @@
         <v>270101 Producto|| Delitos Cometidos por Empleados y Funcionarios Públicos</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <f>+A11</f>
         <v>27</v>
@@ -2857,7 +2903,7 @@
         <v>270102 Producto|| Delitos sexuales</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <f t="shared" ref="A13:A19" si="3">+A12</f>
         <v>27</v>
@@ -2900,7 +2946,7 @@
         <v>270103 Producto|| Delitos violentos</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -2943,7 +2989,7 @@
         <v>270104 Producto|| Delitos Contra el Estado Civil y la Familia</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -2986,7 +3032,7 @@
         <v>270105 Producto|| Delitos Contra la Vida, Integridad o Dignidad Personal</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3029,7 +3075,7 @@
         <v>270106 Producto|| Delitos Contra la Intimidad y la Libertad</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3072,7 +3118,7 @@
         <v>270107 Producto|| Atenciones médicas</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3115,7 +3161,7 @@
         <v>270108 Producto|| Centros de la Mujer</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3176,38 +3222,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F9FCA8-2BDF-4275-A0F6-B9D5CA3C15D7}">
-  <dimension ref="A8:M66"/>
+  <dimension ref="A8:M71"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="4.77734375" customWidth="1"/>
-    <col min="9" max="9" width="21.77734375" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" customWidth="1"/>
-    <col min="11" max="11" width="29.44140625" customWidth="1"/>
-    <col min="12" max="12" width="20.109375" customWidth="1"/>
-    <col min="13" max="13" width="49.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" customWidth="1"/>
+    <col min="6" max="6" width="26.6328125" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="4.81640625" customWidth="1"/>
+    <col min="9" max="9" width="21.81640625" customWidth="1"/>
+    <col min="10" max="10" width="24.453125" customWidth="1"/>
+    <col min="11" max="11" width="29.453125" customWidth="1"/>
+    <col min="12" max="12" width="20.08984375" customWidth="1"/>
+    <col min="13" max="13" width="49.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E8" s="12"/>
       <c r="G8" s="12">
         <f>+SUBTOTAL(3,Categorias[Id_categoría])</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -3248,7 +3294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>27</v>
       </c>
@@ -3293,11 +3339,11 @@
         <v>270101001apremios_ilegiticos_violacion,_abuso_sexual_agravado,_otros</v>
       </c>
       <c r="M10" s="21" t="str">
-        <f t="shared" ref="M10:M65" si="0">+"INSERT INTO categoria VALUES ("&amp;G10&amp;",'"&amp;I10&amp;"','"&amp;J10&amp;"','"&amp;K10&amp;"',"&amp;E10&amp;");"</f>
+        <f t="shared" ref="M10:M69" si="0">+"INSERT INTO categoria VALUES ("&amp;G10&amp;",'"&amp;I10&amp;"','"&amp;J10&amp;"','"&amp;K10&amp;"',"&amp;E10&amp;");"</f>
         <v>INSERT INTO categoria VALUES (270101001,'Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros','Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001','Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001 | Prod: Delitos-270101 | Sector: Mujer-2701 | Industria: MUJER-27',270101);</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <f>+A10</f>
         <v>27</v>
@@ -3315,7 +3361,7 @@
         <v>Violencia</v>
       </c>
       <c r="E11" s="10">
-        <f t="shared" ref="E11:E66" si="1">+IF(H11=1,E10+1,E10)</f>
+        <f>+IF(H11=1,E10+1,E10)</f>
         <v>270102</v>
       </c>
       <c r="F11" s="8" t="str">
@@ -3323,7 +3369,7 @@
         <v>Delitos sexuales</v>
       </c>
       <c r="G11" s="11">
-        <f t="shared" ref="G11:G65" si="2">+E11*1000+H11</f>
+        <f t="shared" ref="G11:G69" si="1">+E11*1000+H11</f>
         <v>270102001</v>
       </c>
       <c r="H11" s="7">
@@ -3341,7 +3387,7 @@
         <v>Estupro-270102001 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L11" s="9" t="str">
-        <f t="shared" ref="L11:L65" si="3">+SUBSTITUTE(G11&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I11, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
+        <f t="shared" ref="L11:L69" si="2">+SUBSTITUTE(G11&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I11, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
         <v>270102001estupro</v>
       </c>
       <c r="M11" s="21" t="str">
@@ -3349,9 +3395,9 @@
         <v>INSERT INTO categoria VALUES (270102001,'Estupro','Estupro-270102001','Estupro-270102001 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
-        <f t="shared" ref="A12:A66" si="4">+A11</f>
+        <f t="shared" ref="A12:A70" si="3">+A11</f>
         <v>27</v>
       </c>
       <c r="B12" s="8" t="str">
@@ -3359,7 +3405,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C12" s="10">
-        <f t="shared" ref="C12:C66" si="5">+C11</f>
+        <f t="shared" ref="C12:C70" si="4">+C11</f>
         <v>2701</v>
       </c>
       <c r="D12" s="8" t="str">
@@ -3367,7 +3413,7 @@
         <v>Violencia</v>
       </c>
       <c r="E12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E12:E70" si="5">+IF(H12=1,E11+1,E11)</f>
         <v>270102</v>
       </c>
       <c r="F12" s="8" t="str">
@@ -3375,7 +3421,7 @@
         <v>Delitos sexuales</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270102002</v>
       </c>
       <c r="H12" s="7">
@@ -3393,7 +3439,7 @@
         <v>Violación-270102002 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L12" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270102002violacion</v>
       </c>
       <c r="M12" s="21" t="str">
@@ -3401,9 +3447,9 @@
         <v>INSERT INTO categoria VALUES (270102002,'Violación','Violación-270102002','Violación-270102002 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B13" s="8" t="str">
@@ -3411,7 +3457,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C13" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D13" s="8" t="str">
@@ -3419,7 +3465,7 @@
         <v>Violencia</v>
       </c>
       <c r="E13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270102</v>
       </c>
       <c r="F13" s="8" t="str">
@@ -3427,7 +3473,7 @@
         <v>Delitos sexuales</v>
       </c>
       <c r="G13" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270102003</v>
       </c>
       <c r="H13" s="7">
@@ -3445,7 +3491,7 @@
         <v>Abuso Sexual (Sólo Crimen)-270102003 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L13" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270102003abuso_sexual_(solo_crimen)</v>
       </c>
       <c r="M13" s="21" t="str">
@@ -3453,9 +3499,9 @@
         <v>INSERT INTO categoria VALUES (270102003,'Abuso Sexual (Sólo Crimen)','Abuso Sexual (Sólo Crimen)-270102003','Abuso Sexual (Sólo Crimen)-270102003 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B14" s="8" t="str">
@@ -3463,7 +3509,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C14" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D14" s="8" t="str">
@@ -3471,7 +3517,7 @@
         <v>Violencia</v>
       </c>
       <c r="E14" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270102</v>
       </c>
       <c r="F14" s="8" t="str">
@@ -3479,7 +3525,7 @@
         <v>Delitos sexuales</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270102004</v>
       </c>
       <c r="H14" s="7">
@@ -3497,7 +3543,7 @@
         <v>Abuso Sexual Adulto-270102004 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L14" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270102004abuso_sexual_adulto</v>
       </c>
       <c r="M14" s="21" t="str">
@@ -3505,9 +3551,9 @@
         <v>INSERT INTO categoria VALUES (270102004,'Abuso Sexual Adulto','Abuso Sexual Adulto-270102004','Abuso Sexual Adulto-270102004 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B15" s="8" t="str">
@@ -3515,7 +3561,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C15" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D15" s="8" t="str">
@@ -3523,7 +3569,7 @@
         <v>Violencia</v>
       </c>
       <c r="E15" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270102</v>
       </c>
       <c r="F15" s="8" t="str">
@@ -3531,7 +3577,7 @@
         <v>Delitos sexuales</v>
       </c>
       <c r="G15" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270102005</v>
       </c>
       <c r="H15" s="7">
@@ -3549,7 +3595,7 @@
         <v>Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L15" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270102005abuso_sexual_calificado_c/introduccion_objetos_o_uso_animal</v>
       </c>
       <c r="M15" s="21" t="str">
@@ -3557,9 +3603,9 @@
         <v>INSERT INTO categoria VALUES (270102005,'Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal','Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005','Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B16" s="8" t="str">
@@ -3567,7 +3613,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C16" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D16" s="8" t="str">
@@ -3575,7 +3621,7 @@
         <v>Violencia</v>
       </c>
       <c r="E16" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270102</v>
       </c>
       <c r="F16" s="8" t="str">
@@ -3583,7 +3629,7 @@
         <v>Delitos sexuales</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270102006</v>
       </c>
       <c r="H16" s="7">
@@ -3601,7 +3647,7 @@
         <v>Abuso Sexual Con Contacto De Menor De 14 Años-270102006 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L16" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270102006abuso_sexual_con_contacto_de_menor_de_14_años</v>
       </c>
       <c r="M16" s="21" t="str">
@@ -3609,9 +3655,9 @@
         <v>INSERT INTO categoria VALUES (270102006,'Abuso Sexual Con Contacto De Menor De 14 Años','Abuso Sexual Con Contacto De Menor De 14 Años-270102006','Abuso Sexual Con Contacto De Menor De 14 Años-270102006 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B17" s="8" t="str">
@@ -3619,7 +3665,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C17" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D17" s="8" t="str">
@@ -3627,7 +3673,7 @@
         <v>Violencia</v>
       </c>
       <c r="E17" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270102</v>
       </c>
       <c r="F17" s="8" t="str">
@@ -3635,7 +3681,7 @@
         <v>Delitos sexuales</v>
       </c>
       <c r="G17" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270102007</v>
       </c>
       <c r="H17" s="7">
@@ -3653,7 +3699,7 @@
         <v>Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L17" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270102007abuso_sexual_de_14_años_a_menor_de_18_años_con_circunstancia_estupro</v>
       </c>
       <c r="M17" s="21" t="str">
@@ -3661,9 +3707,9 @@
         <v>INSERT INTO categoria VALUES (270102007,'Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro','Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007','Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B18" s="8" t="str">
@@ -3671,7 +3717,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C18" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D18" s="8" t="str">
@@ -3679,7 +3725,7 @@
         <v>Violencia</v>
       </c>
       <c r="E18" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270102</v>
       </c>
       <c r="F18" s="8" t="str">
@@ -3687,7 +3733,7 @@
         <v>Delitos sexuales</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270102008</v>
       </c>
       <c r="H18" s="7">
@@ -3705,7 +3751,7 @@
         <v>Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L18" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270102008abuso_sexual_de_mayor_de_14_(con_circunstancias_de_violacion)</v>
       </c>
       <c r="M18" s="21" t="str">
@@ -3713,9 +3759,9 @@
         <v>INSERT INTO categoria VALUES (270102008,'Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)','Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008','Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B19" s="8" t="str">
@@ -3723,7 +3769,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C19" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D19" s="8" t="str">
@@ -3731,7 +3777,7 @@
         <v>Violencia</v>
       </c>
       <c r="E19" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270102</v>
       </c>
       <c r="F19" s="8" t="str">
@@ -3739,7 +3785,7 @@
         <v>Delitos sexuales</v>
       </c>
       <c r="G19" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270102009</v>
       </c>
       <c r="H19" s="7">
@@ -3757,7 +3803,7 @@
         <v>Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L19" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270102009abuso_sexual_mayor_14_/sorpresa_sin_consentimiento</v>
       </c>
       <c r="M19" s="21" t="str">
@@ -3765,9 +3811,9 @@
         <v>INSERT INTO categoria VALUES (270102009,'Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento','Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009','Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B20" s="8" t="str">
@@ -3775,7 +3821,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C20" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D20" s="8" t="str">
@@ -3783,7 +3829,7 @@
         <v>Violencia</v>
       </c>
       <c r="E20" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270102</v>
       </c>
       <c r="F20" s="8" t="str">
@@ -3817,9 +3863,9 @@
         <v>INSERT INTO categoria VALUES (270102010,'Abuso Sexual Sin Contacto','Abuso Sexual Sin Contacto-270102010','Abuso Sexual Sin Contacto-270102010 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B21" s="8" t="str">
@@ -3827,7 +3873,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C21" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D21" s="8" t="str">
@@ -3835,7 +3881,7 @@
         <v>Violencia</v>
       </c>
       <c r="E21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270102</v>
       </c>
       <c r="F21" s="8" t="str">
@@ -3869,9 +3915,9 @@
         <v>INSERT INTO categoria VALUES (270102011,'Delitos De Signifación Sexual','Delitos De Signifación Sexual-270102011','Delitos De Signifación Sexual-270102011 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B22" s="8" t="str">
@@ -3879,7 +3925,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C22" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D22" s="8" t="str">
@@ -3887,7 +3933,7 @@
         <v>Violencia</v>
       </c>
       <c r="E22" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270102</v>
       </c>
       <c r="F22" s="8" t="str">
@@ -3921,9 +3967,9 @@
         <v>INSERT INTO categoria VALUES (270102012,'Producción De Material Pornógrafico Utilizando Menores 18 Años','Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012','Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B23" s="8" t="str">
@@ -3931,7 +3977,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C23" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D23" s="8" t="str">
@@ -3939,7 +3985,7 @@
         <v>Violencia</v>
       </c>
       <c r="E23" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270102</v>
       </c>
       <c r="F23" s="8" t="str">
@@ -3973,9 +4019,9 @@
         <v>INSERT INTO categoria VALUES (270102013,'Promover O Facilitar Prostitucion De Menores','Promover O Facilitar Prostitucion De Menores-270102013','Promover O Facilitar Prostitucion De Menores-270102013 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B24" s="8" t="str">
@@ -3983,7 +4029,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D24" s="8" t="str">
@@ -3991,7 +4037,7 @@
         <v>Violencia</v>
       </c>
       <c r="E24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270102</v>
       </c>
       <c r="F24" s="8" t="str">
@@ -4025,9 +4071,9 @@
         <v>INSERT INTO categoria VALUES (270102014,'Violación De Mayor De 14 Años','Violación De Mayor De 14 Años-270102014','Violación De Mayor De 14 Años-270102014 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B25" s="8" t="str">
@@ -4035,7 +4081,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C25" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D25" s="8" t="str">
@@ -4043,7 +4089,7 @@
         <v>Violencia</v>
       </c>
       <c r="E25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270102</v>
       </c>
       <c r="F25" s="8" t="str">
@@ -4077,9 +4123,9 @@
         <v>INSERT INTO categoria VALUES (270102015,'Violación De Menor De 14 Años','Violación De Menor De 14 Años-270102015','Violación De Menor De 14 Años-270102015 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B26" s="8" t="str">
@@ -4087,7 +4133,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C26" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D26" s="8" t="str">
@@ -4095,7 +4141,7 @@
         <v>Violencia</v>
       </c>
       <c r="E26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270102</v>
       </c>
       <c r="F26" s="8" t="str">
@@ -4103,7 +4149,7 @@
         <v>Delitos sexuales</v>
       </c>
       <c r="G26" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270102016</v>
       </c>
       <c r="H26" s="7">
@@ -4121,7 +4167,7 @@
         <v>Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L26" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270102016acoso_sexual_lugares_publicos_/libre_acceso_publico</v>
       </c>
       <c r="M26" s="21" t="str">
@@ -4129,9 +4175,9 @@
         <v>INSERT INTO categoria VALUES (270102016,'Acoso Sexual Lugares Públicos /Libre Acceso Público','Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016','Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B27" s="8" t="str">
@@ -4139,7 +4185,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C27" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D27" s="8" t="str">
@@ -4147,7 +4193,7 @@
         <v>Violencia</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270102</v>
       </c>
       <c r="F27" s="8" t="str">
@@ -4155,7 +4201,7 @@
         <v>Delitos sexuales</v>
       </c>
       <c r="G27" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270102017</v>
       </c>
       <c r="H27" s="7">
@@ -4173,7 +4219,7 @@
         <v>Violación Con Homicidio O Femicidio-270102017 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L27" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270102017violacion_con_homicidio_o_femicidio</v>
       </c>
       <c r="M27" s="21" t="str">
@@ -4181,9 +4227,9 @@
         <v>INSERT INTO categoria VALUES (270102017,'Violación Con Homicidio O Femicidio','Violación Con Homicidio O Femicidio-270102017','Violación Con Homicidio O Femicidio-270102017 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B28" s="8" t="str">
@@ -4191,7 +4237,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C28" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D28" s="8" t="str">
@@ -4199,7 +4245,7 @@
         <v>Violencia</v>
       </c>
       <c r="E28" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270102</v>
       </c>
       <c r="F28" s="8" t="str">
@@ -4207,7 +4253,7 @@
         <v>Delitos sexuales</v>
       </c>
       <c r="G28" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270102018</v>
       </c>
       <c r="H28" s="7">
@@ -4225,7 +4271,7 @@
         <v>Difusión De Material Pornográfico-270102018 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L28" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270102018difusion_de_material_pornografico</v>
       </c>
       <c r="M28" s="21" t="str">
@@ -4233,9 +4279,9 @@
         <v>INSERT INTO categoria VALUES (270102018,'Difusión De Material Pornográfico','Difusión De Material Pornográfico-270102018','Difusión De Material Pornográfico-270102018 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="8" t="str">
@@ -4243,7 +4289,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C29" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D29" s="8" t="str">
@@ -4251,7 +4297,7 @@
         <v>Violencia</v>
       </c>
       <c r="E29" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270103</v>
       </c>
       <c r="F29" s="8" t="str">
@@ -4259,7 +4305,7 @@
         <v>Delitos violentos</v>
       </c>
       <c r="G29" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270103001</v>
       </c>
       <c r="H29" s="7">
@@ -4277,7 +4323,7 @@
         <v>Femicidio-270103001 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L29" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270103001femicidio</v>
       </c>
       <c r="M29" s="21" t="str">
@@ -4285,9 +4331,9 @@
         <v>INSERT INTO categoria VALUES (270103001,'Femicidio','Femicidio-270103001','Femicidio-270103001 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B30" s="8" t="str">
@@ -4295,7 +4341,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C30" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D30" s="8" t="str">
@@ -4303,7 +4349,7 @@
         <v>Violencia</v>
       </c>
       <c r="E30" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270103</v>
       </c>
       <c r="F30" s="8" t="str">
@@ -4311,7 +4357,7 @@
         <v>Delitos violentos</v>
       </c>
       <c r="G30" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270103002</v>
       </c>
       <c r="H30" s="7">
@@ -4329,7 +4375,7 @@
         <v>Femicidio Intimo-270103002 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L30" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270103002femicidio_intimo</v>
       </c>
       <c r="M30" s="21" t="str">
@@ -4337,9 +4383,9 @@
         <v>INSERT INTO categoria VALUES (270103002,'Femicidio Intimo','Femicidio Intimo-270103002','Femicidio Intimo-270103002 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B31" s="8" t="str">
@@ -4347,7 +4393,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C31" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D31" s="8" t="str">
@@ -4355,7 +4401,7 @@
         <v>Violencia</v>
       </c>
       <c r="E31" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270103</v>
       </c>
       <c r="F31" s="8" t="str">
@@ -4363,7 +4409,7 @@
         <v>Delitos violentos</v>
       </c>
       <c r="G31" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270103003</v>
       </c>
       <c r="H31" s="7">
@@ -4381,7 +4427,7 @@
         <v>Secuestro Con Violación-270103003 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L31" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270103003secuestro_con_violacion</v>
       </c>
       <c r="M31" s="21" t="str">
@@ -4389,9 +4435,9 @@
         <v>INSERT INTO categoria VALUES (270103003,'Secuestro Con Violación','Secuestro Con Violación-270103003','Secuestro Con Violación-270103003 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B32" s="8" t="str">
@@ -4399,7 +4445,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C32" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D32" s="8" t="str">
@@ -4407,7 +4453,7 @@
         <v>Violencia</v>
       </c>
       <c r="E32" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270103</v>
       </c>
       <c r="F32" s="8" t="str">
@@ -4415,7 +4461,7 @@
         <v>Delitos violentos</v>
       </c>
       <c r="G32" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270103004</v>
       </c>
       <c r="H32" s="7">
@@ -4433,7 +4479,7 @@
         <v>Secuestro Con Homicidio, Violación O Lesiones-270103004 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L32" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270103004secuestro_con_homicidio,_violacion_o_lesiones</v>
       </c>
       <c r="M32" s="21" t="str">
@@ -4441,9 +4487,9 @@
         <v>INSERT INTO categoria VALUES (270103004,'Secuestro Con Homicidio, Violación O Lesiones','Secuestro Con Homicidio, Violación O Lesiones-270103004','Secuestro Con Homicidio, Violación O Lesiones-270103004 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B33" s="8" t="str">
@@ -4451,7 +4497,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C33" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D33" s="8" t="str">
@@ -4459,7 +4505,7 @@
         <v>Violencia</v>
       </c>
       <c r="E33" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270103</v>
       </c>
       <c r="F33" s="8" t="str">
@@ -4493,9 +4539,9 @@
         <v>INSERT INTO categoria VALUES (270103005,'Tortura Con Violación, Abuso Sexual Agravado/Otros','Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005','Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B34" s="8" t="str">
@@ -4503,7 +4549,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C34" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D34" s="8" t="str">
@@ -4511,7 +4557,7 @@
         <v>Violencia</v>
       </c>
       <c r="E34" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270103</v>
       </c>
       <c r="F34" s="8" t="str">
@@ -4545,9 +4591,9 @@
         <v>INSERT INTO categoria VALUES (270103006,'Femicidio No Íntimo','Femicidio No Íntimo-270103006','Femicidio No Íntimo-270103006 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
-        <f t="shared" si="4"/>
+        <f>+A34</f>
         <v>27</v>
       </c>
       <c r="B35" s="8" t="str">
@@ -4555,7 +4601,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C35" s="10">
-        <f t="shared" si="5"/>
+        <f>+C34</f>
         <v>2701</v>
       </c>
       <c r="D35" s="8" t="str">
@@ -4563,43 +4609,43 @@
         <v>Violencia</v>
       </c>
       <c r="E35" s="10">
-        <f t="shared" si="1"/>
-        <v>270104</v>
+        <f>+IF(H35=1,E34+1,E34)</f>
+        <v>270103</v>
       </c>
       <c r="F35" s="8" t="str">
         <f>+VLOOKUP(E35,Productos[[Id_producto]:[Codigo]],3,0)</f>
-        <v>Delitos Contra el Estado Civil y la Familia</v>
+        <v>Delitos violentos</v>
       </c>
       <c r="G35" s="11">
         <f>+E35*1000+H35</f>
-        <v>270104001</v>
+        <v>270103007</v>
       </c>
       <c r="H35" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="J35" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Maltrato Habitual (Violencia Intrafamiliar)-270104001</v>
+        <v>Violencia Económica-270103007</v>
       </c>
       <c r="K35" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Maltrato Habitual (Violencia Intrafamiliar)-270104001 | Prod: Delitos-270104 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Violencia Económica-270103007 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L35" s="9" t="str">
         <f>+SUBSTITUTE(G35&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I35, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
-        <v>270104001maltrato_habitual_(violencia_intrafamiliar)</v>
+        <v>270103007violencia_economica</v>
       </c>
       <c r="M35" s="28" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G35&amp;",'"&amp;I35&amp;"','"&amp;J35&amp;"','"&amp;K35&amp;"',"&amp;E35&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270104001,'Maltrato Habitual (Violencia Intrafamiliar)','Maltrato Habitual (Violencia Intrafamiliar)-270104001','Maltrato Habitual (Violencia Intrafamiliar)-270104001 | Prod: Delitos-270104 | Sector: Mujer-2701 | Industria: MUJER-27',270104);</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+        <v>INSERT INTO categoria VALUES (270103007,'Violencia Económica','Violencia Económica-270103007','Violencia Económica-270103007 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
-        <f t="shared" si="4"/>
+        <f>+A35</f>
         <v>27</v>
       </c>
       <c r="B36" s="8" t="str">
@@ -4607,7 +4653,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C36" s="10">
-        <f t="shared" si="5"/>
+        <f>+C35</f>
         <v>2701</v>
       </c>
       <c r="D36" s="8" t="str">
@@ -4615,43 +4661,43 @@
         <v>Violencia</v>
       </c>
       <c r="E36" s="10">
-        <f t="shared" si="1"/>
-        <v>270105</v>
+        <f>+IF(H36=1,E35+1,E35)</f>
+        <v>270103</v>
       </c>
       <c r="F36" s="8" t="str">
         <f>+VLOOKUP(E36,Productos[[Id_producto]:[Codigo]],3,0)</f>
-        <v>Delitos Contra la Vida, Integridad o Dignidad Personal</v>
+        <v>Delitos violentos</v>
       </c>
       <c r="G36" s="11">
-        <f t="shared" si="2"/>
-        <v>270105001</v>
+        <f>+E36*1000+H36</f>
+        <v>270103008</v>
       </c>
       <c r="H36" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J36" s="8" t="str">
+        <v>83</v>
+      </c>
+      <c r="J36" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001</v>
-      </c>
-      <c r="K36" s="9" t="str">
+        <v>Violencia Psicológica-270103008</v>
+      </c>
+      <c r="K36" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Violencia Psicológica-270103008 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L36" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>270105001aborto_cometido_por_facultativo_por_causales_no_reguladas</v>
-      </c>
-      <c r="M36" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270105001,'Aborto Cometido Por Facultativo Por Causales No Reguladas','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <f>+SUBSTITUTE(G36&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I36, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
+        <v>270103008violencia_psicologica</v>
+      </c>
+      <c r="M36" s="28" t="str">
+        <f>+"INSERT INTO categoria VALUES ("&amp;G36&amp;",'"&amp;I36&amp;"','"&amp;J36&amp;"','"&amp;K36&amp;"',"&amp;E36&amp;");"</f>
+        <v>INSERT INTO categoria VALUES (270103008,'Violencia Psicológica','Violencia Psicológica-270103008','Violencia Psicológica-270103008 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
-        <f t="shared" si="4"/>
+        <f>+A36</f>
         <v>27</v>
       </c>
       <c r="B37" s="8" t="str">
@@ -4659,7 +4705,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C37" s="10">
-        <f t="shared" si="5"/>
+        <f>+C36</f>
         <v>2701</v>
       </c>
       <c r="D37" s="8" t="str">
@@ -4667,43 +4713,43 @@
         <v>Violencia</v>
       </c>
       <c r="E37" s="10">
-        <f t="shared" si="1"/>
-        <v>270105</v>
+        <f>+IF(H37=1,E36+1,E36)</f>
+        <v>270104</v>
       </c>
       <c r="F37" s="8" t="str">
         <f>+VLOOKUP(E37,Productos[[Id_producto]:[Codigo]],3,0)</f>
-        <v>Delitos Contra la Vida, Integridad o Dignidad Personal</v>
+        <v>Delitos Contra el Estado Civil y la Familia</v>
       </c>
       <c r="G37" s="11">
-        <f t="shared" si="2"/>
-        <v>270105002</v>
+        <f>+E37*1000+H37</f>
+        <v>270104001</v>
       </c>
       <c r="H37" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J37" s="8" t="str">
+        <v>48</v>
+      </c>
+      <c r="J37" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Aborto Consentido Causales No Reguladas-270105002</v>
-      </c>
-      <c r="K37" s="9" t="str">
+        <v>Maltrato Habitual (Violencia Intrafamiliar)-270104001</v>
+      </c>
+      <c r="K37" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Aborto Consentido Causales No Reguladas-270105002 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Maltrato Habitual (Violencia Intrafamiliar)-270104001 | Prod: Delitos-270104 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L37" s="9" t="str">
+        <f>+SUBSTITUTE(G37&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I37, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
+        <v>270104001maltrato_habitual_(violencia_intrafamiliar)</v>
+      </c>
+      <c r="M37" s="28" t="str">
+        <f>+"INSERT INTO categoria VALUES ("&amp;G37&amp;",'"&amp;I37&amp;"','"&amp;J37&amp;"','"&amp;K37&amp;"',"&amp;E37&amp;");"</f>
+        <v>INSERT INTO categoria VALUES (270104001,'Maltrato Habitual (Violencia Intrafamiliar)','Maltrato Habitual (Violencia Intrafamiliar)-270104001','Maltrato Habitual (Violencia Intrafamiliar)-270104001 | Prod: Delitos-270104 | Sector: Mujer-2701 | Industria: MUJER-27',270104);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="10">
         <f t="shared" si="3"/>
-        <v>270105002aborto_consentido_causales_no_reguladas</v>
-      </c>
-      <c r="M37" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270105002,'Aborto Consentido Causales No Reguladas','Aborto Consentido Causales No Reguladas-270105002','Aborto Consentido Causales No Reguladas-270105002 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A38" s="10">
-        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B38" s="8" t="str">
@@ -4711,7 +4757,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C38" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D38" s="8" t="str">
@@ -4719,7 +4765,7 @@
         <v>Violencia</v>
       </c>
       <c r="E38" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270105</v>
       </c>
       <c r="F38" s="8" t="str">
@@ -4727,35 +4773,35 @@
         <v>Delitos Contra la Vida, Integridad o Dignidad Personal</v>
       </c>
       <c r="G38" s="11">
-        <f t="shared" si="2"/>
-        <v>270105003</v>
+        <f t="shared" si="1"/>
+        <v>270105001</v>
       </c>
       <c r="H38" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J38" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Aborto Sin Consentimiento-270105003</v>
+        <v>Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001</v>
       </c>
       <c r="K38" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Aborto Sin Consentimiento-270105003 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L38" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>270105003aborto_sin_consentimiento</v>
+        <f t="shared" si="2"/>
+        <v>270105001aborto_cometido_por_facultativo_por_causales_no_reguladas</v>
       </c>
       <c r="M38" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270105003,'Aborto Sin Consentimiento','Aborto Sin Consentimiento-270105003','Aborto Sin Consentimiento-270105003 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+        <v>INSERT INTO categoria VALUES (270105001,'Aborto Cometido Por Facultativo Por Causales No Reguladas','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B39" s="8" t="str">
@@ -4763,7 +4809,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C39" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D39" s="8" t="str">
@@ -4771,7 +4817,7 @@
         <v>Violencia</v>
       </c>
       <c r="E39" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270105</v>
       </c>
       <c r="F39" s="8" t="str">
@@ -4779,35 +4825,35 @@
         <v>Delitos Contra la Vida, Integridad o Dignidad Personal</v>
       </c>
       <c r="G39" s="11">
-        <f t="shared" si="2"/>
-        <v>270105004</v>
+        <f t="shared" si="1"/>
+        <v>270105002</v>
       </c>
       <c r="H39" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J39" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105004</v>
+        <v>Aborto Consentido Causales No Reguladas-270105002</v>
       </c>
       <c r="K39" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105004 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Aborto Consentido Causales No Reguladas-270105002 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L39" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>270105004trafico_de_organos_incluyendo_los_provenientes_de_aborto</v>
+        <f t="shared" si="2"/>
+        <v>270105002aborto_consentido_causales_no_reguladas</v>
       </c>
       <c r="M39" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270105004,'Tráfico De Órganos Incluyendo los Provenientes de Aborto','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105004','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105004 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>INSERT INTO categoria VALUES (270105002,'Aborto Consentido Causales No Reguladas','Aborto Consentido Causales No Reguladas-270105002','Aborto Consentido Causales No Reguladas-270105002 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B40" s="8" t="str">
@@ -4815,7 +4861,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C40" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D40" s="8" t="str">
@@ -4823,43 +4869,43 @@
         <v>Violencia</v>
       </c>
       <c r="E40" s="10">
-        <f t="shared" si="1"/>
-        <v>270106</v>
+        <f t="shared" si="5"/>
+        <v>270105</v>
       </c>
       <c r="F40" s="8" t="str">
         <f>+VLOOKUP(E40,Productos[[Id_producto]:[Codigo]],3,0)</f>
-        <v>Delitos Contra la Intimidad y la Libertad</v>
+        <v>Delitos Contra la Vida, Integridad o Dignidad Personal</v>
       </c>
       <c r="G40" s="11">
-        <f t="shared" si="2"/>
-        <v>270106001</v>
+        <f t="shared" si="1"/>
+        <v>270105003</v>
       </c>
       <c r="H40" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J40" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Infracciones A La Ley De Identidad De Género-270106001</v>
+        <v>Aborto Sin Consentimiento-270105003</v>
       </c>
       <c r="K40" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Infracciones A La Ley De Identidad De Género-270106001 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Aborto Sin Consentimiento-270105003 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L40" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>270106001infracciones_a_la_ley_de_identidad_de_genero</v>
+        <f t="shared" si="2"/>
+        <v>270105003aborto_sin_consentimiento</v>
       </c>
       <c r="M40" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270106001,'Infracciones A La Ley De Identidad De Género','Infracciones A La Ley De Identidad De Género-270106001','Infracciones A La Ley De Identidad De Género-270106001 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27',270106);</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <v>INSERT INTO categoria VALUES (270105003,'Aborto Sin Consentimiento','Aborto Sin Consentimiento-270105003','Aborto Sin Consentimiento-270105003 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B41" s="8" t="str">
@@ -4867,7 +4913,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C41" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D41" s="8" t="str">
@@ -4875,43 +4921,43 @@
         <v>Violencia</v>
       </c>
       <c r="E41" s="10">
-        <f t="shared" si="1"/>
-        <v>270106</v>
+        <f t="shared" si="5"/>
+        <v>270105</v>
       </c>
       <c r="F41" s="8" t="str">
         <f>+VLOOKUP(E41,Productos[[Id_producto]:[Codigo]],3,0)</f>
-        <v>Delitos Contra la Intimidad y la Libertad</v>
+        <v>Delitos Contra la Vida, Integridad o Dignidad Personal</v>
       </c>
       <c r="G41" s="11">
-        <f t="shared" si="2"/>
-        <v>270106002</v>
+        <f t="shared" si="1"/>
+        <v>270105004</v>
       </c>
       <c r="H41" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="J41" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Acoso Laboral-270106002</v>
+        <v>Aborto-270105004</v>
       </c>
       <c r="K41" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Acoso Laboral-270106002 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Aborto-270105004 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L41" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>270106002acoso_laboral</v>
+        <f t="shared" si="2"/>
+        <v>270105004aborto</v>
       </c>
       <c r="M41" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270106002,'Acoso Laboral','Acoso Laboral-270106002','Acoso Laboral-270106002 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27',270106);</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="61.2" x14ac:dyDescent="0.3">
+        <v>INSERT INTO categoria VALUES (270105004,'Aborto','Aborto-270105004','Aborto-270105004 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A42" s="10">
-        <f t="shared" si="4"/>
+        <f>+A41</f>
         <v>27</v>
       </c>
       <c r="B42" s="8" t="str">
@@ -4919,7 +4965,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C42" s="10">
-        <f t="shared" si="5"/>
+        <f>+C41</f>
         <v>2701</v>
       </c>
       <c r="D42" s="8" t="str">
@@ -4927,43 +4973,43 @@
         <v>Violencia</v>
       </c>
       <c r="E42" s="10">
-        <f t="shared" si="1"/>
-        <v>270107</v>
+        <f>+IF(H42=1,E41+1,E41)</f>
+        <v>270105</v>
       </c>
       <c r="F42" s="8" t="str">
         <f>+VLOOKUP(E42,Productos[[Id_producto]:[Codigo]],3,0)</f>
-        <v>Atenciones médicas</v>
+        <v>Delitos Contra la Vida, Integridad o Dignidad Personal</v>
       </c>
       <c r="G42" s="11">
-        <f t="shared" si="2"/>
-        <v>270107001</v>
+        <f>+E42*1000+H42</f>
+        <v>270105005</v>
       </c>
       <c r="H42" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J42" s="8" t="str">
+        <v>46</v>
+      </c>
+      <c r="J42" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Atención por violación (con entrega de anticoncepción de emergencia)-270107001</v>
-      </c>
-      <c r="K42" s="9" t="str">
+        <v>Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005</v>
+      </c>
+      <c r="K42" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Atención por violación (con entrega de anticoncepción de emergencia)-270107001 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L42" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>270107001atencion por violacion (con entrega de anticoncepcion de emergencia)</v>
-      </c>
-      <c r="M42" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270107001,'Atención por violación (con entrega de anticoncepción de emergencia)','Atención por violación (con entrega de anticoncepción de emergencia)-270107001','Atención por violación (con entrega de anticoncepción de emergencia)-270107001 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="61.2" x14ac:dyDescent="0.3">
+        <f>+SUBSTITUTE(G42&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I42, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
+        <v>270105005trafico_de_organos_incluyendo_los_provenientes_de_aborto</v>
+      </c>
+      <c r="M42" s="28" t="str">
+        <f>+"INSERT INTO categoria VALUES ("&amp;G42&amp;",'"&amp;I42&amp;"','"&amp;J42&amp;"','"&amp;K42&amp;"',"&amp;E42&amp;");"</f>
+        <v>INSERT INTO categoria VALUES (270105005,'Tráfico De Órganos Incluyendo los Provenientes de Aborto','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
-        <f t="shared" si="4"/>
+        <f>+A42</f>
         <v>27</v>
       </c>
       <c r="B43" s="8" t="str">
@@ -4971,7 +5017,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C43" s="10">
-        <f t="shared" si="5"/>
+        <f>+C42</f>
         <v>2701</v>
       </c>
       <c r="D43" s="8" t="str">
@@ -4979,43 +5025,43 @@
         <v>Violencia</v>
       </c>
       <c r="E43" s="10">
-        <f t="shared" si="1"/>
-        <v>270107</v>
+        <f>+IF(H43=1,E42+1,E42)</f>
+        <v>270106</v>
       </c>
       <c r="F43" s="8" t="str">
         <f>+VLOOKUP(E43,Productos[[Id_producto]:[Codigo]],3,0)</f>
-        <v>Atenciones médicas</v>
+        <v>Delitos Contra la Intimidad y la Libertad</v>
       </c>
       <c r="G43" s="11">
-        <f t="shared" ref="G43:G49" si="9">+E43*1000+H43</f>
-        <v>270107002</v>
+        <f t="shared" si="1"/>
+        <v>270106001</v>
       </c>
       <c r="H43" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J43" s="26" t="str">
+        <v>47</v>
+      </c>
+      <c r="J43" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Atención por violación (sin entrega de anticoncepción de emergencia )-270107002</v>
-      </c>
-      <c r="K43" s="27" t="str">
+        <v>Infracciones A La Ley De Identidad De Género-270106001</v>
+      </c>
+      <c r="K43" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Atención por violación (sin entrega de anticoncepción de emergencia )-270107002 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Infracciones A La Ley De Identidad De Género-270106001 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L43" s="9" t="str">
-        <f t="shared" ref="L43:L49" si="10">+SUBSTITUTE(G43&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I43, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
-        <v>270107002atencion por violacion (sin entrega de anticoncepcion de emergencia )</v>
-      </c>
-      <c r="M43" s="28" t="str">
-        <f t="shared" ref="M43:M49" si="11">+"INSERT INTO categoria VALUES ("&amp;G43&amp;",'"&amp;I43&amp;"','"&amp;J43&amp;"','"&amp;K43&amp;"',"&amp;E43&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270107002,'Atención por violación (sin entrega de anticoncepción de emergencia )','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>270106001infracciones_a_la_ley_de_identidad_de_genero</v>
+      </c>
+      <c r="M43" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria VALUES (270106001,'Infracciones A La Ley De Identidad De Género','Infracciones A La Ley De Identidad De Género-270106001','Infracciones A La Ley De Identidad De Género-270106001 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27',270106);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B44" s="8" t="str">
@@ -5023,7 +5069,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C44" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D44" s="8" t="str">
@@ -5031,43 +5077,43 @@
         <v>Violencia</v>
       </c>
       <c r="E44" s="10">
-        <f t="shared" si="1"/>
-        <v>270107</v>
+        <f t="shared" si="5"/>
+        <v>270106</v>
       </c>
       <c r="F44" s="8" t="str">
         <f>+VLOOKUP(E44,Productos[[Id_producto]:[Codigo]],3,0)</f>
-        <v>Atenciones médicas</v>
+        <v>Delitos Contra la Intimidad y la Libertad</v>
       </c>
       <c r="G44" s="11">
-        <f t="shared" si="9"/>
-        <v>270107003</v>
+        <f t="shared" si="1"/>
+        <v>270106002</v>
       </c>
       <c r="H44" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="26" t="str">
+        <v>60</v>
+      </c>
+      <c r="J44" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Estupro-270107003</v>
-      </c>
-      <c r="K44" s="27" t="str">
+        <v>Acoso Laboral-270106002</v>
+      </c>
+      <c r="K44" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Estupro-270107003 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Acoso Laboral-270106002 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L44" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>270107003estupro</v>
-      </c>
-      <c r="M44" s="28" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO categoria VALUES (270107003,'Estupro','Estupro-270107003','Estupro-270107003 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>270106002acoso_laboral</v>
+      </c>
+      <c r="M44" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria VALUES (270106002,'Acoso Laboral','Acoso Laboral-270106002','Acoso Laboral-270106002 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27',270106);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="63" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B45" s="8" t="str">
@@ -5075,7 +5121,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C45" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D45" s="8" t="str">
@@ -5083,7 +5129,7 @@
         <v>Violencia</v>
       </c>
       <c r="E45" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270107</v>
       </c>
       <c r="F45" s="8" t="str">
@@ -5091,35 +5137,35 @@
         <v>Atenciones médicas</v>
       </c>
       <c r="G45" s="11">
-        <f t="shared" si="9"/>
-        <v>270107004</v>
+        <f t="shared" si="1"/>
+        <v>270107001</v>
       </c>
       <c r="H45" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J45" s="26" t="str">
+        <v>61</v>
+      </c>
+      <c r="J45" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Abuso sexual-270107004</v>
-      </c>
-      <c r="K45" s="27" t="str">
+        <v>Atención por violación (con entrega de anticoncepción de emergencia)-270107001</v>
+      </c>
+      <c r="K45" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Abuso sexual-270107004 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Atención por violación (con entrega de anticoncepción de emergencia)-270107001 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L45" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>270107004abuso sexual</v>
-      </c>
-      <c r="M45" s="28" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO categoria VALUES (270107004,'Abuso sexual','Abuso sexual-270107004','Abuso sexual-270107004 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>270107001atencion por violacion (con entrega de anticoncepcion de emergencia)</v>
+      </c>
+      <c r="M45" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria VALUES (270107001,'Atención por violación (con entrega de anticoncepción de emergencia)','Atención por violación (con entrega de anticoncepción de emergencia)-270107001','Atención por violación (con entrega de anticoncepción de emergencia)-270107001 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="63" x14ac:dyDescent="0.35">
       <c r="A46" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B46" s="8" t="str">
@@ -5127,7 +5173,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C46" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D46" s="8" t="str">
@@ -5135,7 +5181,7 @@
         <v>Violencia</v>
       </c>
       <c r="E46" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270107</v>
       </c>
       <c r="F46" s="8" t="str">
@@ -5143,35 +5189,35 @@
         <v>Atenciones médicas</v>
       </c>
       <c r="G46" s="11">
-        <f t="shared" si="9"/>
-        <v>270107005</v>
+        <f t="shared" ref="G46:G52" si="9">+E46*1000+H46</f>
+        <v>270107002</v>
       </c>
       <c r="H46" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J46" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Otra violencia-270107005</v>
+        <v>Atención por violación (sin entrega de anticoncepción de emergencia )-270107002</v>
       </c>
       <c r="K46" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Otra violencia-270107005 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Atención por violación (sin entrega de anticoncepción de emergencia )-270107002 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L46" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>270107005otra violencia</v>
+        <f t="shared" ref="L46:L52" si="10">+SUBSTITUTE(G46&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I46, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
+        <v>270107002atencion por violacion (sin entrega de anticoncepcion de emergencia )</v>
       </c>
       <c r="M46" s="28" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO categoria VALUES (270107005,'Otra violencia','Otra violencia-270107005','Otra violencia-270107005 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <f t="shared" ref="M46:M52" si="11">+"INSERT INTO categoria VALUES ("&amp;G46&amp;",'"&amp;I46&amp;"','"&amp;J46&amp;"','"&amp;K46&amp;"',"&amp;E46&amp;");"</f>
+        <v>INSERT INTO categoria VALUES (270107002,'Atención por violación (sin entrega de anticoncepción de emergencia )','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A47" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B47" s="8" t="str">
@@ -5179,7 +5225,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C47" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D47" s="8" t="str">
@@ -5187,7 +5233,7 @@
         <v>Violencia</v>
       </c>
       <c r="E47" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270107</v>
       </c>
       <c r="F47" s="8" t="str">
@@ -5196,34 +5242,34 @@
       </c>
       <c r="G47" s="11">
         <f t="shared" si="9"/>
-        <v>270107006</v>
+        <v>270107003</v>
       </c>
       <c r="H47" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="J47" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Violencia Física-270107006</v>
+        <v>Estupro-270107003</v>
       </c>
       <c r="K47" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Violencia Física-270107006 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Estupro-270107003 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L47" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>270107006violencia_fisica</v>
+        <v>270107003estupro</v>
       </c>
       <c r="M47" s="28" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO categoria VALUES (270107006,'Violencia Física','Violencia Física-270107006','Violencia Física-270107006 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <v>INSERT INTO categoria VALUES (270107003,'Estupro','Estupro-270107003','Estupro-270107003 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A48" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B48" s="8" t="str">
@@ -5231,7 +5277,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C48" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D48" s="8" t="str">
@@ -5239,7 +5285,7 @@
         <v>Violencia</v>
       </c>
       <c r="E48" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270107</v>
       </c>
       <c r="F48" s="8" t="str">
@@ -5248,34 +5294,34 @@
       </c>
       <c r="G48" s="11">
         <f t="shared" si="9"/>
-        <v>270107007</v>
+        <v>270107004</v>
       </c>
       <c r="H48" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J48" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Violencia Intrafamiliar-270107007</v>
+        <v>Abuso sexual-270107004</v>
       </c>
       <c r="K48" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Violencia Intrafamiliar-270107007 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Abuso sexual-270107004 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L48" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>270107007violencia_intrafamiliar</v>
+        <v>270107004abuso sexual</v>
       </c>
       <c r="M48" s="28" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO categoria VALUES (270107007,'Violencia Intrafamiliar','Violencia Intrafamiliar-270107007','Violencia Intrafamiliar-270107007 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>INSERT INTO categoria VALUES (270107004,'Abuso sexual','Abuso sexual-270107004','Abuso sexual-270107004 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B49" s="8" t="str">
@@ -5283,7 +5329,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C49" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D49" s="8" t="str">
@@ -5291,43 +5337,43 @@
         <v>Violencia</v>
       </c>
       <c r="E49" s="10">
-        <f t="shared" si="1"/>
-        <v>270108</v>
+        <f t="shared" si="5"/>
+        <v>270107</v>
       </c>
       <c r="F49" s="8" t="str">
         <f>+VLOOKUP(E49,Productos[[Id_producto]:[Codigo]],3,0)</f>
-        <v>Centros de la Mujer</v>
+        <v>Atenciones médicas</v>
       </c>
       <c r="G49" s="11">
         <f t="shared" si="9"/>
-        <v>270108001</v>
+        <v>270107005</v>
       </c>
       <c r="H49" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J49" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Orientación e Información-270108001</v>
+        <v>Otra violencia-270107005</v>
       </c>
       <c r="K49" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Orientación e Información-270108001 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Otra violencia-270107005 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L49" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>270108001orientacion_e_informacion</v>
+        <v>270107005otra violencia</v>
       </c>
       <c r="M49" s="28" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO categoria VALUES (270108001,'Orientación e Información','Orientación e Información-270108001','Orientación e Información-270108001 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>INSERT INTO categoria VALUES (270107005,'Otra violencia','Otra violencia-270107005','Otra violencia-270107005 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A50" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B50" s="8" t="str">
@@ -5335,7 +5381,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C50" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D50" s="8" t="str">
@@ -5343,43 +5389,43 @@
         <v>Violencia</v>
       </c>
       <c r="E50" s="10">
-        <f t="shared" si="1"/>
-        <v>270108</v>
+        <f t="shared" si="5"/>
+        <v>270107</v>
       </c>
       <c r="F50" s="8" t="str">
         <f>+VLOOKUP(E50,Productos[[Id_producto]:[Codigo]],3,0)</f>
-        <v>Centros de la Mujer</v>
+        <v>Atenciones médicas</v>
       </c>
       <c r="G50" s="11">
-        <f t="shared" si="2"/>
-        <v>270108002</v>
+        <f t="shared" si="9"/>
+        <v>270107006</v>
       </c>
       <c r="H50" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J50" s="8" t="str">
+        <v>65</v>
+      </c>
+      <c r="J50" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Ingresos de años anteriores (por arrastre)-270108002</v>
-      </c>
-      <c r="K50" s="9" t="str">
+        <v>Violencia Física-270107006</v>
+      </c>
+      <c r="K50" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Ingresos de años anteriores (por arrastre)-270108002 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Violencia Física-270107006 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L50" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>270107006violencia_fisica</v>
+      </c>
+      <c r="M50" s="28" t="str">
+        <f t="shared" si="11"/>
+        <v>INSERT INTO categoria VALUES (270107006,'Violencia Física','Violencia Física-270107006','Violencia Física-270107006 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="10">
         <f t="shared" si="3"/>
-        <v>270108002ingresos_de_años_anteriores_(por_arrastre)</v>
-      </c>
-      <c r="M50" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270108002,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270108002','Ingresos de años anteriores (por arrastre)-270108002 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A51" s="10">
-        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B51" s="8" t="str">
@@ -5387,7 +5433,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C51" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D51" s="8" t="str">
@@ -5395,43 +5441,43 @@
         <v>Violencia</v>
       </c>
       <c r="E51" s="10">
-        <f t="shared" ref="E51" si="12">+IF(H51=1,E50+1,E50)</f>
-        <v>270108</v>
+        <f t="shared" si="5"/>
+        <v>270107</v>
       </c>
       <c r="F51" s="8" t="str">
         <f>+VLOOKUP(E51,Productos[[Id_producto]:[Codigo]],3,0)</f>
-        <v>Centros de la Mujer</v>
+        <v>Atenciones médicas</v>
       </c>
       <c r="G51" s="11">
-        <f t="shared" si="2"/>
-        <v>270108003</v>
+        <f t="shared" si="9"/>
+        <v>270107007</v>
       </c>
       <c r="H51" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J51" s="8" t="str">
+        <v>66</v>
+      </c>
+      <c r="J51" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Ingresos efectivos  de Mujeres-270108003</v>
-      </c>
-      <c r="K51" s="9" t="str">
+        <v>Violencia Intrafamiliar-270107007</v>
+      </c>
+      <c r="K51" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Ingresos efectivos  de Mujeres-270108003 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Violencia Intrafamiliar-270107007 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L51" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>270107007violencia_intrafamiliar</v>
+      </c>
+      <c r="M51" s="28" t="str">
+        <f t="shared" si="11"/>
+        <v>INSERT INTO categoria VALUES (270107007,'Violencia Intrafamiliar','Violencia Intrafamiliar-270107007','Violencia Intrafamiliar-270107007 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+      <c r="A52" s="10">
         <f t="shared" si="3"/>
-        <v>270108003ingresos_efectivos__de_mujeres</v>
-      </c>
-      <c r="M51" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270108003,'Ingresos efectivos  de Mujeres','Ingresos efectivos  de Mujeres-270108003','Ingresos efectivos  de Mujeres-270108003 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="10">
-        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B52" s="8" t="str">
@@ -5439,7 +5485,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C52" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D52" s="8" t="str">
@@ -5447,7 +5493,7 @@
         <v>Violencia</v>
       </c>
       <c r="E52" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270108</v>
       </c>
       <c r="F52" s="8" t="str">
@@ -5455,35 +5501,35 @@
         <v>Centros de la Mujer</v>
       </c>
       <c r="G52" s="11">
-        <f t="shared" si="2"/>
-        <v>270108004</v>
+        <f t="shared" si="9"/>
+        <v>270108001</v>
       </c>
       <c r="H52" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J52" s="8" t="str">
+        <v>67</v>
+      </c>
+      <c r="J52" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Egreso -270108004</v>
-      </c>
-      <c r="K52" s="9" t="str">
+        <v>Orientación e Información-270108001</v>
+      </c>
+      <c r="K52" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Egreso -270108004 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Orientación e Información-270108001 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L52" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>270108001orientacion_e_informacion</v>
+      </c>
+      <c r="M52" s="28" t="str">
+        <f t="shared" si="11"/>
+        <v>INSERT INTO categoria VALUES (270108001,'Orientación e Información','Orientación e Información-270108001','Orientación e Información-270108001 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+      <c r="A53" s="10">
         <f t="shared" si="3"/>
-        <v>270108004egreso_</v>
-      </c>
-      <c r="M52" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270108004,'Egreso ','Egreso -270108004','Egreso -270108004 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="10">
-        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B53" s="8" t="str">
@@ -5491,7 +5537,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C53" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D53" s="8" t="str">
@@ -5499,7 +5545,7 @@
         <v>Violencia</v>
       </c>
       <c r="E53" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270108</v>
       </c>
       <c r="F53" s="8" t="str">
@@ -5507,35 +5553,35 @@
         <v>Centros de la Mujer</v>
       </c>
       <c r="G53" s="11">
-        <f t="shared" si="2"/>
-        <v>270108005</v>
+        <f t="shared" si="1"/>
+        <v>270108002</v>
       </c>
       <c r="H53" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J53" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Deserción-270108005</v>
+        <v>Ingresos de años anteriores (por arrastre)-270108002</v>
       </c>
       <c r="K53" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Deserción-270108005 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Ingresos de años anteriores (por arrastre)-270108002 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L53" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>270108005desercion</v>
+        <f t="shared" si="2"/>
+        <v>270108002ingresos_de_años_anteriores_(por_arrastre)</v>
       </c>
       <c r="M53" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270108005,'Deserción','Deserción-270108005','Deserción-270108005 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <v>INSERT INTO categoria VALUES (270108002,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270108002','Ingresos de años anteriores (por arrastre)-270108002 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A54" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B54" s="8" t="str">
@@ -5543,7 +5589,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C54" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D54" s="8" t="str">
@@ -5551,7 +5597,7 @@
         <v>Violencia</v>
       </c>
       <c r="E54" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E54" si="12">+IF(H54=1,E53+1,E53)</f>
         <v>270108</v>
       </c>
       <c r="F54" s="8" t="str">
@@ -5559,35 +5605,35 @@
         <v>Centros de la Mujer</v>
       </c>
       <c r="G54" s="11">
-        <f t="shared" si="2"/>
-        <v>270108006</v>
+        <f t="shared" si="1"/>
+        <v>270108003</v>
       </c>
       <c r="H54" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J54" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Interrupción-270108006</v>
+        <v>Ingresos efectivos  de Mujeres-270108003</v>
       </c>
       <c r="K54" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Interrupción-270108006 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Ingresos efectivos  de Mujeres-270108003 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L54" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>270108006interrupcion</v>
+        <f t="shared" si="2"/>
+        <v>270108003ingresos_efectivos__de_mujeres</v>
       </c>
       <c r="M54" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270108006,'Interrupción','Interrupción-270108006','Interrupción-270108006 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <v>INSERT INTO categoria VALUES (270108003,'Ingresos efectivos  de Mujeres','Ingresos efectivos  de Mujeres-270108003','Ingresos efectivos  de Mujeres-270108003 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A55" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B55" s="8" t="str">
@@ -5595,7 +5641,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C55" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D55" s="8" t="str">
@@ -5603,7 +5649,7 @@
         <v>Violencia</v>
       </c>
       <c r="E55" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270108</v>
       </c>
       <c r="F55" s="8" t="str">
@@ -5611,35 +5657,35 @@
         <v>Centros de la Mujer</v>
       </c>
       <c r="G55" s="11">
-        <f t="shared" si="2"/>
-        <v>270108007</v>
+        <f t="shared" si="1"/>
+        <v>270108004</v>
       </c>
       <c r="H55" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J55" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Derivacion-270108007</v>
+        <v>Egreso -270108004</v>
       </c>
       <c r="K55" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Derivacion-270108007 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Egreso -270108004 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L55" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>270108007derivacion</v>
+        <f t="shared" si="2"/>
+        <v>270108004egreso_</v>
       </c>
       <c r="M55" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270108007,'Derivacion','Derivacion-270108007','Derivacion-270108007 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <v>INSERT INTO categoria VALUES (270108004,'Egreso ','Egreso -270108004','Egreso -270108004 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A56" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B56" s="8" t="str">
@@ -5647,7 +5693,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C56" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D56" s="8" t="str">
@@ -5655,7 +5701,7 @@
         <v>Violencia</v>
       </c>
       <c r="E56" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270108</v>
       </c>
       <c r="F56" s="8" t="str">
@@ -5663,35 +5709,35 @@
         <v>Centros de la Mujer</v>
       </c>
       <c r="G56" s="11">
-        <f>+E56*1000+H56</f>
-        <v>270108008</v>
+        <f t="shared" si="1"/>
+        <v>270108005</v>
       </c>
       <c r="H56" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J56" s="26" t="str">
+        <v>71</v>
+      </c>
+      <c r="J56" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Traslado-270108008</v>
-      </c>
-      <c r="K56" s="27" t="str">
+        <v>Deserción-270108005</v>
+      </c>
+      <c r="K56" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Traslado-270108008 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Deserción-270108005 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L56" s="9" t="str">
-        <f>+SUBSTITUTE(G56&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I56, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
-        <v>270108008traslado</v>
-      </c>
-      <c r="M56" s="28" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G56&amp;",'"&amp;I56&amp;"','"&amp;J56&amp;"','"&amp;K56&amp;"',"&amp;E56&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270108008,'Traslado','Traslado-270108008','Traslado-270108008 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>270108005desercion</v>
+      </c>
+      <c r="M56" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria VALUES (270108005,'Deserción','Deserción-270108005','Deserción-270108005 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A57" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B57" s="8" t="str">
@@ -5699,7 +5745,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C57" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D57" s="8" t="str">
@@ -5707,7 +5753,7 @@
         <v>Violencia</v>
       </c>
       <c r="E57" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270108</v>
       </c>
       <c r="F57" s="8" t="str">
@@ -5715,35 +5761,35 @@
         <v>Centros de la Mujer</v>
       </c>
       <c r="G57" s="11">
-        <f t="shared" si="2"/>
-        <v>270108009</v>
+        <f t="shared" si="1"/>
+        <v>270108006</v>
       </c>
       <c r="H57" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J57" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Fallecimiento-270108009</v>
+        <v>Interrupción-270108006</v>
       </c>
       <c r="K57" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Fallecimiento-270108009 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Interrupción-270108006 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L57" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>270108009fallecimiento</v>
+        <f t="shared" si="2"/>
+        <v>270108006interrupcion</v>
       </c>
       <c r="M57" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270108009,'Fallecimiento','Fallecimiento-270108009','Fallecimiento-270108009 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>INSERT INTO categoria VALUES (270108006,'Interrupción','Interrupción-270108006','Interrupción-270108006 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A58" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B58" s="8" t="str">
@@ -5751,7 +5797,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C58" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D58" s="8" t="str">
@@ -5759,43 +5805,43 @@
         <v>Violencia</v>
       </c>
       <c r="E58" s="10">
-        <f t="shared" si="1"/>
-        <v>270109</v>
+        <f t="shared" si="5"/>
+        <v>270108</v>
       </c>
       <c r="F58" s="8" t="str">
         <f>+VLOOKUP(E58,Productos[[Id_producto]:[Codigo]],3,0)</f>
-        <v>Casas de Acogida</v>
+        <v>Centros de la Mujer</v>
       </c>
       <c r="G58" s="11">
-        <f t="shared" si="2"/>
-        <v>270109001</v>
+        <f t="shared" si="1"/>
+        <v>270108007</v>
       </c>
       <c r="H58" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J58" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Ingresos de años anteriores (por arrastre)-270109001</v>
+        <v>Derivacion-270108007</v>
       </c>
       <c r="K58" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Ingresos de años anteriores (por arrastre)-270109001 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Derivacion-270108007 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L58" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>270109001ingresos_de_años_anteriores_(por_arrastre)</v>
+        <f t="shared" si="2"/>
+        <v>270108007derivacion</v>
       </c>
       <c r="M58" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270109001,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270109001','Ingresos de años anteriores (por arrastre)-270109001 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <v>INSERT INTO categoria VALUES (270108007,'Derivacion','Derivacion-270108007','Derivacion-270108007 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A59" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B59" s="8" t="str">
@@ -5803,7 +5849,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C59" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D59" s="8" t="str">
@@ -5811,43 +5857,43 @@
         <v>Violencia</v>
       </c>
       <c r="E59" s="10">
-        <f t="shared" si="1"/>
-        <v>270109</v>
+        <f t="shared" si="5"/>
+        <v>270108</v>
       </c>
       <c r="F59" s="8" t="str">
         <f>+VLOOKUP(E59,Productos[[Id_producto]:[Codigo]],3,0)</f>
-        <v>Casas de Acogida</v>
+        <v>Centros de la Mujer</v>
       </c>
       <c r="G59" s="11">
-        <f t="shared" si="2"/>
-        <v>270109002</v>
+        <f>+E59*1000+H59</f>
+        <v>270108008</v>
       </c>
       <c r="H59" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J59" s="8" t="str">
+        <v>74</v>
+      </c>
+      <c r="J59" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Pre ingresos de Mujeres-270109002</v>
-      </c>
-      <c r="K59" s="9" t="str">
+        <v>Traslado-270108008</v>
+      </c>
+      <c r="K59" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Pre ingresos de Mujeres-270109002 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Traslado-270108008 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L59" s="9" t="str">
+        <f>+SUBSTITUTE(G59&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I59, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
+        <v>270108008traslado</v>
+      </c>
+      <c r="M59" s="28" t="str">
+        <f>+"INSERT INTO categoria VALUES ("&amp;G59&amp;",'"&amp;I59&amp;"','"&amp;J59&amp;"','"&amp;K59&amp;"',"&amp;E59&amp;");"</f>
+        <v>INSERT INTO categoria VALUES (270108008,'Traslado','Traslado-270108008','Traslado-270108008 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="10">
         <f t="shared" si="3"/>
-        <v>270109002pre_ingresos_de_mujeres</v>
-      </c>
-      <c r="M59" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270109002,'Pre ingresos de Mujeres','Pre ingresos de Mujeres-270109002','Pre ingresos de Mujeres-270109002 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A60" s="10">
-        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B60" s="8" t="str">
@@ -5855,7 +5901,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C60" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D60" s="8" t="str">
@@ -5863,43 +5909,43 @@
         <v>Violencia</v>
       </c>
       <c r="E60" s="10">
-        <f t="shared" si="1"/>
-        <v>270109</v>
+        <f t="shared" si="5"/>
+        <v>270108</v>
       </c>
       <c r="F60" s="8" t="str">
         <f>+VLOOKUP(E60,Productos[[Id_producto]:[Codigo]],3,0)</f>
-        <v>Casas de Acogida</v>
+        <v>Centros de la Mujer</v>
       </c>
       <c r="G60" s="11">
-        <f t="shared" si="2"/>
-        <v>270109003</v>
+        <f t="shared" si="1"/>
+        <v>270108009</v>
       </c>
       <c r="H60" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J60" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Ingresos efectivos de Mujeres-270109003</v>
+        <v>Fallecimiento-270108009</v>
       </c>
       <c r="K60" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Ingresos efectivos de Mujeres-270109003 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Fallecimiento-270108009 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L60" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>270109003ingresos_efectivos_de_mujeres</v>
+        <f t="shared" si="2"/>
+        <v>270108009fallecimiento</v>
       </c>
       <c r="M60" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270109003,'Ingresos efectivos de Mujeres','Ingresos efectivos de Mujeres-270109003','Ingresos efectivos de Mujeres-270109003 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>INSERT INTO categoria VALUES (270108009,'Fallecimiento','Fallecimiento-270108009','Fallecimiento-270108009 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A61" s="10">
-        <f t="shared" si="4"/>
+        <f>+A60</f>
         <v>27</v>
       </c>
       <c r="B61" s="8" t="str">
@@ -5907,7 +5953,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C61" s="10">
-        <f t="shared" si="5"/>
+        <f>+C60</f>
         <v>2701</v>
       </c>
       <c r="D61" s="8" t="str">
@@ -5915,43 +5961,43 @@
         <v>Violencia</v>
       </c>
       <c r="E61" s="10">
-        <f t="shared" si="1"/>
-        <v>270109</v>
+        <f>+IF(H61=1,E60+1,E60)</f>
+        <v>270108</v>
       </c>
       <c r="F61" s="8" t="str">
         <f>+VLOOKUP(E61,Productos[[Id_producto]:[Codigo]],3,0)</f>
-        <v>Casas de Acogida</v>
+        <v>Centros de la Mujer</v>
       </c>
       <c r="G61" s="11">
-        <f t="shared" si="2"/>
-        <v>270109004</v>
+        <f>+E61*1000+H61</f>
+        <v>270108010</v>
       </c>
       <c r="H61" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J61" s="8" t="str">
+        <v>56</v>
+      </c>
+      <c r="J61" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Ingresos de niños y niñas-270109004</v>
-      </c>
-      <c r="K61" s="9" t="str">
+        <v>Centros de la Mujer-270108010</v>
+      </c>
+      <c r="K61" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Ingresos de niños y niñas-270109004 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Centros de la Mujer-270108010 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L61" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>270109004ingresos_de_niños_y_niñas</v>
-      </c>
-      <c r="M61" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270109004,'Ingresos de niños y niñas','Ingresos de niños y niñas-270109004','Ingresos de niños y niñas-270109004 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <f>+SUBSTITUTE(G61&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I61, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
+        <v>270108010centros_de_la_mujer</v>
+      </c>
+      <c r="M61" s="28" t="str">
+        <f>+"INSERT INTO categoria VALUES ("&amp;G61&amp;",'"&amp;I61&amp;"','"&amp;J61&amp;"','"&amp;K61&amp;"',"&amp;E61&amp;");"</f>
+        <v>INSERT INTO categoria VALUES (270108010,'Centros de la Mujer','Centros de la Mujer-270108010','Centros de la Mujer-270108010 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A62" s="10">
-        <f t="shared" si="4"/>
+        <f>+A61</f>
         <v>27</v>
       </c>
       <c r="B62" s="8" t="str">
@@ -5959,7 +6005,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C62" s="10">
-        <f t="shared" si="5"/>
+        <f>+C61</f>
         <v>2701</v>
       </c>
       <c r="D62" s="8" t="str">
@@ -5967,7 +6013,7 @@
         <v>Violencia</v>
       </c>
       <c r="E62" s="10">
-        <f t="shared" si="1"/>
+        <f>+IF(H62=1,E61+1,E61)</f>
         <v>270109</v>
       </c>
       <c r="F62" s="8" t="str">
@@ -5975,35 +6021,35 @@
         <v>Casas de Acogida</v>
       </c>
       <c r="G62" s="11">
-        <f>+E62*1000+H62</f>
-        <v>270109005</v>
+        <f t="shared" si="1"/>
+        <v>270109001</v>
       </c>
       <c r="H62" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J62" s="26" t="str">
+        <v>68</v>
+      </c>
+      <c r="J62" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Egreso-270109005</v>
-      </c>
-      <c r="K62" s="27" t="str">
+        <v>Ingresos de años anteriores (por arrastre)-270109001</v>
+      </c>
+      <c r="K62" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Egreso-270109005 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Ingresos de años anteriores (por arrastre)-270109001 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L62" s="9" t="str">
-        <f>+SUBSTITUTE(G62&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I62, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
-        <v>270109005egreso</v>
-      </c>
-      <c r="M62" s="28" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G62&amp;",'"&amp;I62&amp;"','"&amp;J62&amp;"','"&amp;K62&amp;"',"&amp;E62&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270109005,'Egreso','Egreso-270109005','Egreso-270109005 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>270109001ingresos_de_años_anteriores_(por_arrastre)</v>
+      </c>
+      <c r="M62" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria VALUES (270109001,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270109001','Ingresos de años anteriores (por arrastre)-270109001 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A63" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B63" s="8" t="str">
@@ -6011,7 +6057,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C63" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D63" s="8" t="str">
@@ -6019,7 +6065,7 @@
         <v>Violencia</v>
       </c>
       <c r="E63" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270109</v>
       </c>
       <c r="F63" s="8" t="str">
@@ -6027,35 +6073,35 @@
         <v>Casas de Acogida</v>
       </c>
       <c r="G63" s="11">
-        <f>+E63*1000+H63</f>
-        <v>270109006</v>
+        <f t="shared" si="1"/>
+        <v>270109002</v>
       </c>
       <c r="H63" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J63" s="26" t="str">
+        <v>76</v>
+      </c>
+      <c r="J63" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Deserción-270109006</v>
-      </c>
-      <c r="K63" s="27" t="str">
+        <v>Pre ingresos de Mujeres-270109002</v>
+      </c>
+      <c r="K63" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Deserción-270109006 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Pre ingresos de Mujeres-270109002 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L63" s="9" t="str">
-        <f>+SUBSTITUTE(G63&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I63, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
-        <v>270109006desercion</v>
-      </c>
-      <c r="M63" s="28" t="str">
-        <f>+"INSERT INTO categoria VALUES ("&amp;G63&amp;",'"&amp;I63&amp;"','"&amp;J63&amp;"','"&amp;K63&amp;"',"&amp;E63&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270109006,'Deserción','Deserción-270109006','Deserción-270109006 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>270109002pre_ingresos_de_mujeres</v>
+      </c>
+      <c r="M63" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria VALUES (270109002,'Pre ingresos de Mujeres','Pre ingresos de Mujeres-270109002','Pre ingresos de Mujeres-270109002 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A64" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B64" s="8" t="str">
@@ -6063,7 +6109,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C64" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D64" s="8" t="str">
@@ -6071,7 +6117,7 @@
         <v>Violencia</v>
       </c>
       <c r="E64" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270109</v>
       </c>
       <c r="F64" s="8" t="str">
@@ -6079,35 +6125,35 @@
         <v>Casas de Acogida</v>
       </c>
       <c r="G64" s="11">
-        <f t="shared" si="2"/>
-        <v>270109007</v>
+        <f t="shared" si="1"/>
+        <v>270109003</v>
       </c>
       <c r="H64" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J64" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Traslado-270109007</v>
+        <v>Ingresos efectivos de Mujeres-270109003</v>
       </c>
       <c r="K64" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Traslado-270109007 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Ingresos efectivos de Mujeres-270109003 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L64" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>270109007traslado</v>
+        <f t="shared" si="2"/>
+        <v>270109003ingresos_efectivos_de_mujeres</v>
       </c>
       <c r="M64" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270109007,'Traslado','Traslado-270109007','Traslado-270109007 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <v>INSERT INTO categoria VALUES (270109003,'Ingresos efectivos de Mujeres','Ingresos efectivos de Mujeres-270109003','Ingresos efectivos de Mujeres-270109003 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A65" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B65" s="8" t="str">
@@ -6115,7 +6161,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C65" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D65" s="8" t="str">
@@ -6123,7 +6169,7 @@
         <v>Violencia</v>
       </c>
       <c r="E65" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270109</v>
       </c>
       <c r="F65" s="8" t="str">
@@ -6131,35 +6177,35 @@
         <v>Casas de Acogida</v>
       </c>
       <c r="G65" s="11">
-        <f t="shared" si="2"/>
-        <v>270109008</v>
+        <f t="shared" si="1"/>
+        <v>270109004</v>
       </c>
       <c r="H65" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J65" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Retiro-270109008</v>
+        <v>Ingresos de niños y niñas-270109004</v>
       </c>
       <c r="K65" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Retiro-270109008 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Ingresos de niños y niñas-270109004 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L65" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>270109008retiro</v>
+        <f t="shared" si="2"/>
+        <v>270109004ingresos_de_niños_y_niñas</v>
       </c>
       <c r="M65" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270109008,'Retiro','Retiro-270109008','Retiro-270109008 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <v>INSERT INTO categoria VALUES (270109004,'Ingresos de niños y niñas','Ingresos de niños y niñas-270109004','Ingresos de niños y niñas-270109004 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A66" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B66" s="8" t="str">
@@ -6167,7 +6213,7 @@
         <v>Mujeres</v>
       </c>
       <c r="C66" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2701</v>
       </c>
       <c r="D66" s="8" t="str">
@@ -6175,7 +6221,7 @@
         <v>Violencia</v>
       </c>
       <c r="E66" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>270109</v>
       </c>
       <c r="F66" s="8" t="str">
@@ -6184,29 +6230,289 @@
       </c>
       <c r="G66" s="11">
         <f>+E66*1000+H66</f>
-        <v>270109009</v>
+        <v>270109005</v>
       </c>
       <c r="H66" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J66" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Fallecimiento -270109009</v>
+        <v>Egreso-270109005</v>
       </c>
       <c r="K66" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Fallecimiento -270109009 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Egreso-270109005 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L66" s="9" t="str">
         <f>+SUBSTITUTE(G66&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I66, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
-        <v>270109009fallecimiento_</v>
+        <v>270109005egreso</v>
       </c>
       <c r="M66" s="28" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G66&amp;",'"&amp;I66&amp;"','"&amp;J66&amp;"','"&amp;K66&amp;"',"&amp;E66&amp;");"</f>
+        <v>INSERT INTO categoria VALUES (270109005,'Egreso','Egreso-270109005','Egreso-270109005 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="10">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="B67" s="8" t="str">
+        <f>+VLOOKUP(A67,Industria[],2,0)</f>
+        <v>Mujeres</v>
+      </c>
+      <c r="C67" s="10">
+        <f t="shared" si="4"/>
+        <v>2701</v>
+      </c>
+      <c r="D67" s="8" t="str">
+        <f>+VLOOKUP(C67,Sector[[Id_sector]:[Codigo]],3,0)</f>
+        <v>Violencia</v>
+      </c>
+      <c r="E67" s="10">
+        <f t="shared" si="5"/>
+        <v>270109</v>
+      </c>
+      <c r="F67" s="8" t="str">
+        <f>+VLOOKUP(E67,Productos[[Id_producto]:[Codigo]],3,0)</f>
+        <v>Casas de Acogida</v>
+      </c>
+      <c r="G67" s="11">
+        <f>+E67*1000+H67</f>
+        <v>270109006</v>
+      </c>
+      <c r="H67" s="7">
+        <v>6</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J67" s="26" t="str">
+        <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
+        <v>Deserción-270109006</v>
+      </c>
+      <c r="K67" s="27" t="str">
+        <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
+        <v>Deserción-270109006 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+      </c>
+      <c r="L67" s="9" t="str">
+        <f>+SUBSTITUTE(G67&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I67, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
+        <v>270109006desercion</v>
+      </c>
+      <c r="M67" s="28" t="str">
+        <f>+"INSERT INTO categoria VALUES ("&amp;G67&amp;",'"&amp;I67&amp;"','"&amp;J67&amp;"','"&amp;K67&amp;"',"&amp;E67&amp;");"</f>
+        <v>INSERT INTO categoria VALUES (270109006,'Deserción','Deserción-270109006','Deserción-270109006 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="10">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="B68" s="8" t="str">
+        <f>+VLOOKUP(A68,Industria[],2,0)</f>
+        <v>Mujeres</v>
+      </c>
+      <c r="C68" s="10">
+        <f t="shared" si="4"/>
+        <v>2701</v>
+      </c>
+      <c r="D68" s="8" t="str">
+        <f>+VLOOKUP(C68,Sector[[Id_sector]:[Codigo]],3,0)</f>
+        <v>Violencia</v>
+      </c>
+      <c r="E68" s="10">
+        <f t="shared" si="5"/>
+        <v>270109</v>
+      </c>
+      <c r="F68" s="8" t="str">
+        <f>+VLOOKUP(E68,Productos[[Id_producto]:[Codigo]],3,0)</f>
+        <v>Casas de Acogida</v>
+      </c>
+      <c r="G68" s="11">
+        <f t="shared" si="1"/>
+        <v>270109007</v>
+      </c>
+      <c r="H68" s="7">
+        <v>7</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J68" s="8" t="str">
+        <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
+        <v>Traslado-270109007</v>
+      </c>
+      <c r="K68" s="9" t="str">
+        <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
+        <v>Traslado-270109007 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+      </c>
+      <c r="L68" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>270109007traslado</v>
+      </c>
+      <c r="M68" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria VALUES (270109007,'Traslado','Traslado-270109007','Traslado-270109007 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="10">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="B69" s="8" t="str">
+        <f>+VLOOKUP(A69,Industria[],2,0)</f>
+        <v>Mujeres</v>
+      </c>
+      <c r="C69" s="10">
+        <f t="shared" si="4"/>
+        <v>2701</v>
+      </c>
+      <c r="D69" s="8" t="str">
+        <f>+VLOOKUP(C69,Sector[[Id_sector]:[Codigo]],3,0)</f>
+        <v>Violencia</v>
+      </c>
+      <c r="E69" s="10">
+        <f t="shared" si="5"/>
+        <v>270109</v>
+      </c>
+      <c r="F69" s="8" t="str">
+        <f>+VLOOKUP(E69,Productos[[Id_producto]:[Codigo]],3,0)</f>
+        <v>Casas de Acogida</v>
+      </c>
+      <c r="G69" s="11">
+        <f t="shared" si="1"/>
+        <v>270109008</v>
+      </c>
+      <c r="H69" s="7">
+        <v>8</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J69" s="8" t="str">
+        <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
+        <v>Retiro-270109008</v>
+      </c>
+      <c r="K69" s="9" t="str">
+        <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
+        <v>Retiro-270109008 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+      </c>
+      <c r="L69" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>270109008retiro</v>
+      </c>
+      <c r="M69" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria VALUES (270109008,'Retiro','Retiro-270109008','Retiro-270109008 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="10">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="B70" s="8" t="str">
+        <f>+VLOOKUP(A70,Industria[],2,0)</f>
+        <v>Mujeres</v>
+      </c>
+      <c r="C70" s="10">
+        <f t="shared" si="4"/>
+        <v>2701</v>
+      </c>
+      <c r="D70" s="8" t="str">
+        <f>+VLOOKUP(C70,Sector[[Id_sector]:[Codigo]],3,0)</f>
+        <v>Violencia</v>
+      </c>
+      <c r="E70" s="10">
+        <f t="shared" si="5"/>
+        <v>270109</v>
+      </c>
+      <c r="F70" s="8" t="str">
+        <f>+VLOOKUP(E70,Productos[[Id_producto]:[Codigo]],3,0)</f>
+        <v>Casas de Acogida</v>
+      </c>
+      <c r="G70" s="11">
+        <f>+E70*1000+H70</f>
+        <v>270109009</v>
+      </c>
+      <c r="H70" s="7">
+        <v>9</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J70" s="26" t="str">
+        <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
+        <v>Fallecimiento -270109009</v>
+      </c>
+      <c r="K70" s="27" t="str">
+        <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
+        <v>Fallecimiento -270109009 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+      </c>
+      <c r="L70" s="9" t="str">
+        <f>+SUBSTITUTE(G70&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I70, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
+        <v>270109009fallecimiento_</v>
+      </c>
+      <c r="M70" s="28" t="str">
+        <f>+"INSERT INTO categoria VALUES ("&amp;G70&amp;",'"&amp;I70&amp;"','"&amp;J70&amp;"','"&amp;K70&amp;"',"&amp;E70&amp;");"</f>
         <v>INSERT INTO categoria VALUES (270109009,'Fallecimiento ','Fallecimiento -270109009','Fallecimiento -270109009 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="33">
+        <f>+A70</f>
+        <v>27</v>
+      </c>
+      <c r="B71" s="34" t="str">
+        <f>+VLOOKUP(A71,Industria[],2,0)</f>
+        <v>Mujeres</v>
+      </c>
+      <c r="C71" s="33">
+        <f>+C70</f>
+        <v>2701</v>
+      </c>
+      <c r="D71" s="34" t="str">
+        <f>+VLOOKUP(C71,Sector[[Id_sector]:[Codigo]],3,0)</f>
+        <v>Violencia</v>
+      </c>
+      <c r="E71" s="33">
+        <f>+IF(H71=1,E70+1,E70)</f>
+        <v>270109</v>
+      </c>
+      <c r="F71" s="34" t="str">
+        <f>+VLOOKUP(E71,Productos[[Id_producto]:[Codigo]],3,0)</f>
+        <v>Casas de Acogida</v>
+      </c>
+      <c r="G71" s="35">
+        <f>+E71*1000+H71</f>
+        <v>270109010</v>
+      </c>
+      <c r="H71" s="36">
+        <v>10</v>
+      </c>
+      <c r="I71" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="J71" s="37" t="str">
+        <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
+        <v>Casas de Acogida-270109010</v>
+      </c>
+      <c r="K71" s="38" t="str">
+        <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
+        <v>Casas de Acogida-270109010 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+      </c>
+      <c r="L71" s="39" t="str">
+        <f>+SUBSTITUTE(G71&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I71, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
+        <v>270109010casas_de_acogida</v>
+      </c>
+      <c r="M71" s="40" t="str">
+        <f>+"INSERT INTO categoria VALUES ("&amp;G71&amp;",'"&amp;I71&amp;"','"&amp;J71&amp;"','"&amp;K71&amp;"',"&amp;E71&amp;");"</f>
+        <v>INSERT INTO categoria VALUES (270109010,'Casas de Acogida','Casas de Acogida-270109010','Casas de Acogida-270109010 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
   </sheetData>

--- a/000 TABLAS GENERALES/27-01 Colección VIOLENCIA.xlsx
+++ b/000 TABLAS GENERALES/27-01 Colección VIOLENCIA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\Diseño DATA's (1)\DATA-COMUN\000 TABLAS GENERALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2BBA57-E31D-4FD7-859B-4C5CA4D73DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581B4F0E-24C7-41A9-B914-8930E8A16FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Industria" sheetId="2" r:id="rId1"/>
@@ -2174,8 +2174,8 @@
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Industria" xr10:uid="{B77F4C3B-1E6F-44BC-8D8D-E6B3EA184597}" cache="SegmentaciónDeDatos_Industria" caption="Industria" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Sector" xr10:uid="{FF7AA0F4-9660-460D-B2AE-353118A2D7F9}" cache="SegmentaciónDeDatos_Sector" caption="Sector" columnCount="2" style="SlicerStyleDark2" rowHeight="234950"/>
-  <slicer name="Producto" xr10:uid="{B125ED2F-B418-43BC-8483-A3E970856379}" cache="SegmentaciónDeDatos_Producto" caption="Producto" columnCount="2" style="SlicerStyleDark6" rowHeight="234950"/>
-  <slicer name="Categoría" xr10:uid="{7A113C3F-48D3-4EAB-AD86-BC4F27FE844F}" cache="SegmentaciónDeDatos_Categoría" caption="Categoría" startItem="3" columnCount="3" style="SlicerStyleDark4" rowHeight="234950"/>
+  <slicer name="Producto" xr10:uid="{B125ED2F-B418-43BC-8483-A3E970856379}" cache="SegmentaciónDeDatos_Producto" caption="Producto" startItem="2" columnCount="2" style="SlicerStyleDark6" rowHeight="234950"/>
+  <slicer name="Categoría" xr10:uid="{7A113C3F-48D3-4EAB-AD86-BC4F27FE844F}" cache="SegmentaciónDeDatos_Categoría" caption="Categoría" columnCount="3" style="SlicerStyleDark4" rowHeight="234950"/>
 </slicers>
 </file>
 
@@ -2257,7 +2257,13 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B64F2DF3-4D7E-46EF-A4E5-B8107E819F63}" name="Categorias" displayName="Categorias" ref="A9:M71" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A9:M71" xr:uid="{2A0DEF65-5AE9-475C-BE4C-05864630122D}"/>
+  <autoFilter ref="A9:M71" xr:uid="{2A0DEF65-5AE9-475C-BE4C-05864630122D}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Atenciones médicas"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{2B095AA1-D6BB-4496-A43C-BB7252FA6BED}" name="Id_industria" dataDxfId="12">
       <calculatedColumnFormula>+A9</calculatedColumnFormula>
@@ -2603,16 +2609,16 @@
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" customWidth="1"/>
-    <col min="4" max="4" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -2629,7 +2635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>27</v>
       </c>
@@ -2666,26 +2672,26 @@
       <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.36328125" customWidth="1"/>
-    <col min="4" max="4" width="5.36328125" customWidth="1"/>
-    <col min="5" max="5" width="26.453125" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.81640625" customWidth="1"/>
-    <col min="8" max="8" width="59.08984375" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" customWidth="1"/>
+    <col min="8" max="8" width="59.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H9" s="29">
         <f>+SUBTOTAL(3,Sector[Sector])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -2711,7 +2717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>27</v>
       </c>
@@ -2766,28 +2772,28 @@
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="5.81640625" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" customWidth="1"/>
-    <col min="6" max="6" width="5.6328125" customWidth="1"/>
-    <col min="7" max="7" width="25.36328125" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="33" customWidth="1"/>
-    <col min="10" max="10" width="64.81640625" customWidth="1"/>
+    <col min="10" max="10" width="64.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J9" s="29">
         <f>+SUBTOTAL(3,Productos[Producto])</f>
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -2819,7 +2825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>27</v>
       </c>
@@ -2860,7 +2866,7 @@
         <v>270101 Producto|| Delitos Cometidos por Empleados y Funcionarios Públicos</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <f>+A11</f>
         <v>27</v>
@@ -2903,7 +2909,7 @@
         <v>270102 Producto|| Delitos sexuales</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <f t="shared" ref="A13:A19" si="3">+A12</f>
         <v>27</v>
@@ -2946,7 +2952,7 @@
         <v>270103 Producto|| Delitos violentos</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -2989,7 +2995,7 @@
         <v>270104 Producto|| Delitos Contra el Estado Civil y la Familia</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3032,7 +3038,7 @@
         <v>270105 Producto|| Delitos Contra la Vida, Integridad o Dignidad Personal</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3075,7 +3081,7 @@
         <v>270106 Producto|| Delitos Contra la Intimidad y la Libertad</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3118,7 +3124,7 @@
         <v>270107 Producto|| Atenciones médicas</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3161,7 +3167,7 @@
         <v>270108 Producto|| Centros de la Mujer</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3226,34 +3232,34 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="7.6328125" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" customWidth="1"/>
-    <col min="6" max="6" width="26.6328125" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" customWidth="1"/>
-    <col min="8" max="8" width="4.81640625" customWidth="1"/>
-    <col min="9" max="9" width="21.81640625" customWidth="1"/>
-    <col min="10" max="10" width="24.453125" customWidth="1"/>
-    <col min="11" max="11" width="29.453125" customWidth="1"/>
-    <col min="12" max="12" width="20.08984375" customWidth="1"/>
-    <col min="13" max="13" width="49.36328125" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" customWidth="1"/>
+    <col min="11" max="11" width="29.42578125" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E8" s="12"/>
       <c r="G8" s="12">
         <f>+SUBTOTAL(3,Categorias[Id_categoría])</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -3294,7 +3300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>27</v>
       </c>
@@ -3343,7 +3349,7 @@
         <v>INSERT INTO categoria VALUES (270101001,'Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros','Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001','Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001 | Prod: Delitos-270101 | Sector: Mujer-2701 | Industria: MUJER-27',270101);</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <f>+A10</f>
         <v>27</v>
@@ -3395,7 +3401,7 @@
         <v>INSERT INTO categoria VALUES (270102001,'Estupro','Estupro-270102001','Estupro-270102001 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <f t="shared" ref="A12:A70" si="3">+A11</f>
         <v>27</v>
@@ -3447,7 +3453,7 @@
         <v>INSERT INTO categoria VALUES (270102002,'Violación','Violación-270102002','Violación-270102002 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3499,7 +3505,7 @@
         <v>INSERT INTO categoria VALUES (270102003,'Abuso Sexual (Sólo Crimen)','Abuso Sexual (Sólo Crimen)-270102003','Abuso Sexual (Sólo Crimen)-270102003 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3551,7 +3557,7 @@
         <v>INSERT INTO categoria VALUES (270102004,'Abuso Sexual Adulto','Abuso Sexual Adulto-270102004','Abuso Sexual Adulto-270102004 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3603,7 +3609,7 @@
         <v>INSERT INTO categoria VALUES (270102005,'Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal','Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005','Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3655,7 +3661,7 @@
         <v>INSERT INTO categoria VALUES (270102006,'Abuso Sexual Con Contacto De Menor De 14 Años','Abuso Sexual Con Contacto De Menor De 14 Años-270102006','Abuso Sexual Con Contacto De Menor De 14 Años-270102006 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3707,7 +3713,7 @@
         <v>INSERT INTO categoria VALUES (270102007,'Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro','Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007','Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3759,7 +3765,7 @@
         <v>INSERT INTO categoria VALUES (270102008,'Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)','Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008','Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3811,7 +3817,7 @@
         <v>INSERT INTO categoria VALUES (270102009,'Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento','Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009','Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3863,7 +3869,7 @@
         <v>INSERT INTO categoria VALUES (270102010,'Abuso Sexual Sin Contacto','Abuso Sexual Sin Contacto-270102010','Abuso Sexual Sin Contacto-270102010 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3915,7 +3921,7 @@
         <v>INSERT INTO categoria VALUES (270102011,'Delitos De Signifación Sexual','Delitos De Signifación Sexual-270102011','Delitos De Signifación Sexual-270102011 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3967,7 +3973,7 @@
         <v>INSERT INTO categoria VALUES (270102012,'Producción De Material Pornógrafico Utilizando Menores 18 Años','Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012','Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4019,7 +4025,7 @@
         <v>INSERT INTO categoria VALUES (270102013,'Promover O Facilitar Prostitucion De Menores','Promover O Facilitar Prostitucion De Menores-270102013','Promover O Facilitar Prostitucion De Menores-270102013 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4071,7 +4077,7 @@
         <v>INSERT INTO categoria VALUES (270102014,'Violación De Mayor De 14 Años','Violación De Mayor De 14 Años-270102014','Violación De Mayor De 14 Años-270102014 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4123,7 +4129,7 @@
         <v>INSERT INTO categoria VALUES (270102015,'Violación De Menor De 14 Años','Violación De Menor De 14 Años-270102015','Violación De Menor De 14 Años-270102015 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4175,7 +4181,7 @@
         <v>INSERT INTO categoria VALUES (270102016,'Acoso Sexual Lugares Públicos /Libre Acceso Público','Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016','Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4227,7 +4233,7 @@
         <v>INSERT INTO categoria VALUES (270102017,'Violación Con Homicidio O Femicidio','Violación Con Homicidio O Femicidio-270102017','Violación Con Homicidio O Femicidio-270102017 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4279,7 +4285,7 @@
         <v>INSERT INTO categoria VALUES (270102018,'Difusión De Material Pornográfico','Difusión De Material Pornográfico-270102018','Difusión De Material Pornográfico-270102018 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4331,7 +4337,7 @@
         <v>INSERT INTO categoria VALUES (270103001,'Femicidio','Femicidio-270103001','Femicidio-270103001 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4383,7 +4389,7 @@
         <v>INSERT INTO categoria VALUES (270103002,'Femicidio Intimo','Femicidio Intimo-270103002','Femicidio Intimo-270103002 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4435,7 +4441,7 @@
         <v>INSERT INTO categoria VALUES (270103003,'Secuestro Con Violación','Secuestro Con Violación-270103003','Secuestro Con Violación-270103003 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4487,7 +4493,7 @@
         <v>INSERT INTO categoria VALUES (270103004,'Secuestro Con Homicidio, Violación O Lesiones','Secuestro Con Homicidio, Violación O Lesiones-270103004','Secuestro Con Homicidio, Violación O Lesiones-270103004 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4539,7 +4545,7 @@
         <v>INSERT INTO categoria VALUES (270103005,'Tortura Con Violación, Abuso Sexual Agravado/Otros','Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005','Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4591,7 +4597,7 @@
         <v>INSERT INTO categoria VALUES (270103006,'Femicidio No Íntimo','Femicidio No Íntimo-270103006','Femicidio No Íntimo-270103006 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <f>+A34</f>
         <v>27</v>
@@ -4643,7 +4649,7 @@
         <v>INSERT INTO categoria VALUES (270103007,'Violencia Económica','Violencia Económica-270103007','Violencia Económica-270103007 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <f>+A35</f>
         <v>27</v>
@@ -4695,7 +4701,7 @@
         <v>INSERT INTO categoria VALUES (270103008,'Violencia Psicológica','Violencia Psicológica-270103008','Violencia Psicológica-270103008 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <f>+A36</f>
         <v>27</v>
@@ -4747,7 +4753,7 @@
         <v>INSERT INTO categoria VALUES (270104001,'Maltrato Habitual (Violencia Intrafamiliar)','Maltrato Habitual (Violencia Intrafamiliar)-270104001','Maltrato Habitual (Violencia Intrafamiliar)-270104001 | Prod: Delitos-270104 | Sector: Mujer-2701 | Industria: MUJER-27',270104);</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4799,7 +4805,7 @@
         <v>INSERT INTO categoria VALUES (270105001,'Aborto Cometido Por Facultativo Por Causales No Reguladas','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4851,7 +4857,7 @@
         <v>INSERT INTO categoria VALUES (270105002,'Aborto Consentido Causales No Reguladas','Aborto Consentido Causales No Reguladas-270105002','Aborto Consentido Causales No Reguladas-270105002 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4903,7 +4909,7 @@
         <v>INSERT INTO categoria VALUES (270105003,'Aborto Sin Consentimiento','Aborto Sin Consentimiento-270105003','Aborto Sin Consentimiento-270105003 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4955,7 +4961,7 @@
         <v>INSERT INTO categoria VALUES (270105004,'Aborto','Aborto-270105004','Aborto-270105004 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <f>+A41</f>
         <v>27</v>
@@ -5007,7 +5013,7 @@
         <v>INSERT INTO categoria VALUES (270105005,'Tráfico De Órganos Incluyendo los Provenientes de Aborto','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <f>+A42</f>
         <v>27</v>
@@ -5059,7 +5065,7 @@
         <v>INSERT INTO categoria VALUES (270106001,'Infracciones A La Ley De Identidad De Género','Infracciones A La Ley De Identidad De Género-270106001','Infracciones A La Ley De Identidad De Género-270106001 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27',270106);</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5111,7 +5117,7 @@
         <v>INSERT INTO categoria VALUES (270106002,'Acoso Laboral','Acoso Laboral-270106002','Acoso Laboral-270106002 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27',270106);</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="63" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5163,7 +5169,7 @@
         <v>INSERT INTO categoria VALUES (270107001,'Atención por violación (con entrega de anticoncepción de emergencia)','Atención por violación (con entrega de anticoncepción de emergencia)-270107001','Atención por violación (con entrega de anticoncepción de emergencia)-270107001 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="63" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5215,7 +5221,7 @@
         <v>INSERT INTO categoria VALUES (270107002,'Atención por violación (sin entrega de anticoncepción de emergencia )','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5267,7 +5273,7 @@
         <v>INSERT INTO categoria VALUES (270107003,'Estupro','Estupro-270107003','Estupro-270107003 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5319,7 +5325,7 @@
         <v>INSERT INTO categoria VALUES (270107004,'Abuso sexual','Abuso sexual-270107004','Abuso sexual-270107004 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5371,7 +5377,7 @@
         <v>INSERT INTO categoria VALUES (270107005,'Otra violencia','Otra violencia-270107005','Otra violencia-270107005 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5423,7 +5429,7 @@
         <v>INSERT INTO categoria VALUES (270107006,'Violencia Física','Violencia Física-270107006','Violencia Física-270107006 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5475,7 +5481,7 @@
         <v>INSERT INTO categoria VALUES (270107007,'Violencia Intrafamiliar','Violencia Intrafamiliar-270107007','Violencia Intrafamiliar-270107007 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5527,7 +5533,7 @@
         <v>INSERT INTO categoria VALUES (270108001,'Orientación e Información','Orientación e Información-270108001','Orientación e Información-270108001 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5579,7 +5585,7 @@
         <v>INSERT INTO categoria VALUES (270108002,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270108002','Ingresos de años anteriores (por arrastre)-270108002 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5631,7 +5637,7 @@
         <v>INSERT INTO categoria VALUES (270108003,'Ingresos efectivos  de Mujeres','Ingresos efectivos  de Mujeres-270108003','Ingresos efectivos  de Mujeres-270108003 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5683,7 +5689,7 @@
         <v>INSERT INTO categoria VALUES (270108004,'Egreso ','Egreso -270108004','Egreso -270108004 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5735,7 +5741,7 @@
         <v>INSERT INTO categoria VALUES (270108005,'Deserción','Deserción-270108005','Deserción-270108005 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5787,7 +5793,7 @@
         <v>INSERT INTO categoria VALUES (270108006,'Interrupción','Interrupción-270108006','Interrupción-270108006 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5839,7 +5845,7 @@
         <v>INSERT INTO categoria VALUES (270108007,'Derivacion','Derivacion-270108007','Derivacion-270108007 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5891,7 +5897,7 @@
         <v>INSERT INTO categoria VALUES (270108008,'Traslado','Traslado-270108008','Traslado-270108008 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5943,7 +5949,7 @@
         <v>INSERT INTO categoria VALUES (270108009,'Fallecimiento','Fallecimiento-270108009','Fallecimiento-270108009 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <f>+A60</f>
         <v>27</v>
@@ -5995,7 +6001,7 @@
         <v>INSERT INTO categoria VALUES (270108010,'Centros de la Mujer','Centros de la Mujer-270108010','Centros de la Mujer-270108010 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <f>+A61</f>
         <v>27</v>
@@ -6047,7 +6053,7 @@
         <v>INSERT INTO categoria VALUES (270109001,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270109001','Ingresos de años anteriores (por arrastre)-270109001 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6099,7 +6105,7 @@
         <v>INSERT INTO categoria VALUES (270109002,'Pre ingresos de Mujeres','Pre ingresos de Mujeres-270109002','Pre ingresos de Mujeres-270109002 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6151,7 +6157,7 @@
         <v>INSERT INTO categoria VALUES (270109003,'Ingresos efectivos de Mujeres','Ingresos efectivos de Mujeres-270109003','Ingresos efectivos de Mujeres-270109003 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6203,7 +6209,7 @@
         <v>INSERT INTO categoria VALUES (270109004,'Ingresos de niños y niñas','Ingresos de niños y niñas-270109004','Ingresos de niños y niñas-270109004 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6255,7 +6261,7 @@
         <v>INSERT INTO categoria VALUES (270109005,'Egreso','Egreso-270109005','Egreso-270109005 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6307,7 +6313,7 @@
         <v>INSERT INTO categoria VALUES (270109006,'Deserción','Deserción-270109006','Deserción-270109006 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6359,7 +6365,7 @@
         <v>INSERT INTO categoria VALUES (270109007,'Traslado','Traslado-270109007','Traslado-270109007 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6411,7 +6417,7 @@
         <v>INSERT INTO categoria VALUES (270109008,'Retiro','Retiro-270109008','Retiro-270109008 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6463,7 +6469,7 @@
         <v>INSERT INTO categoria VALUES (270109009,'Fallecimiento ','Fallecimiento -270109009','Fallecimiento -270109009 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="33">
         <f>+A70</f>
         <v>27</v>

--- a/000 TABLAS GENERALES/27-01 Colección VIOLENCIA.xlsx
+++ b/000 TABLAS GENERALES/27-01 Colección VIOLENCIA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\Diseño DATA's (1)\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581B4F0E-24C7-41A9-B914-8930E8A16FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA24FDD2-E188-4044-A3CA-49AB4D2423B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Industria" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
   <si>
     <t>Id_industria</t>
   </si>
@@ -319,6 +319,30 @@
   </si>
   <si>
     <t>Aborto</t>
+  </si>
+  <si>
+    <t>Centros de Atención y Reparación para Mujeres Víctimas/Sobrevivientes de Violencia Sexual</t>
+  </si>
+  <si>
+    <t>Centros de Reeducación de Hombres</t>
+  </si>
+  <si>
+    <t>Establecimientos</t>
+  </si>
+  <si>
+    <t>Orientación e Información (OI)</t>
+  </si>
+  <si>
+    <t>Atención Reparatoria (AR)</t>
+  </si>
+  <si>
+    <t>Mujeres en continuidad de Intervención del año anterior</t>
+  </si>
+  <si>
+    <t>Ingresos efectivos de Hombres</t>
+  </si>
+  <si>
+    <t>Egresos</t>
   </si>
 </sst>
 </file>
@@ -493,7 +517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -609,6 +633,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1571,7 +1601,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1348740</xdr:colOff>
+      <xdr:colOff>1342390</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
@@ -1643,9 +1673,9 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1661160</xdr:colOff>
+      <xdr:colOff>1667510</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -1728,13 +1758,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>27305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>143510</xdr:colOff>
+      <xdr:colOff>140335</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>7440</xdr:rowOff>
+      <xdr:rowOff>10615</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -1804,15 +1834,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>181610</xdr:colOff>
+      <xdr:colOff>178435</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>161290</xdr:colOff>
+      <xdr:colOff>164465</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>163015</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -1882,15 +1912,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
+      <xdr:colOff>560705</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>10795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1173480</xdr:colOff>
+      <xdr:colOff>1170305</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>161110</xdr:rowOff>
+      <xdr:rowOff>164285</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -1960,15 +1990,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1210310</xdr:colOff>
+      <xdr:colOff>1207135</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>10795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>753110</xdr:colOff>
+      <xdr:colOff>749935</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>161110</xdr:rowOff>
+      <xdr:rowOff>164285</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -2174,7 +2204,7 @@
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Industria" xr10:uid="{B77F4C3B-1E6F-44BC-8D8D-E6B3EA184597}" cache="SegmentaciónDeDatos_Industria" caption="Industria" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Sector" xr10:uid="{FF7AA0F4-9660-460D-B2AE-353118A2D7F9}" cache="SegmentaciónDeDatos_Sector" caption="Sector" columnCount="2" style="SlicerStyleDark2" rowHeight="234950"/>
-  <slicer name="Producto" xr10:uid="{B125ED2F-B418-43BC-8483-A3E970856379}" cache="SegmentaciónDeDatos_Producto" caption="Producto" startItem="2" columnCount="2" style="SlicerStyleDark6" rowHeight="234950"/>
+  <slicer name="Producto" xr10:uid="{B125ED2F-B418-43BC-8483-A3E970856379}" cache="SegmentaciónDeDatos_Producto" caption="Producto" columnCount="2" style="SlicerStyleDark6" rowHeight="234950"/>
   <slicer name="Categoría" xr10:uid="{7A113C3F-48D3-4EAB-AD86-BC4F27FE844F}" cache="SegmentaciónDeDatos_Categoría" caption="Categoría" columnCount="3" style="SlicerStyleDark4" rowHeight="234950"/>
 </slicers>
 </file>
@@ -2223,8 +2253,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C2C6CD3-3E67-45FE-9811-EAD808C36B1F}" name="Productos" displayName="Productos" ref="A10:J19" totalsRowShown="0">
-  <autoFilter ref="A10:J19" xr:uid="{F612DA80-03BC-4D2D-B4B6-74414FA4CBCF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C2C6CD3-3E67-45FE-9811-EAD808C36B1F}" name="Productos" displayName="Productos" ref="A10:J21" totalsRowShown="0">
+  <autoFilter ref="A10:J21" xr:uid="{F612DA80-03BC-4D2D-B4B6-74414FA4CBCF}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{17BBD643-0CB5-4375-BF45-BC9750D7B143}" name="Id_industria" dataDxfId="23">
       <calculatedColumnFormula>+A10</calculatedColumnFormula>
@@ -2256,14 +2286,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B64F2DF3-4D7E-46EF-A4E5-B8107E819F63}" name="Categorias" displayName="Categorias" ref="A9:M71" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A9:M71" xr:uid="{2A0DEF65-5AE9-475C-BE4C-05864630122D}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Atenciones médicas"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B64F2DF3-4D7E-46EF-A4E5-B8107E819F63}" name="Categorias" displayName="Categorias" ref="A9:M76" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A9:M76" xr:uid="{2A0DEF65-5AE9-475C-BE4C-05864630122D}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{2B095AA1-D6BB-4496-A43C-BB7252FA6BED}" name="Id_industria" dataDxfId="12">
       <calculatedColumnFormula>+A9</calculatedColumnFormula>
@@ -2609,16 +2633,16 @@
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -2635,7 +2659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="31">
         <v>27</v>
       </c>
@@ -2672,26 +2696,26 @@
       <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" customWidth="1"/>
-    <col min="8" max="8" width="59.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" customWidth="1"/>
+    <col min="5" max="5" width="26.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.81640625" customWidth="1"/>
+    <col min="8" max="8" width="59.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H9" s="29">
         <f>+SUBTOTAL(3,Sector[Sector])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -2717,7 +2741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="17">
         <v>27</v>
       </c>
@@ -2765,35 +2789,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A916C713-6550-4780-B99D-F35BBEDE9786}">
-  <dimension ref="A7:L19"/>
+  <dimension ref="A7:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" customWidth="1"/>
+    <col min="6" max="6" width="5.54296875" customWidth="1"/>
+    <col min="7" max="7" width="25.453125" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
     <col min="9" max="9" width="33" customWidth="1"/>
-    <col min="10" max="10" width="64.85546875" customWidth="1"/>
+    <col min="10" max="10" width="64.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J9" s="29">
         <f>+SUBTOTAL(3,Productos[Producto])</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="31.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -2825,7 +2849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>27</v>
       </c>
@@ -2866,7 +2890,7 @@
         <v>270101 Producto|| Delitos Cometidos por Empleados y Funcionarios Públicos</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <f>+A11</f>
         <v>27</v>
@@ -2909,7 +2933,7 @@
         <v>270102 Producto|| Delitos sexuales</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <f t="shared" ref="A13:A19" si="3">+A12</f>
         <v>27</v>
@@ -2952,7 +2976,7 @@
         <v>270103 Producto|| Delitos violentos</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -2995,7 +3019,7 @@
         <v>270104 Producto|| Delitos Contra el Estado Civil y la Familia</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3038,7 +3062,7 @@
         <v>270105 Producto|| Delitos Contra la Vida, Integridad o Dignidad Personal</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3081,7 +3105,7 @@
         <v>270106 Producto|| Delitos Contra la Intimidad y la Libertad</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3124,7 +3148,7 @@
         <v>270107 Producto|| Atenciones médicas</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3152,22 +3176,22 @@
         <v>56</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="I18" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
-        <v>Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="J18" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO producto VALUES (270108,'Centros de la Mujer','Salud','Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+        <v>INSERT INTO producto VALUES (270108,'Centros de la Mujer','Establecimientos','Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
       </c>
       <c r="L18" t="str">
         <f>+Productos[[#This Row],[Id_producto]]&amp;" Producto|| "&amp;Productos[[#This Row],[Producto]]</f>
         <v>270108 Producto|| Centros de la Mujer</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3195,19 +3219,105 @@
         <v>57</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="I19" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
-        <v>Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="J19" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO producto VALUES (270109,'Casas de Acogida','Salud','Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+        <v>INSERT INTO producto VALUES (270109,'Casas de Acogida','Establecimientos','Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
       </c>
       <c r="L19" t="str">
         <f>+Productos[[#This Row],[Id_producto]]&amp;" Producto|| "&amp;Productos[[#This Row],[Producto]]</f>
         <v>270109 Producto|| Casas de Acogida</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="48" x14ac:dyDescent="0.35">
+      <c r="A20" s="15">
+        <f t="shared" ref="A20:A21" si="4">+A19</f>
+        <v>27</v>
+      </c>
+      <c r="B20" s="41" t="str">
+        <f>+VLOOKUP(Productos[[#This Row],[Id_industria]],Industria[[Id_industria]:[Industria]],2,0)</f>
+        <v>Mujeres</v>
+      </c>
+      <c r="C20" s="15">
+        <f t="shared" ref="C20:C21" si="5">+IF(F20=1,C19+1,C19)</f>
+        <v>2701</v>
+      </c>
+      <c r="D20" s="41" t="str">
+        <f>+VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Sector]],3,0)</f>
+        <v>Violencia</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" ref="E20:E21" si="6">+C20*100+F20</f>
+        <v>270110</v>
+      </c>
+      <c r="F20" s="16">
+        <v>10</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="42" t="str">
+        <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
+        <v>Prod: Establecimientos-270110 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+      </c>
+      <c r="J20" s="23" t="str">
+        <f t="shared" ref="J20:J21" si="7">+"INSERT INTO producto VALUES ("&amp;E20&amp;",'"&amp;G20&amp;"','"&amp;H20&amp;"','"&amp;I20&amp;"',"&amp;C20&amp;");"</f>
+        <v>INSERT INTO producto VALUES (270110,'Centros de Atención y Reparación para Mujeres Víctimas/Sobrevivientes de Violencia Sexual','Establecimientos','Prod: Establecimientos-270110 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+      </c>
+      <c r="L20" t="str">
+        <f>+Productos[[#This Row],[Id_producto]]&amp;" Producto|| "&amp;Productos[[#This Row],[Producto]]</f>
+        <v>270110 Producto|| Centros de Atención y Reparación para Mujeres Víctimas/Sobrevivientes de Violencia Sexual</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+      <c r="A21" s="15">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="B21" s="41" t="str">
+        <f>+VLOOKUP(Productos[[#This Row],[Id_industria]],Industria[[Id_industria]:[Industria]],2,0)</f>
+        <v>Mujeres</v>
+      </c>
+      <c r="C21" s="15">
+        <f t="shared" si="5"/>
+        <v>2701</v>
+      </c>
+      <c r="D21" s="41" t="str">
+        <f>+VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Sector]],3,0)</f>
+        <v>Violencia</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="6"/>
+        <v>270111</v>
+      </c>
+      <c r="F21" s="16">
+        <v>11</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="42" t="str">
+        <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
+        <v>Prod: Establecimientos-270111 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+      </c>
+      <c r="J21" s="23" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO producto VALUES (270111,'Centros de Reeducación de Hombres','Establecimientos','Prod: Establecimientos-270111 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+      </c>
+      <c r="L21" t="str">
+        <f>+Productos[[#This Row],[Id_producto]]&amp;" Producto|| "&amp;Productos[[#This Row],[Producto]]</f>
+        <v>270111 Producto|| Centros de Reeducación de Hombres</v>
       </c>
     </row>
   </sheetData>
@@ -3228,38 +3338,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F9FCA8-2BDF-4275-A0F6-B9D5CA3C15D7}">
-  <dimension ref="A8:M71"/>
+  <dimension ref="A8:M76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" customWidth="1"/>
-    <col min="11" max="11" width="29.42578125" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" customWidth="1"/>
-    <col min="13" max="13" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" customWidth="1"/>
+    <col min="8" max="8" width="4.81640625" customWidth="1"/>
+    <col min="9" max="9" width="21.81640625" customWidth="1"/>
+    <col min="10" max="10" width="24.453125" customWidth="1"/>
+    <col min="11" max="11" width="29.453125" customWidth="1"/>
+    <col min="12" max="12" width="20.1796875" customWidth="1"/>
+    <col min="13" max="13" width="49.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E8" s="12"/>
       <c r="G8" s="12">
         <f>+SUBTOTAL(3,Categorias[Id_categoría])</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -3300,7 +3410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>27</v>
       </c>
@@ -3349,7 +3459,7 @@
         <v>INSERT INTO categoria VALUES (270101001,'Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros','Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001','Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001 | Prod: Delitos-270101 | Sector: Mujer-2701 | Industria: MUJER-27',270101);</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <f>+A10</f>
         <v>27</v>
@@ -3401,7 +3511,7 @@
         <v>INSERT INTO categoria VALUES (270102001,'Estupro','Estupro-270102001','Estupro-270102001 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <f t="shared" ref="A12:A70" si="3">+A11</f>
         <v>27</v>
@@ -3453,7 +3563,7 @@
         <v>INSERT INTO categoria VALUES (270102002,'Violación','Violación-270102002','Violación-270102002 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3505,7 +3615,7 @@
         <v>INSERT INTO categoria VALUES (270102003,'Abuso Sexual (Sólo Crimen)','Abuso Sexual (Sólo Crimen)-270102003','Abuso Sexual (Sólo Crimen)-270102003 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3557,7 +3667,7 @@
         <v>INSERT INTO categoria VALUES (270102004,'Abuso Sexual Adulto','Abuso Sexual Adulto-270102004','Abuso Sexual Adulto-270102004 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3609,7 +3719,7 @@
         <v>INSERT INTO categoria VALUES (270102005,'Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal','Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005','Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3661,7 +3771,7 @@
         <v>INSERT INTO categoria VALUES (270102006,'Abuso Sexual Con Contacto De Menor De 14 Años','Abuso Sexual Con Contacto De Menor De 14 Años-270102006','Abuso Sexual Con Contacto De Menor De 14 Años-270102006 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3713,7 +3823,7 @@
         <v>INSERT INTO categoria VALUES (270102007,'Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro','Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007','Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3765,7 +3875,7 @@
         <v>INSERT INTO categoria VALUES (270102008,'Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)','Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008','Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3817,7 +3927,7 @@
         <v>INSERT INTO categoria VALUES (270102009,'Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento','Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009','Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3869,7 +3979,7 @@
         <v>INSERT INTO categoria VALUES (270102010,'Abuso Sexual Sin Contacto','Abuso Sexual Sin Contacto-270102010','Abuso Sexual Sin Contacto-270102010 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3921,7 +4031,7 @@
         <v>INSERT INTO categoria VALUES (270102011,'Delitos De Signifación Sexual','Delitos De Signifación Sexual-270102011','Delitos De Signifación Sexual-270102011 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3973,7 +4083,7 @@
         <v>INSERT INTO categoria VALUES (270102012,'Producción De Material Pornógrafico Utilizando Menores 18 Años','Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012','Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4025,7 +4135,7 @@
         <v>INSERT INTO categoria VALUES (270102013,'Promover O Facilitar Prostitucion De Menores','Promover O Facilitar Prostitucion De Menores-270102013','Promover O Facilitar Prostitucion De Menores-270102013 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4077,7 +4187,7 @@
         <v>INSERT INTO categoria VALUES (270102014,'Violación De Mayor De 14 Años','Violación De Mayor De 14 Años-270102014','Violación De Mayor De 14 Años-270102014 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4129,7 +4239,7 @@
         <v>INSERT INTO categoria VALUES (270102015,'Violación De Menor De 14 Años','Violación De Menor De 14 Años-270102015','Violación De Menor De 14 Años-270102015 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4181,7 +4291,7 @@
         <v>INSERT INTO categoria VALUES (270102016,'Acoso Sexual Lugares Públicos /Libre Acceso Público','Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016','Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4233,7 +4343,7 @@
         <v>INSERT INTO categoria VALUES (270102017,'Violación Con Homicidio O Femicidio','Violación Con Homicidio O Femicidio-270102017','Violación Con Homicidio O Femicidio-270102017 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4285,7 +4395,7 @@
         <v>INSERT INTO categoria VALUES (270102018,'Difusión De Material Pornográfico','Difusión De Material Pornográfico-270102018','Difusión De Material Pornográfico-270102018 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4337,7 +4447,7 @@
         <v>INSERT INTO categoria VALUES (270103001,'Femicidio','Femicidio-270103001','Femicidio-270103001 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4389,7 +4499,7 @@
         <v>INSERT INTO categoria VALUES (270103002,'Femicidio Intimo','Femicidio Intimo-270103002','Femicidio Intimo-270103002 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4441,7 +4551,7 @@
         <v>INSERT INTO categoria VALUES (270103003,'Secuestro Con Violación','Secuestro Con Violación-270103003','Secuestro Con Violación-270103003 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4493,7 +4603,7 @@
         <v>INSERT INTO categoria VALUES (270103004,'Secuestro Con Homicidio, Violación O Lesiones','Secuestro Con Homicidio, Violación O Lesiones-270103004','Secuestro Con Homicidio, Violación O Lesiones-270103004 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4545,7 +4655,7 @@
         <v>INSERT INTO categoria VALUES (270103005,'Tortura Con Violación, Abuso Sexual Agravado/Otros','Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005','Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4597,7 +4707,7 @@
         <v>INSERT INTO categoria VALUES (270103006,'Femicidio No Íntimo','Femicidio No Íntimo-270103006','Femicidio No Íntimo-270103006 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <f>+A34</f>
         <v>27</v>
@@ -4649,7 +4759,7 @@
         <v>INSERT INTO categoria VALUES (270103007,'Violencia Económica','Violencia Económica-270103007','Violencia Económica-270103007 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
         <f>+A35</f>
         <v>27</v>
@@ -4701,7 +4811,7 @@
         <v>INSERT INTO categoria VALUES (270103008,'Violencia Psicológica','Violencia Psicológica-270103008','Violencia Psicológica-270103008 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
         <f>+A36</f>
         <v>27</v>
@@ -4753,7 +4863,7 @@
         <v>INSERT INTO categoria VALUES (270104001,'Maltrato Habitual (Violencia Intrafamiliar)','Maltrato Habitual (Violencia Intrafamiliar)-270104001','Maltrato Habitual (Violencia Intrafamiliar)-270104001 | Prod: Delitos-270104 | Sector: Mujer-2701 | Industria: MUJER-27',270104);</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4805,7 +4915,7 @@
         <v>INSERT INTO categoria VALUES (270105001,'Aborto Cometido Por Facultativo Por Causales No Reguladas','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4857,7 +4967,7 @@
         <v>INSERT INTO categoria VALUES (270105002,'Aborto Consentido Causales No Reguladas','Aborto Consentido Causales No Reguladas-270105002','Aborto Consentido Causales No Reguladas-270105002 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4909,7 +5019,7 @@
         <v>INSERT INTO categoria VALUES (270105003,'Aborto Sin Consentimiento','Aborto Sin Consentimiento-270105003','Aborto Sin Consentimiento-270105003 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4961,7 +5071,7 @@
         <v>INSERT INTO categoria VALUES (270105004,'Aborto','Aborto-270105004','Aborto-270105004 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A42" s="10">
         <f>+A41</f>
         <v>27</v>
@@ -5013,7 +5123,7 @@
         <v>INSERT INTO categoria VALUES (270105005,'Tráfico De Órganos Incluyendo los Provenientes de Aborto','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
         <f>+A42</f>
         <v>27</v>
@@ -5065,7 +5175,7 @@
         <v>INSERT INTO categoria VALUES (270106001,'Infracciones A La Ley De Identidad De Género','Infracciones A La Ley De Identidad De Género-270106001','Infracciones A La Ley De Identidad De Género-270106001 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27',270106);</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5117,7 +5227,7 @@
         <v>INSERT INTO categoria VALUES (270106002,'Acoso Laboral','Acoso Laboral-270106002','Acoso Laboral-270106002 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27',270106);</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="63" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5169,7 +5279,7 @@
         <v>INSERT INTO categoria VALUES (270107001,'Atención por violación (con entrega de anticoncepción de emergencia)','Atención por violación (con entrega de anticoncepción de emergencia)-270107001','Atención por violación (con entrega de anticoncepción de emergencia)-270107001 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="63" x14ac:dyDescent="0.35">
       <c r="A46" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5221,7 +5331,7 @@
         <v>INSERT INTO categoria VALUES (270107002,'Atención por violación (sin entrega de anticoncepción de emergencia )','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A47" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5273,7 +5383,7 @@
         <v>INSERT INTO categoria VALUES (270107003,'Estupro','Estupro-270107003','Estupro-270107003 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A48" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5325,7 +5435,7 @@
         <v>INSERT INTO categoria VALUES (270107004,'Abuso sexual','Abuso sexual-270107004','Abuso sexual-270107004 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5377,7 +5487,7 @@
         <v>INSERT INTO categoria VALUES (270107005,'Otra violencia','Otra violencia-270107005','Otra violencia-270107005 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A50" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5429,7 +5539,7 @@
         <v>INSERT INTO categoria VALUES (270107006,'Violencia Física','Violencia Física-270107006','Violencia Física-270107006 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A51" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5481,7 +5591,7 @@
         <v>INSERT INTO categoria VALUES (270107007,'Violencia Intrafamiliar','Violencia Intrafamiliar-270107007','Violencia Intrafamiliar-270107007 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A52" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5522,7 +5632,7 @@
       </c>
       <c r="K52" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Orientación e Información-270108001 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Orientación e Información-270108001 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L52" s="9" t="str">
         <f t="shared" si="10"/>
@@ -5530,10 +5640,10 @@
       </c>
       <c r="M52" s="28" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO categoria VALUES (270108001,'Orientación e Información','Orientación e Información-270108001','Orientación e Información-270108001 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>INSERT INTO categoria VALUES (270108001,'Orientación e Información','Orientación e Información-270108001','Orientación e Información-270108001 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A53" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5574,7 +5684,7 @@
       </c>
       <c r="K53" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Ingresos de años anteriores (por arrastre)-270108002 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Ingresos de años anteriores (por arrastre)-270108002 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L53" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5582,10 +5692,10 @@
       </c>
       <c r="M53" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270108002,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270108002','Ingresos de años anteriores (por arrastre)-270108002 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>INSERT INTO categoria VALUES (270108002,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270108002','Ingresos de años anteriores (por arrastre)-270108002 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A54" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5626,7 +5736,7 @@
       </c>
       <c r="K54" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Ingresos efectivos  de Mujeres-270108003 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Ingresos efectivos  de Mujeres-270108003 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L54" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5634,10 +5744,10 @@
       </c>
       <c r="M54" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270108003,'Ingresos efectivos  de Mujeres','Ingresos efectivos  de Mujeres-270108003','Ingresos efectivos  de Mujeres-270108003 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>INSERT INTO categoria VALUES (270108003,'Ingresos efectivos  de Mujeres','Ingresos efectivos  de Mujeres-270108003','Ingresos efectivos  de Mujeres-270108003 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A55" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5678,7 +5788,7 @@
       </c>
       <c r="K55" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Egreso -270108004 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Egreso -270108004 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L55" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5686,10 +5796,10 @@
       </c>
       <c r="M55" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270108004,'Egreso ','Egreso -270108004','Egreso -270108004 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>INSERT INTO categoria VALUES (270108004,'Egreso ','Egreso -270108004','Egreso -270108004 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A56" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5730,7 +5840,7 @@
       </c>
       <c r="K56" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Deserción-270108005 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Deserción-270108005 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L56" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5738,10 +5848,10 @@
       </c>
       <c r="M56" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270108005,'Deserción','Deserción-270108005','Deserción-270108005 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>INSERT INTO categoria VALUES (270108005,'Deserción','Deserción-270108005','Deserción-270108005 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A57" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5782,7 +5892,7 @@
       </c>
       <c r="K57" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Interrupción-270108006 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Interrupción-270108006 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L57" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5790,10 +5900,10 @@
       </c>
       <c r="M57" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270108006,'Interrupción','Interrupción-270108006','Interrupción-270108006 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>INSERT INTO categoria VALUES (270108006,'Interrupción','Interrupción-270108006','Interrupción-270108006 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A58" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5834,7 +5944,7 @@
       </c>
       <c r="K58" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Derivacion-270108007 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Derivacion-270108007 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L58" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5842,10 +5952,10 @@
       </c>
       <c r="M58" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270108007,'Derivacion','Derivacion-270108007','Derivacion-270108007 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>INSERT INTO categoria VALUES (270108007,'Derivacion','Derivacion-270108007','Derivacion-270108007 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A59" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5886,7 +5996,7 @@
       </c>
       <c r="K59" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Traslado-270108008 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Traslado-270108008 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L59" s="9" t="str">
         <f>+SUBSTITUTE(G59&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I59, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -5894,10 +6004,10 @@
       </c>
       <c r="M59" s="28" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G59&amp;",'"&amp;I59&amp;"','"&amp;J59&amp;"','"&amp;K59&amp;"',"&amp;E59&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270108008,'Traslado','Traslado-270108008','Traslado-270108008 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>INSERT INTO categoria VALUES (270108008,'Traslado','Traslado-270108008','Traslado-270108008 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A60" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5938,7 +6048,7 @@
       </c>
       <c r="K60" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Fallecimiento-270108009 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Fallecimiento-270108009 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L60" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5946,10 +6056,10 @@
       </c>
       <c r="M60" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270108009,'Fallecimiento','Fallecimiento-270108009','Fallecimiento-270108009 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>INSERT INTO categoria VALUES (270108009,'Fallecimiento','Fallecimiento-270108009','Fallecimiento-270108009 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A61" s="10">
         <f>+A60</f>
         <v>27</v>
@@ -5990,7 +6100,7 @@
       </c>
       <c r="K61" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Centros de la Mujer-270108010 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Centros de la Mujer-270108010 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L61" s="9" t="str">
         <f>+SUBSTITUTE(G61&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I61, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -5998,10 +6108,10 @@
       </c>
       <c r="M61" s="28" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G61&amp;",'"&amp;I61&amp;"','"&amp;J61&amp;"','"&amp;K61&amp;"',"&amp;E61&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270108010,'Centros de la Mujer','Centros de la Mujer-270108010','Centros de la Mujer-270108010 | Prod: Salud-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>INSERT INTO categoria VALUES (270108010,'Centros de la Mujer','Centros de la Mujer-270108010','Centros de la Mujer-270108010 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A62" s="10">
         <f>+A61</f>
         <v>27</v>
@@ -6042,7 +6152,7 @@
       </c>
       <c r="K62" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Ingresos de años anteriores (por arrastre)-270109001 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Ingresos de años anteriores (por arrastre)-270109001 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L62" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6050,10 +6160,10 @@
       </c>
       <c r="M62" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270109001,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270109001','Ingresos de años anteriores (por arrastre)-270109001 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>INSERT INTO categoria VALUES (270109001,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270109001','Ingresos de años anteriores (por arrastre)-270109001 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A63" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6094,7 +6204,7 @@
       </c>
       <c r="K63" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Pre ingresos de Mujeres-270109002 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Pre ingresos de Mujeres-270109002 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L63" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6102,10 +6212,10 @@
       </c>
       <c r="M63" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270109002,'Pre ingresos de Mujeres','Pre ingresos de Mujeres-270109002','Pre ingresos de Mujeres-270109002 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>INSERT INTO categoria VALUES (270109002,'Pre ingresos de Mujeres','Pre ingresos de Mujeres-270109002','Pre ingresos de Mujeres-270109002 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A64" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6146,7 +6256,7 @@
       </c>
       <c r="K64" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Ingresos efectivos de Mujeres-270109003 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Ingresos efectivos de Mujeres-270109003 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L64" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6154,10 +6264,10 @@
       </c>
       <c r="M64" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270109003,'Ingresos efectivos de Mujeres','Ingresos efectivos de Mujeres-270109003','Ingresos efectivos de Mujeres-270109003 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>INSERT INTO categoria VALUES (270109003,'Ingresos efectivos de Mujeres','Ingresos efectivos de Mujeres-270109003','Ingresos efectivos de Mujeres-270109003 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A65" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6198,7 +6308,7 @@
       </c>
       <c r="K65" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Ingresos de niños y niñas-270109004 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Ingresos de niños y niñas-270109004 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L65" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6206,10 +6316,10 @@
       </c>
       <c r="M65" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270109004,'Ingresos de niños y niñas','Ingresos de niños y niñas-270109004','Ingresos de niños y niñas-270109004 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>INSERT INTO categoria VALUES (270109004,'Ingresos de niños y niñas','Ingresos de niños y niñas-270109004','Ingresos de niños y niñas-270109004 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A66" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6250,7 +6360,7 @@
       </c>
       <c r="K66" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Egreso-270109005 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Egreso-270109005 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L66" s="9" t="str">
         <f>+SUBSTITUTE(G66&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I66, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -6258,10 +6368,10 @@
       </c>
       <c r="M66" s="28" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G66&amp;",'"&amp;I66&amp;"','"&amp;J66&amp;"','"&amp;K66&amp;"',"&amp;E66&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270109005,'Egreso','Egreso-270109005','Egreso-270109005 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>INSERT INTO categoria VALUES (270109005,'Egreso','Egreso-270109005','Egreso-270109005 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A67" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6302,7 +6412,7 @@
       </c>
       <c r="K67" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Deserción-270109006 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Deserción-270109006 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L67" s="9" t="str">
         <f>+SUBSTITUTE(G67&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I67, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -6310,10 +6420,10 @@
       </c>
       <c r="M67" s="28" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G67&amp;",'"&amp;I67&amp;"','"&amp;J67&amp;"','"&amp;K67&amp;"',"&amp;E67&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270109006,'Deserción','Deserción-270109006','Deserción-270109006 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>INSERT INTO categoria VALUES (270109006,'Deserción','Deserción-270109006','Deserción-270109006 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A68" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6354,7 +6464,7 @@
       </c>
       <c r="K68" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Traslado-270109007 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Traslado-270109007 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L68" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6362,10 +6472,10 @@
       </c>
       <c r="M68" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270109007,'Traslado','Traslado-270109007','Traslado-270109007 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>INSERT INTO categoria VALUES (270109007,'Traslado','Traslado-270109007','Traslado-270109007 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A69" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6406,7 +6516,7 @@
       </c>
       <c r="K69" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Retiro-270109008 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Retiro-270109008 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L69" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6414,10 +6524,10 @@
       </c>
       <c r="M69" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270109008,'Retiro','Retiro-270109008','Retiro-270109008 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>INSERT INTO categoria VALUES (270109008,'Retiro','Retiro-270109008','Retiro-270109008 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A70" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6458,7 +6568,7 @@
       </c>
       <c r="K70" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Fallecimiento -270109009 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Fallecimiento -270109009 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L70" s="9" t="str">
         <f>+SUBSTITUTE(G70&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I70, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -6466,10 +6576,10 @@
       </c>
       <c r="M70" s="28" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G70&amp;",'"&amp;I70&amp;"','"&amp;J70&amp;"','"&amp;K70&amp;"',"&amp;E70&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270109009,'Fallecimiento ','Fallecimiento -270109009','Fallecimiento -270109009 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>INSERT INTO categoria VALUES (270109009,'Fallecimiento ','Fallecimiento -270109009','Fallecimiento -270109009 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A71" s="33">
         <f>+A70</f>
         <v>27</v>
@@ -6510,7 +6620,7 @@
       </c>
       <c r="K71" s="38" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Casas de Acogida-270109010 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Casas de Acogida-270109010 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L71" s="39" t="str">
         <f>+SUBSTITUTE(G71&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I71, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -6518,7 +6628,267 @@
       </c>
       <c r="M71" s="40" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G71&amp;",'"&amp;I71&amp;"','"&amp;J71&amp;"','"&amp;K71&amp;"',"&amp;E71&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270109010,'Casas de Acogida','Casas de Acogida-270109010','Casas de Acogida-270109010 | Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+        <v>INSERT INTO categoria VALUES (270109010,'Casas de Acogida','Casas de Acogida-270109010','Casas de Acogida-270109010 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="36" x14ac:dyDescent="0.35">
+      <c r="A72" s="33">
+        <f t="shared" ref="A72:A74" si="13">+A71</f>
+        <v>27</v>
+      </c>
+      <c r="B72" s="8" t="str">
+        <f>+VLOOKUP(A72,Industria[],2,0)</f>
+        <v>Mujeres</v>
+      </c>
+      <c r="C72" s="10">
+        <f t="shared" ref="C72:C74" si="14">+C71</f>
+        <v>2701</v>
+      </c>
+      <c r="D72" s="8" t="str">
+        <f>+VLOOKUP(C72,Sector[[Id_sector]:[Codigo]],3,0)</f>
+        <v>Violencia</v>
+      </c>
+      <c r="E72" s="10">
+        <f t="shared" ref="E72:E74" si="15">+IF(H72=1,E71+1,E71)</f>
+        <v>270110</v>
+      </c>
+      <c r="F72" s="8" t="str">
+        <f>+VLOOKUP(E72,Productos[[Id_producto]:[Codigo]],3,0)</f>
+        <v>Centros de Atención y Reparación para Mujeres Víctimas/Sobrevivientes de Violencia Sexual</v>
+      </c>
+      <c r="G72" s="11">
+        <f t="shared" ref="G72:G74" si="16">+E72*1000+H72</f>
+        <v>270110001</v>
+      </c>
+      <c r="H72" s="7">
+        <v>1</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J72" s="26" t="str">
+        <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
+        <v>Orientación e Información (OI)-270110001</v>
+      </c>
+      <c r="K72" s="27" t="str">
+        <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
+        <v>Orientación e Información (OI)-270110001 | Prod: Establecimientos-270110 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+      </c>
+      <c r="L72" s="9" t="str">
+        <f t="shared" ref="L72:L74" si="17">+SUBSTITUTE(G72&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I72, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
+        <v>270110001orientacion_e_informacion_(oi)</v>
+      </c>
+      <c r="M72" s="28" t="str">
+        <f t="shared" ref="M72:M74" si="18">+"INSERT INTO categoria VALUES ("&amp;G72&amp;",'"&amp;I72&amp;"','"&amp;J72&amp;"','"&amp;K72&amp;"',"&amp;E72&amp;");"</f>
+        <v>INSERT INTO categoria VALUES (270110001,'Orientación e Información (OI)','Orientación e Información (OI)-270110001','Orientación e Información (OI)-270110001 | Prod: Establecimientos-270110 | Sector: Mujer-2701 | Industria: MUJER-27',270110);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="36" x14ac:dyDescent="0.35">
+      <c r="A73" s="33">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+      <c r="B73" s="8" t="str">
+        <f>+VLOOKUP(A73,Industria[],2,0)</f>
+        <v>Mujeres</v>
+      </c>
+      <c r="C73" s="10">
+        <f t="shared" si="14"/>
+        <v>2701</v>
+      </c>
+      <c r="D73" s="8" t="str">
+        <f>+VLOOKUP(C73,Sector[[Id_sector]:[Codigo]],3,0)</f>
+        <v>Violencia</v>
+      </c>
+      <c r="E73" s="10">
+        <f t="shared" si="15"/>
+        <v>270110</v>
+      </c>
+      <c r="F73" s="8" t="str">
+        <f>+VLOOKUP(E73,Productos[[Id_producto]:[Codigo]],3,0)</f>
+        <v>Centros de Atención y Reparación para Mujeres Víctimas/Sobrevivientes de Violencia Sexual</v>
+      </c>
+      <c r="G73" s="11">
+        <f t="shared" si="16"/>
+        <v>270110002</v>
+      </c>
+      <c r="H73" s="7">
+        <v>2</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J73" s="26" t="str">
+        <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
+        <v>Atención Reparatoria (AR)-270110002</v>
+      </c>
+      <c r="K73" s="27" t="str">
+        <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
+        <v>Atención Reparatoria (AR)-270110002 | Prod: Establecimientos-270110 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+      </c>
+      <c r="L73" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>270110002atencion_reparatoria_(ar)</v>
+      </c>
+      <c r="M73" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v>INSERT INTO categoria VALUES (270110002,'Atención Reparatoria (AR)','Atención Reparatoria (AR)-270110002','Atención Reparatoria (AR)-270110002 | Prod: Establecimientos-270110 | Sector: Mujer-2701 | Industria: MUJER-27',270110);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="33">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+      <c r="B74" s="8" t="str">
+        <f>+VLOOKUP(A74,Industria[],2,0)</f>
+        <v>Mujeres</v>
+      </c>
+      <c r="C74" s="10">
+        <f t="shared" si="14"/>
+        <v>2701</v>
+      </c>
+      <c r="D74" s="8" t="str">
+        <f>+VLOOKUP(C74,Sector[[Id_sector]:[Codigo]],3,0)</f>
+        <v>Violencia</v>
+      </c>
+      <c r="E74" s="10">
+        <f t="shared" si="15"/>
+        <v>270110</v>
+      </c>
+      <c r="F74" s="8" t="str">
+        <f>+VLOOKUP(E74,Productos[[Id_producto]:[Codigo]],3,0)</f>
+        <v>Centros de Atención y Reparación para Mujeres Víctimas/Sobrevivientes de Violencia Sexual</v>
+      </c>
+      <c r="G74" s="11">
+        <f t="shared" si="16"/>
+        <v>270110003</v>
+      </c>
+      <c r="H74" s="7">
+        <v>3</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J74" s="26" t="str">
+        <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
+        <v>Mujeres en continuidad de Intervención del año anterior-270110003</v>
+      </c>
+      <c r="K74" s="27" t="str">
+        <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
+        <v>Mujeres en continuidad de Intervención del año anterior-270110003 | Prod: Establecimientos-270110 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+      </c>
+      <c r="L74" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>270110003mujeres_en_continuidad_de_intervencion_del_año_anterior</v>
+      </c>
+      <c r="M74" s="28" t="str">
+        <f t="shared" si="18"/>
+        <v>INSERT INTO categoria VALUES (270110003,'Mujeres en continuidad de Intervención del año anterior','Mujeres en continuidad de Intervención del año anterior-270110003','Mujeres en continuidad de Intervención del año anterior-270110003 | Prod: Establecimientos-270110 | Sector: Mujer-2701 | Industria: MUJER-27',270110);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A75" s="10">
+        <f t="shared" ref="A75:A76" si="19">+A74</f>
+        <v>27</v>
+      </c>
+      <c r="B75" s="8" t="str">
+        <f>+VLOOKUP(A75,Industria[],2,0)</f>
+        <v>Mujeres</v>
+      </c>
+      <c r="C75" s="10">
+        <f t="shared" ref="C75:C76" si="20">+C74</f>
+        <v>2701</v>
+      </c>
+      <c r="D75" s="8" t="str">
+        <f>+VLOOKUP(C75,Sector[[Id_sector]:[Codigo]],3,0)</f>
+        <v>Violencia</v>
+      </c>
+      <c r="E75" s="10">
+        <f t="shared" ref="E75:E76" si="21">+IF(H75=1,E74+1,E74)</f>
+        <v>270111</v>
+      </c>
+      <c r="F75" s="8" t="str">
+        <f>+VLOOKUP(E75,Productos[[Id_producto]:[Codigo]],3,0)</f>
+        <v>Centros de Reeducación de Hombres</v>
+      </c>
+      <c r="G75" s="11">
+        <f t="shared" ref="G75:G76" si="22">+E75*1000+H75</f>
+        <v>270111001</v>
+      </c>
+      <c r="H75" s="7">
+        <v>1</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J75" s="26" t="str">
+        <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
+        <v>Ingresos efectivos de Hombres-270111001</v>
+      </c>
+      <c r="K75" s="27" t="str">
+        <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
+        <v>Ingresos efectivos de Hombres-270111001 | Prod: Establecimientos-270111 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+      </c>
+      <c r="L75" s="9" t="str">
+        <f t="shared" ref="L75:L76" si="23">+SUBSTITUTE(G75&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I75, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
+        <v>270111001ingresos_efectivos_de_hombres</v>
+      </c>
+      <c r="M75" s="28" t="str">
+        <f t="shared" ref="M75:M76" si="24">+"INSERT INTO categoria VALUES ("&amp;G75&amp;",'"&amp;I75&amp;"','"&amp;J75&amp;"','"&amp;K75&amp;"',"&amp;E75&amp;");"</f>
+        <v>INSERT INTO categoria VALUES (270111001,'Ingresos efectivos de Hombres','Ingresos efectivos de Hombres-270111001','Ingresos efectivos de Hombres-270111001 | Prod: Establecimientos-270111 | Sector: Mujer-2701 | Industria: MUJER-27',270111);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="10">
+        <f t="shared" si="19"/>
+        <v>27</v>
+      </c>
+      <c r="B76" s="8" t="str">
+        <f>+VLOOKUP(A76,Industria[],2,0)</f>
+        <v>Mujeres</v>
+      </c>
+      <c r="C76" s="10">
+        <f t="shared" si="20"/>
+        <v>2701</v>
+      </c>
+      <c r="D76" s="8" t="str">
+        <f>+VLOOKUP(C76,Sector[[Id_sector]:[Codigo]],3,0)</f>
+        <v>Violencia</v>
+      </c>
+      <c r="E76" s="10">
+        <f t="shared" si="21"/>
+        <v>270111</v>
+      </c>
+      <c r="F76" s="8" t="str">
+        <f>+VLOOKUP(E76,Productos[[Id_producto]:[Codigo]],3,0)</f>
+        <v>Centros de Reeducación de Hombres</v>
+      </c>
+      <c r="G76" s="11">
+        <f t="shared" si="22"/>
+        <v>270111002</v>
+      </c>
+      <c r="H76" s="7">
+        <v>2</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J76" s="26" t="str">
+        <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
+        <v>Egresos-270111002</v>
+      </c>
+      <c r="K76" s="27" t="str">
+        <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
+        <v>Egresos-270111002 | Prod: Establecimientos-270111 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+      </c>
+      <c r="L76" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>270111002egresos</v>
+      </c>
+      <c r="M76" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v>INSERT INTO categoria VALUES (270111002,'Egresos','Egresos-270111002','Egresos-270111002 | Prod: Establecimientos-270111 | Sector: Mujer-2701 | Industria: MUJER-27',270111);</v>
       </c>
     </row>
   </sheetData>

--- a/000 TABLAS GENERALES/27-01 Colección VIOLENCIA.xlsx
+++ b/000 TABLAS GENERALES/27-01 Colección VIOLENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\Diseño DATA's (1)\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA24FDD2-E188-4044-A3CA-49AB4D2423B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08744BC3-7940-4AEB-800D-B5F9F407C7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Industria" sheetId="2" r:id="rId1"/>
@@ -222,9 +222,6 @@
     <t>Violencia</t>
   </si>
   <si>
-    <t>Mujer-2701</t>
-  </si>
-  <si>
     <t>Delitos sexuales</t>
   </si>
   <si>
@@ -343,6 +340,9 @@
   </si>
   <si>
     <t>Egresos</t>
+  </si>
+  <si>
+    <t>Violencia-2701</t>
   </si>
 </sst>
 </file>
@@ -1356,15 +1356,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>12065</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>12065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:colOff>216535</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>175080</xdr:rowOff>
+      <xdr:rowOff>178255</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -1440,9 +1440,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>739140</xdr:colOff>
+      <xdr:colOff>735965</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>163015</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -2630,7 +2630,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2693,7 +2693,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2760,15 +2760,15 @@
         <v>51</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="G11" s="3" t="str">
         <f>+"Sector: "&amp;Sector[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Sector[[#This Row],[Id_industria]],Industria[[Id_industria]:[Auxiliar]],4,0)</f>
-        <v>Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="H11" s="22" t="str">
         <f t="shared" ref="H11" si="1">+"INSERT INTO sector VALUES ("&amp;C11&amp;",'"&amp;E11&amp;"','"&amp;F11&amp;"','"&amp;G11&amp;"',"&amp;A11&amp;");"</f>
-        <v>INSERT INTO sector VALUES (2701,'Violencia','Mujer-2701','Sector: Mujer-2701 | Industria: MUJER-27',27);</v>
+        <v>INSERT INTO sector VALUES (2701,'Violencia','Violencia-2701','Sector: Violencia-2701 | Industria: MUJER-27',27);</v>
       </c>
     </row>
   </sheetData>
@@ -2791,9 +2791,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A916C713-6550-4780-B99D-F35BBEDE9786}">
   <dimension ref="A7:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2879,11 +2879,11 @@
       </c>
       <c r="I11" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
-        <v>Prod: Delitos-270101 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Prod: Delitos-270101 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="J11" s="23" t="str">
         <f>+"INSERT INTO producto VALUES ("&amp;E11&amp;",'"&amp;G11&amp;"','"&amp;H11&amp;"','"&amp;I11&amp;"',"&amp;C11&amp;");"</f>
-        <v>INSERT INTO producto VALUES (270101,'Delitos Cometidos por Empleados y Funcionarios Públicos','Delitos','Prod: Delitos-270101 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+        <v>INSERT INTO producto VALUES (270101,'Delitos Cometidos por Empleados y Funcionarios Públicos','Delitos','Prod: Delitos-270101 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
       <c r="L11" t="str">
         <f>+Productos[[#This Row],[Id_producto]]&amp;" Producto|| "&amp;Productos[[#This Row],[Producto]]</f>
@@ -2915,18 +2915,18 @@
         <v>2</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
-        <v>Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="J12" s="23" t="str">
         <f t="shared" ref="J12:J19" si="2">+"INSERT INTO producto VALUES ("&amp;E12&amp;",'"&amp;G12&amp;"','"&amp;H12&amp;"','"&amp;I12&amp;"',"&amp;C12&amp;");"</f>
-        <v>INSERT INTO producto VALUES (270102,'Delitos sexuales','Delitos','Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+        <v>INSERT INTO producto VALUES (270102,'Delitos sexuales','Delitos','Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
       <c r="L12" t="str">
         <f>+Productos[[#This Row],[Id_producto]]&amp;" Producto|| "&amp;Productos[[#This Row],[Producto]]</f>
@@ -2958,18 +2958,18 @@
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
-        <v>Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="J13" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO producto VALUES (270103,'Delitos violentos','Delitos','Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+        <v>INSERT INTO producto VALUES (270103,'Delitos violentos','Delitos','Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
       <c r="L13" t="str">
         <f>+Productos[[#This Row],[Id_producto]]&amp;" Producto|| "&amp;Productos[[#This Row],[Producto]]</f>
@@ -3008,11 +3008,11 @@
       </c>
       <c r="I14" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
-        <v>Prod: Delitos-270104 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Prod: Delitos-270104 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="J14" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO producto VALUES (270104,'Delitos Contra el Estado Civil y la Familia','Delitos','Prod: Delitos-270104 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+        <v>INSERT INTO producto VALUES (270104,'Delitos Contra el Estado Civil y la Familia','Delitos','Prod: Delitos-270104 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
       <c r="L14" t="str">
         <f>+Productos[[#This Row],[Id_producto]]&amp;" Producto|| "&amp;Productos[[#This Row],[Producto]]</f>
@@ -3051,11 +3051,11 @@
       </c>
       <c r="I15" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
-        <v>Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="J15" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO producto VALUES (270105,'Delitos Contra la Vida, Integridad o Dignidad Personal','Delitos','Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+        <v>INSERT INTO producto VALUES (270105,'Delitos Contra la Vida, Integridad o Dignidad Personal','Delitos','Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
       <c r="L15" t="str">
         <f>+Productos[[#This Row],[Id_producto]]&amp;" Producto|| "&amp;Productos[[#This Row],[Producto]]</f>
@@ -3094,11 +3094,11 @@
       </c>
       <c r="I16" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
-        <v>Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Prod: Delitos-270106 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="J16" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO producto VALUES (270106,'Delitos Contra la Intimidad y la Libertad','Delitos','Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+        <v>INSERT INTO producto VALUES (270106,'Delitos Contra la Intimidad y la Libertad','Delitos','Prod: Delitos-270106 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
       <c r="L16" t="str">
         <f>+Productos[[#This Row],[Id_producto]]&amp;" Producto|| "&amp;Productos[[#This Row],[Producto]]</f>
@@ -3130,18 +3130,18 @@
         <v>7</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I17" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
-        <v>Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="J17" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO producto VALUES (270107,'Atenciones médicas','Salud','Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+        <v>INSERT INTO producto VALUES (270107,'Atenciones médicas','Salud','Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
       <c r="L17" t="str">
         <f>+Productos[[#This Row],[Id_producto]]&amp;" Producto|| "&amp;Productos[[#This Row],[Producto]]</f>
@@ -3173,18 +3173,18 @@
         <v>8</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I18" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
-        <v>Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="J18" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO producto VALUES (270108,'Centros de la Mujer','Establecimientos','Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+        <v>INSERT INTO producto VALUES (270108,'Centros de la Mujer','Establecimientos','Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
       <c r="L18" t="str">
         <f>+Productos[[#This Row],[Id_producto]]&amp;" Producto|| "&amp;Productos[[#This Row],[Producto]]</f>
@@ -3216,18 +3216,18 @@
         <v>9</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I19" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
-        <v>Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="J19" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO producto VALUES (270109,'Casas de Acogida','Establecimientos','Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+        <v>INSERT INTO producto VALUES (270109,'Casas de Acogida','Establecimientos','Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
       <c r="L19" t="str">
         <f>+Productos[[#This Row],[Id_producto]]&amp;" Producto|| "&amp;Productos[[#This Row],[Producto]]</f>
@@ -3259,18 +3259,18 @@
         <v>10</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I20" s="42" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
-        <v>Prod: Establecimientos-270110 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="J20" s="23" t="str">
         <f t="shared" ref="J20:J21" si="7">+"INSERT INTO producto VALUES ("&amp;E20&amp;",'"&amp;G20&amp;"','"&amp;H20&amp;"','"&amp;I20&amp;"',"&amp;C20&amp;");"</f>
-        <v>INSERT INTO producto VALUES (270110,'Centros de Atención y Reparación para Mujeres Víctimas/Sobrevivientes de Violencia Sexual','Establecimientos','Prod: Establecimientos-270110 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+        <v>INSERT INTO producto VALUES (270110,'Centros de Atención y Reparación para Mujeres Víctimas/Sobrevivientes de Violencia Sexual','Establecimientos','Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
       <c r="L20" t="str">
         <f>+Productos[[#This Row],[Id_producto]]&amp;" Producto|| "&amp;Productos[[#This Row],[Producto]]</f>
@@ -3302,18 +3302,18 @@
         <v>11</v>
       </c>
       <c r="G21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="I21" s="42" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
-        <v>Prod: Establecimientos-270111 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Prod: Establecimientos-270111 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="J21" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO producto VALUES (270111,'Centros de Reeducación de Hombres','Establecimientos','Prod: Establecimientos-270111 | Sector: Mujer-2701 | Industria: MUJER-27',2701);</v>
+        <v>INSERT INTO producto VALUES (270111,'Centros de Reeducación de Hombres','Establecimientos','Prod: Establecimientos-270111 | Sector: Violencia-2701 | Industria: MUJER-27',2701);</v>
       </c>
       <c r="L21" t="str">
         <f>+Productos[[#This Row],[Id_producto]]&amp;" Producto|| "&amp;Productos[[#This Row],[Producto]]</f>
@@ -3340,9 +3340,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F9FCA8-2BDF-4275-A0F6-B9D5CA3C15D7}">
   <dimension ref="A8:M76"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3440,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J10" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="K10" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001 | Prod: Delitos-270101 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001 | Prod: Delitos-270101 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L10" s="9" t="str">
         <f>+SUBSTITUTE(G10&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I10, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="M10" s="21" t="str">
         <f t="shared" ref="M10:M69" si="0">+"INSERT INTO categoria VALUES ("&amp;G10&amp;",'"&amp;I10&amp;"','"&amp;J10&amp;"','"&amp;K10&amp;"',"&amp;E10&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270101001,'Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros','Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001','Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001 | Prod: Delitos-270101 | Sector: Mujer-2701 | Industria: MUJER-27',270101);</v>
+        <v>INSERT INTO categoria VALUES (270101001,'Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros','Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001','Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001 | Prod: Delitos-270101 | Sector: Violencia-2701 | Industria: MUJER-27',270101);</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -3500,7 +3500,7 @@
       </c>
       <c r="K11" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Estupro-270102001 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Estupro-270102001 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L11" s="9" t="str">
         <f t="shared" ref="L11:L69" si="2">+SUBSTITUTE(G11&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I11, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="M11" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270102001,'Estupro','Estupro-270102001','Estupro-270102001 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102001,'Estupro','Estupro-270102001','Estupro-270102001 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="K12" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Violación-270102002 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Violación-270102002 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L12" s="9" t="str">
         <f t="shared" si="2"/>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="M12" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270102002,'Violación','Violación-270102002','Violación-270102002 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102002,'Violación','Violación-270102002','Violación-270102002 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="K13" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Abuso Sexual (Sólo Crimen)-270102003 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Abuso Sexual (Sólo Crimen)-270102003 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L13" s="9" t="str">
         <f t="shared" si="2"/>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="M13" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270102003,'Abuso Sexual (Sólo Crimen)','Abuso Sexual (Sólo Crimen)-270102003','Abuso Sexual (Sólo Crimen)-270102003 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102003,'Abuso Sexual (Sólo Crimen)','Abuso Sexual (Sólo Crimen)-270102003','Abuso Sexual (Sólo Crimen)-270102003 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="K14" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Abuso Sexual Adulto-270102004 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Abuso Sexual Adulto-270102004 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L14" s="9" t="str">
         <f t="shared" si="2"/>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="M14" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270102004,'Abuso Sexual Adulto','Abuso Sexual Adulto-270102004','Abuso Sexual Adulto-270102004 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102004,'Abuso Sexual Adulto','Abuso Sexual Adulto-270102004','Abuso Sexual Adulto-270102004 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="K15" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L15" s="9" t="str">
         <f t="shared" si="2"/>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="M15" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270102005,'Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal','Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005','Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102005,'Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal','Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005','Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="K16" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Abuso Sexual Con Contacto De Menor De 14 Años-270102006 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Abuso Sexual Con Contacto De Menor De 14 Años-270102006 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L16" s="9" t="str">
         <f t="shared" si="2"/>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="M16" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270102006,'Abuso Sexual Con Contacto De Menor De 14 Años','Abuso Sexual Con Contacto De Menor De 14 Años-270102006','Abuso Sexual Con Contacto De Menor De 14 Años-270102006 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102006,'Abuso Sexual Con Contacto De Menor De 14 Años','Abuso Sexual Con Contacto De Menor De 14 Años-270102006','Abuso Sexual Con Contacto De Menor De 14 Años-270102006 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="K17" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L17" s="9" t="str">
         <f t="shared" si="2"/>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="M17" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270102007,'Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro','Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007','Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102007,'Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro','Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007','Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="K18" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L18" s="9" t="str">
         <f t="shared" si="2"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="M18" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270102008,'Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)','Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008','Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102008,'Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)','Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008','Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="K19" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L19" s="9" t="str">
         <f t="shared" si="2"/>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="M19" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270102009,'Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento','Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009','Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102009,'Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento','Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009','Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="K20" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Abuso Sexual Sin Contacto-270102010 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Abuso Sexual Sin Contacto-270102010 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L20" s="9" t="str">
         <f t="shared" ref="L20:L25" si="7">+SUBSTITUTE(G20&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I20, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="M20" s="28" t="str">
         <f t="shared" ref="M20:M25" si="8">+"INSERT INTO categoria VALUES ("&amp;G20&amp;",'"&amp;I20&amp;"','"&amp;J20&amp;"','"&amp;K20&amp;"',"&amp;E20&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270102010,'Abuso Sexual Sin Contacto','Abuso Sexual Sin Contacto-270102010','Abuso Sexual Sin Contacto-270102010 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102010,'Abuso Sexual Sin Contacto','Abuso Sexual Sin Contacto-270102010','Abuso Sexual Sin Contacto-270102010 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="K21" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Delitos De Signifación Sexual-270102011 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Delitos De Signifación Sexual-270102011 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L21" s="9" t="str">
         <f t="shared" si="7"/>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="M21" s="28" t="str">
         <f t="shared" si="8"/>
-        <v>INSERT INTO categoria VALUES (270102011,'Delitos De Signifación Sexual','Delitos De Signifación Sexual-270102011','Delitos De Signifación Sexual-270102011 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102011,'Delitos De Signifación Sexual','Delitos De Signifación Sexual-270102011','Delitos De Signifación Sexual-270102011 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="K22" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L22" s="9" t="str">
         <f t="shared" si="7"/>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="M22" s="28" t="str">
         <f t="shared" si="8"/>
-        <v>INSERT INTO categoria VALUES (270102012,'Producción De Material Pornógrafico Utilizando Menores 18 Años','Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012','Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102012,'Producción De Material Pornógrafico Utilizando Menores 18 Años','Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012','Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="K23" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Promover O Facilitar Prostitucion De Menores-270102013 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Promover O Facilitar Prostitucion De Menores-270102013 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L23" s="9" t="str">
         <f t="shared" si="7"/>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="M23" s="28" t="str">
         <f t="shared" si="8"/>
-        <v>INSERT INTO categoria VALUES (270102013,'Promover O Facilitar Prostitucion De Menores','Promover O Facilitar Prostitucion De Menores-270102013','Promover O Facilitar Prostitucion De Menores-270102013 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102013,'Promover O Facilitar Prostitucion De Menores','Promover O Facilitar Prostitucion De Menores-270102013','Promover O Facilitar Prostitucion De Menores-270102013 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="K24" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Violación De Mayor De 14 Años-270102014 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Violación De Mayor De 14 Años-270102014 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L24" s="9" t="str">
         <f t="shared" si="7"/>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="M24" s="28" t="str">
         <f t="shared" si="8"/>
-        <v>INSERT INTO categoria VALUES (270102014,'Violación De Mayor De 14 Años','Violación De Mayor De 14 Años-270102014','Violación De Mayor De 14 Años-270102014 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102014,'Violación De Mayor De 14 Años','Violación De Mayor De 14 Años-270102014','Violación De Mayor De 14 Años-270102014 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="K25" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Violación De Menor De 14 Años-270102015 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Violación De Menor De 14 Años-270102015 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L25" s="9" t="str">
         <f t="shared" si="7"/>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="M25" s="28" t="str">
         <f t="shared" si="8"/>
-        <v>INSERT INTO categoria VALUES (270102015,'Violación De Menor De 14 Años','Violación De Menor De 14 Años-270102015','Violación De Menor De 14 Años-270102015 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102015,'Violación De Menor De 14 Años','Violación De Menor De 14 Años-270102015','Violación De Menor De 14 Años-270102015 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="K26" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L26" s="9" t="str">
         <f t="shared" si="2"/>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="M26" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270102016,'Acoso Sexual Lugares Públicos /Libre Acceso Público','Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016','Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102016,'Acoso Sexual Lugares Públicos /Libre Acceso Público','Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016','Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="K27" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Violación Con Homicidio O Femicidio-270102017 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Violación Con Homicidio O Femicidio-270102017 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L27" s="9" t="str">
         <f t="shared" si="2"/>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="M27" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270102017,'Violación Con Homicidio O Femicidio','Violación Con Homicidio O Femicidio-270102017','Violación Con Homicidio O Femicidio-270102017 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102017,'Violación Con Homicidio O Femicidio','Violación Con Homicidio O Femicidio-270102017','Violación Con Homicidio O Femicidio-270102017 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -4384,7 +4384,7 @@
       </c>
       <c r="K28" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Difusión De Material Pornográfico-270102018 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Difusión De Material Pornográfico-270102018 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L28" s="9" t="str">
         <f t="shared" si="2"/>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="M28" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270102018,'Difusión De Material Pornográfico','Difusión De Material Pornográfico-270102018','Difusión De Material Pornográfico-270102018 | Prod: Delitos-270102 | Sector: Mujer-2701 | Industria: MUJER-27',270102);</v>
+        <v>INSERT INTO categoria VALUES (270102018,'Difusión De Material Pornográfico','Difusión De Material Pornográfico-270102018','Difusión De Material Pornográfico-270102018 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="K29" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Femicidio-270103001 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Femicidio-270103001 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L29" s="9" t="str">
         <f t="shared" si="2"/>
@@ -4444,7 +4444,7 @@
       </c>
       <c r="M29" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270103001,'Femicidio','Femicidio-270103001','Femicidio-270103001 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
+        <v>INSERT INTO categoria VALUES (270103001,'Femicidio','Femicidio-270103001','Femicidio-270103001 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="K30" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Femicidio Intimo-270103002 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Femicidio Intimo-270103002 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L30" s="9" t="str">
         <f t="shared" si="2"/>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="M30" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270103002,'Femicidio Intimo','Femicidio Intimo-270103002','Femicidio Intimo-270103002 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
+        <v>INSERT INTO categoria VALUES (270103002,'Femicidio Intimo','Femicidio Intimo-270103002','Femicidio Intimo-270103002 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -4540,7 +4540,7 @@
       </c>
       <c r="K31" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Secuestro Con Violación-270103003 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Secuestro Con Violación-270103003 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L31" s="9" t="str">
         <f t="shared" si="2"/>
@@ -4548,7 +4548,7 @@
       </c>
       <c r="M31" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270103003,'Secuestro Con Violación','Secuestro Con Violación-270103003','Secuestro Con Violación-270103003 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
+        <v>INSERT INTO categoria VALUES (270103003,'Secuestro Con Violación','Secuestro Con Violación-270103003','Secuestro Con Violación-270103003 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="K32" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Secuestro Con Homicidio, Violación O Lesiones-270103004 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Secuestro Con Homicidio, Violación O Lesiones-270103004 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L32" s="9" t="str">
         <f t="shared" si="2"/>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="M32" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270103004,'Secuestro Con Homicidio, Violación O Lesiones','Secuestro Con Homicidio, Violación O Lesiones-270103004','Secuestro Con Homicidio, Violación O Lesiones-270103004 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
+        <v>INSERT INTO categoria VALUES (270103004,'Secuestro Con Homicidio, Violación O Lesiones','Secuestro Con Homicidio, Violación O Lesiones-270103004','Secuestro Con Homicidio, Violación O Lesiones-270103004 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="K33" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L33" s="9" t="str">
         <f>+SUBSTITUTE(G33&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I33, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="M33" s="28" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G33&amp;",'"&amp;I33&amp;"','"&amp;J33&amp;"','"&amp;K33&amp;"',"&amp;E33&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270103005,'Tortura Con Violación, Abuso Sexual Agravado/Otros','Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005','Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
+        <v>INSERT INTO categoria VALUES (270103005,'Tortura Con Violación, Abuso Sexual Agravado/Otros','Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005','Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="K34" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Femicidio No Íntimo-270103006 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Femicidio No Íntimo-270103006 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L34" s="9" t="str">
         <f>+SUBSTITUTE(G34&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I34, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="M34" s="28" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G34&amp;",'"&amp;I34&amp;"','"&amp;J34&amp;"','"&amp;K34&amp;"',"&amp;E34&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270103006,'Femicidio No Íntimo','Femicidio No Íntimo-270103006','Femicidio No Íntimo-270103006 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
+        <v>INSERT INTO categoria VALUES (270103006,'Femicidio No Íntimo','Femicidio No Íntimo-270103006','Femicidio No Íntimo-270103006 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -4740,7 +4740,7 @@
         <v>7</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J35" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="K35" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Violencia Económica-270103007 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Violencia Económica-270103007 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L35" s="9" t="str">
         <f>+SUBSTITUTE(G35&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I35, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="M35" s="28" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G35&amp;",'"&amp;I35&amp;"','"&amp;J35&amp;"','"&amp;K35&amp;"',"&amp;E35&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270103007,'Violencia Económica','Violencia Económica-270103007','Violencia Económica-270103007 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
+        <v>INSERT INTO categoria VALUES (270103007,'Violencia Económica','Violencia Económica-270103007','Violencia Económica-270103007 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -4792,7 +4792,7 @@
         <v>8</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J36" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="K36" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Violencia Psicológica-270103008 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Violencia Psicológica-270103008 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L36" s="9" t="str">
         <f>+SUBSTITUTE(G36&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I36, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -4808,7 +4808,7 @@
       </c>
       <c r="M36" s="28" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G36&amp;",'"&amp;I36&amp;"','"&amp;J36&amp;"','"&amp;K36&amp;"',"&amp;E36&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270103008,'Violencia Psicológica','Violencia Psicológica-270103008','Violencia Psicológica-270103008 | Prod: Delitos-270103 | Sector: Mujer-2701 | Industria: MUJER-27',270103);</v>
+        <v>INSERT INTO categoria VALUES (270103008,'Violencia Psicológica','Violencia Psicológica-270103008','Violencia Psicológica-270103008 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="K37" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Maltrato Habitual (Violencia Intrafamiliar)-270104001 | Prod: Delitos-270104 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Maltrato Habitual (Violencia Intrafamiliar)-270104001 | Prod: Delitos-270104 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L37" s="9" t="str">
         <f>+SUBSTITUTE(G37&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I37, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="M37" s="28" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G37&amp;",'"&amp;I37&amp;"','"&amp;J37&amp;"','"&amp;K37&amp;"',"&amp;E37&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270104001,'Maltrato Habitual (Violencia Intrafamiliar)','Maltrato Habitual (Violencia Intrafamiliar)-270104001','Maltrato Habitual (Violencia Intrafamiliar)-270104001 | Prod: Delitos-270104 | Sector: Mujer-2701 | Industria: MUJER-27',270104);</v>
+        <v>INSERT INTO categoria VALUES (270104001,'Maltrato Habitual (Violencia Intrafamiliar)','Maltrato Habitual (Violencia Intrafamiliar)-270104001','Maltrato Habitual (Violencia Intrafamiliar)-270104001 | Prod: Delitos-270104 | Sector: Violencia-2701 | Industria: MUJER-27',270104);</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="K38" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L38" s="9" t="str">
         <f t="shared" si="2"/>
@@ -4912,7 +4912,7 @@
       </c>
       <c r="M38" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270105001,'Aborto Cometido Por Facultativo Por Causales No Reguladas','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
+        <v>INSERT INTO categoria VALUES (270105001,'Aborto Cometido Por Facultativo Por Causales No Reguladas','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="K39" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Aborto Consentido Causales No Reguladas-270105002 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Aborto Consentido Causales No Reguladas-270105002 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L39" s="9" t="str">
         <f t="shared" si="2"/>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="M39" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270105002,'Aborto Consentido Causales No Reguladas','Aborto Consentido Causales No Reguladas-270105002','Aborto Consentido Causales No Reguladas-270105002 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
+        <v>INSERT INTO categoria VALUES (270105002,'Aborto Consentido Causales No Reguladas','Aborto Consentido Causales No Reguladas-270105002','Aborto Consentido Causales No Reguladas-270105002 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="K40" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Aborto Sin Consentimiento-270105003 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Aborto Sin Consentimiento-270105003 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L40" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="M40" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270105003,'Aborto Sin Consentimiento','Aborto Sin Consentimiento-270105003','Aborto Sin Consentimiento-270105003 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
+        <v>INSERT INTO categoria VALUES (270105003,'Aborto Sin Consentimiento','Aborto Sin Consentimiento-270105003','Aborto Sin Consentimiento-270105003 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -5052,7 +5052,7 @@
         <v>4</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J41" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="K41" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Aborto-270105004 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Aborto-270105004 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L41" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="M41" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270105004,'Aborto','Aborto-270105004','Aborto-270105004 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
+        <v>INSERT INTO categoria VALUES (270105004,'Aborto','Aborto-270105004','Aborto-270105004 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="K42" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L42" s="9" t="str">
         <f>+SUBSTITUTE(G42&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I42, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="M42" s="28" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G42&amp;",'"&amp;I42&amp;"','"&amp;J42&amp;"','"&amp;K42&amp;"',"&amp;E42&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270105005,'Tráfico De Órganos Incluyendo los Provenientes de Aborto','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005 | Prod: Delitos-270105 | Sector: Mujer-2701 | Industria: MUJER-27',270105);</v>
+        <v>INSERT INTO categoria VALUES (270105005,'Tráfico De Órganos Incluyendo los Provenientes de Aborto','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="K43" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Infracciones A La Ley De Identidad De Género-270106001 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Infracciones A La Ley De Identidad De Género-270106001 | Prod: Delitos-270106 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L43" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="M43" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270106001,'Infracciones A La Ley De Identidad De Género','Infracciones A La Ley De Identidad De Género-270106001','Infracciones A La Ley De Identidad De Género-270106001 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27',270106);</v>
+        <v>INSERT INTO categoria VALUES (270106001,'Infracciones A La Ley De Identidad De Género','Infracciones A La Ley De Identidad De Género-270106001','Infracciones A La Ley De Identidad De Género-270106001 | Prod: Delitos-270106 | Sector: Violencia-2701 | Industria: MUJER-27',270106);</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -5208,7 +5208,7 @@
         <v>2</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J44" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="K44" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Acoso Laboral-270106002 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Acoso Laboral-270106002 | Prod: Delitos-270106 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L44" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="M44" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270106002,'Acoso Laboral','Acoso Laboral-270106002','Acoso Laboral-270106002 | Prod: Delitos-270106 | Sector: Mujer-2701 | Industria: MUJER-27',270106);</v>
+        <v>INSERT INTO categoria VALUES (270106002,'Acoso Laboral','Acoso Laboral-270106002','Acoso Laboral-270106002 | Prod: Delitos-270106 | Sector: Violencia-2701 | Industria: MUJER-27',270106);</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="63" x14ac:dyDescent="0.35">
@@ -5260,7 +5260,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J45" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="K45" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Atención por violación (con entrega de anticoncepción de emergencia)-270107001 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Atención por violación (con entrega de anticoncepción de emergencia)-270107001 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L45" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="M45" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270107001,'Atención por violación (con entrega de anticoncepción de emergencia)','Atención por violación (con entrega de anticoncepción de emergencia)-270107001','Atención por violación (con entrega de anticoncepción de emergencia)-270107001 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+        <v>INSERT INTO categoria VALUES (270107001,'Atención por violación (con entrega de anticoncepción de emergencia)','Atención por violación (con entrega de anticoncepción de emergencia)-270107001','Atención por violación (con entrega de anticoncepción de emergencia)-270107001 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="63" x14ac:dyDescent="0.35">
@@ -5312,7 +5312,7 @@
         <v>2</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J46" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="K46" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Atención por violación (sin entrega de anticoncepción de emergencia )-270107002 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Atención por violación (sin entrega de anticoncepción de emergencia )-270107002 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L46" s="9" t="str">
         <f t="shared" ref="L46:L52" si="10">+SUBSTITUTE(G46&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I46, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="M46" s="28" t="str">
         <f t="shared" ref="M46:M52" si="11">+"INSERT INTO categoria VALUES ("&amp;G46&amp;",'"&amp;I46&amp;"','"&amp;J46&amp;"','"&amp;K46&amp;"',"&amp;E46&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270107002,'Atención por violación (sin entrega de anticoncepción de emergencia )','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+        <v>INSERT INTO categoria VALUES (270107002,'Atención por violación (sin entrega de anticoncepción de emergencia )','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="K47" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Estupro-270107003 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Estupro-270107003 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L47" s="9" t="str">
         <f t="shared" si="10"/>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="M47" s="28" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO categoria VALUES (270107003,'Estupro','Estupro-270107003','Estupro-270107003 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+        <v>INSERT INTO categoria VALUES (270107003,'Estupro','Estupro-270107003','Estupro-270107003 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -5416,7 +5416,7 @@
         <v>4</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J48" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5424,7 +5424,7 @@
       </c>
       <c r="K48" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Abuso sexual-270107004 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Abuso sexual-270107004 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L48" s="9" t="str">
         <f t="shared" si="10"/>
@@ -5432,7 +5432,7 @@
       </c>
       <c r="M48" s="28" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO categoria VALUES (270107004,'Abuso sexual','Abuso sexual-270107004','Abuso sexual-270107004 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+        <v>INSERT INTO categoria VALUES (270107004,'Abuso sexual','Abuso sexual-270107004','Abuso sexual-270107004 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -5468,7 +5468,7 @@
         <v>5</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J49" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="K49" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Otra violencia-270107005 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Otra violencia-270107005 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L49" s="9" t="str">
         <f t="shared" si="10"/>
@@ -5484,7 +5484,7 @@
       </c>
       <c r="M49" s="28" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO categoria VALUES (270107005,'Otra violencia','Otra violencia-270107005','Otra violencia-270107005 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+        <v>INSERT INTO categoria VALUES (270107005,'Otra violencia','Otra violencia-270107005','Otra violencia-270107005 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -5520,7 +5520,7 @@
         <v>6</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J50" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5528,7 +5528,7 @@
       </c>
       <c r="K50" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Violencia Física-270107006 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Violencia Física-270107006 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L50" s="9" t="str">
         <f t="shared" si="10"/>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="M50" s="28" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO categoria VALUES (270107006,'Violencia Física','Violencia Física-270107006','Violencia Física-270107006 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+        <v>INSERT INTO categoria VALUES (270107006,'Violencia Física','Violencia Física-270107006','Violencia Física-270107006 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -5572,7 +5572,7 @@
         <v>7</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J51" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="K51" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Violencia Intrafamiliar-270107007 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Violencia Intrafamiliar-270107007 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L51" s="9" t="str">
         <f t="shared" si="10"/>
@@ -5588,7 +5588,7 @@
       </c>
       <c r="M51" s="28" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO categoria VALUES (270107007,'Violencia Intrafamiliar','Violencia Intrafamiliar-270107007','Violencia Intrafamiliar-270107007 | Prod: Salud-270107 | Sector: Mujer-2701 | Industria: MUJER-27',270107);</v>
+        <v>INSERT INTO categoria VALUES (270107007,'Violencia Intrafamiliar','Violencia Intrafamiliar-270107007','Violencia Intrafamiliar-270107007 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J52" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5632,7 +5632,7 @@
       </c>
       <c r="K52" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Orientación e Información-270108001 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Orientación e Información-270108001 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L52" s="9" t="str">
         <f t="shared" si="10"/>
@@ -5640,7 +5640,7 @@
       </c>
       <c r="M52" s="28" t="str">
         <f t="shared" si="11"/>
-        <v>INSERT INTO categoria VALUES (270108001,'Orientación e Información','Orientación e Información-270108001','Orientación e Información-270108001 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+        <v>INSERT INTO categoria VALUES (270108001,'Orientación e Información','Orientación e Información-270108001','Orientación e Información-270108001 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -5676,7 +5676,7 @@
         <v>2</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J53" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="K53" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Ingresos de años anteriores (por arrastre)-270108002 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Ingresos de años anteriores (por arrastre)-270108002 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L53" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="M53" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270108002,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270108002','Ingresos de años anteriores (por arrastre)-270108002 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+        <v>INSERT INTO categoria VALUES (270108002,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270108002','Ingresos de años anteriores (por arrastre)-270108002 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -5728,7 +5728,7 @@
         <v>3</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J54" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="K54" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Ingresos efectivos  de Mujeres-270108003 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Ingresos efectivos  de Mujeres-270108003 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L54" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5744,7 +5744,7 @@
       </c>
       <c r="M54" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270108003,'Ingresos efectivos  de Mujeres','Ingresos efectivos  de Mujeres-270108003','Ingresos efectivos  de Mujeres-270108003 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+        <v>INSERT INTO categoria VALUES (270108003,'Ingresos efectivos  de Mujeres','Ingresos efectivos  de Mujeres-270108003','Ingresos efectivos  de Mujeres-270108003 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -5780,7 +5780,7 @@
         <v>4</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J55" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="K55" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Egreso -270108004 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Egreso -270108004 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L55" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="M55" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270108004,'Egreso ','Egreso -270108004','Egreso -270108004 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+        <v>INSERT INTO categoria VALUES (270108004,'Egreso ','Egreso -270108004','Egreso -270108004 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -5832,7 +5832,7 @@
         <v>5</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J56" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="K56" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Deserción-270108005 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Deserción-270108005 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L56" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="M56" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270108005,'Deserción','Deserción-270108005','Deserción-270108005 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+        <v>INSERT INTO categoria VALUES (270108005,'Deserción','Deserción-270108005','Deserción-270108005 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -5884,7 +5884,7 @@
         <v>6</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J57" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="K57" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Interrupción-270108006 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Interrupción-270108006 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L57" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5900,7 +5900,7 @@
       </c>
       <c r="M57" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270108006,'Interrupción','Interrupción-270108006','Interrupción-270108006 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+        <v>INSERT INTO categoria VALUES (270108006,'Interrupción','Interrupción-270108006','Interrupción-270108006 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -5936,7 +5936,7 @@
         <v>7</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J58" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="K58" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Derivacion-270108007 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Derivacion-270108007 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L58" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5952,7 +5952,7 @@
       </c>
       <c r="M58" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270108007,'Derivacion','Derivacion-270108007','Derivacion-270108007 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+        <v>INSERT INTO categoria VALUES (270108007,'Derivacion','Derivacion-270108007','Derivacion-270108007 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -5988,7 +5988,7 @@
         <v>8</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J59" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="K59" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Traslado-270108008 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Traslado-270108008 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L59" s="9" t="str">
         <f>+SUBSTITUTE(G59&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I59, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -6004,7 +6004,7 @@
       </c>
       <c r="M59" s="28" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G59&amp;",'"&amp;I59&amp;"','"&amp;J59&amp;"','"&amp;K59&amp;"',"&amp;E59&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270108008,'Traslado','Traslado-270108008','Traslado-270108008 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+        <v>INSERT INTO categoria VALUES (270108008,'Traslado','Traslado-270108008','Traslado-270108008 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -6040,7 +6040,7 @@
         <v>9</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J60" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="K60" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Fallecimiento-270108009 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Fallecimiento-270108009 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L60" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="M60" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270108009,'Fallecimiento','Fallecimiento-270108009','Fallecimiento-270108009 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+        <v>INSERT INTO categoria VALUES (270108009,'Fallecimiento','Fallecimiento-270108009','Fallecimiento-270108009 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -6092,7 +6092,7 @@
         <v>10</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J61" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6100,7 +6100,7 @@
       </c>
       <c r="K61" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Centros de la Mujer-270108010 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Centros de la Mujer-270108010 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L61" s="9" t="str">
         <f>+SUBSTITUTE(G61&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I61, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="M61" s="28" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G61&amp;",'"&amp;I61&amp;"','"&amp;J61&amp;"','"&amp;K61&amp;"',"&amp;E61&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270108010,'Centros de la Mujer','Centros de la Mujer-270108010','Centros de la Mujer-270108010 | Prod: Establecimientos-270108 | Sector: Mujer-2701 | Industria: MUJER-27',270108);</v>
+        <v>INSERT INTO categoria VALUES (270108010,'Centros de la Mujer','Centros de la Mujer-270108010','Centros de la Mujer-270108010 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -6144,7 +6144,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J62" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6152,7 +6152,7 @@
       </c>
       <c r="K62" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Ingresos de años anteriores (por arrastre)-270109001 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Ingresos de años anteriores (por arrastre)-270109001 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L62" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="M62" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270109001,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270109001','Ingresos de años anteriores (por arrastre)-270109001 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+        <v>INSERT INTO categoria VALUES (270109001,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270109001','Ingresos de años anteriores (por arrastre)-270109001 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -6196,7 +6196,7 @@
         <v>2</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J63" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6204,7 +6204,7 @@
       </c>
       <c r="K63" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Pre ingresos de Mujeres-270109002 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Pre ingresos de Mujeres-270109002 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L63" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="M63" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270109002,'Pre ingresos de Mujeres','Pre ingresos de Mujeres-270109002','Pre ingresos de Mujeres-270109002 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+        <v>INSERT INTO categoria VALUES (270109002,'Pre ingresos de Mujeres','Pre ingresos de Mujeres-270109002','Pre ingresos de Mujeres-270109002 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="42" x14ac:dyDescent="0.35">
@@ -6248,7 +6248,7 @@
         <v>3</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J64" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6256,7 +6256,7 @@
       </c>
       <c r="K64" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Ingresos efectivos de Mujeres-270109003 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Ingresos efectivos de Mujeres-270109003 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L64" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="M64" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270109003,'Ingresos efectivos de Mujeres','Ingresos efectivos de Mujeres-270109003','Ingresos efectivos de Mujeres-270109003 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+        <v>INSERT INTO categoria VALUES (270109003,'Ingresos efectivos de Mujeres','Ingresos efectivos de Mujeres-270109003','Ingresos efectivos de Mujeres-270109003 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -6300,7 +6300,7 @@
         <v>4</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J65" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6308,7 +6308,7 @@
       </c>
       <c r="K65" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Ingresos de niños y niñas-270109004 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Ingresos de niños y niñas-270109004 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L65" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6316,7 +6316,7 @@
       </c>
       <c r="M65" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270109004,'Ingresos de niños y niñas','Ingresos de niños y niñas-270109004','Ingresos de niños y niñas-270109004 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+        <v>INSERT INTO categoria VALUES (270109004,'Ingresos de niños y niñas','Ingresos de niños y niñas-270109004','Ingresos de niños y niñas-270109004 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -6352,7 +6352,7 @@
         <v>5</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J66" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="K66" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Egreso-270109005 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Egreso-270109005 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L66" s="9" t="str">
         <f>+SUBSTITUTE(G66&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I66, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="M66" s="28" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G66&amp;",'"&amp;I66&amp;"','"&amp;J66&amp;"','"&amp;K66&amp;"',"&amp;E66&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270109005,'Egreso','Egreso-270109005','Egreso-270109005 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+        <v>INSERT INTO categoria VALUES (270109005,'Egreso','Egreso-270109005','Egreso-270109005 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -6404,7 +6404,7 @@
         <v>6</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J67" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6412,7 +6412,7 @@
       </c>
       <c r="K67" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Deserción-270109006 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Deserción-270109006 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L67" s="9" t="str">
         <f>+SUBSTITUTE(G67&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I67, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="M67" s="28" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G67&amp;",'"&amp;I67&amp;"','"&amp;J67&amp;"','"&amp;K67&amp;"',"&amp;E67&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270109006,'Deserción','Deserción-270109006','Deserción-270109006 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+        <v>INSERT INTO categoria VALUES (270109006,'Deserción','Deserción-270109006','Deserción-270109006 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -6456,7 +6456,7 @@
         <v>7</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J68" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6464,7 +6464,7 @@
       </c>
       <c r="K68" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Traslado-270109007 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Traslado-270109007 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L68" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="M68" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270109007,'Traslado','Traslado-270109007','Traslado-270109007 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+        <v>INSERT INTO categoria VALUES (270109007,'Traslado','Traslado-270109007','Traslado-270109007 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -6508,7 +6508,7 @@
         <v>8</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J69" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="K69" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Retiro-270109008 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Retiro-270109008 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L69" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6524,7 +6524,7 @@
       </c>
       <c r="M69" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270109008,'Retiro','Retiro-270109008','Retiro-270109008 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+        <v>INSERT INTO categoria VALUES (270109008,'Retiro','Retiro-270109008','Retiro-270109008 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -6560,7 +6560,7 @@
         <v>9</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J70" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="K70" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Fallecimiento -270109009 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Fallecimiento -270109009 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L70" s="9" t="str">
         <f>+SUBSTITUTE(G70&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I70, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="M70" s="28" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G70&amp;",'"&amp;I70&amp;"','"&amp;J70&amp;"','"&amp;K70&amp;"',"&amp;E70&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270109009,'Fallecimiento ','Fallecimiento -270109009','Fallecimiento -270109009 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+        <v>INSERT INTO categoria VALUES (270109009,'Fallecimiento ','Fallecimiento -270109009','Fallecimiento -270109009 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -6612,7 +6612,7 @@
         <v>10</v>
       </c>
       <c r="I71" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J71" s="37" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6620,7 +6620,7 @@
       </c>
       <c r="K71" s="38" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Casas de Acogida-270109010 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Casas de Acogida-270109010 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L71" s="39" t="str">
         <f>+SUBSTITUTE(G71&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I71, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -6628,7 +6628,7 @@
       </c>
       <c r="M71" s="40" t="str">
         <f>+"INSERT INTO categoria VALUES ("&amp;G71&amp;",'"&amp;I71&amp;"','"&amp;J71&amp;"','"&amp;K71&amp;"',"&amp;E71&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270109010,'Casas de Acogida','Casas de Acogida-270109010','Casas de Acogida-270109010 | Prod: Establecimientos-270109 | Sector: Mujer-2701 | Industria: MUJER-27',270109);</v>
+        <v>INSERT INTO categoria VALUES (270109010,'Casas de Acogida','Casas de Acogida-270109010','Casas de Acogida-270109010 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="36" x14ac:dyDescent="0.35">
@@ -6664,7 +6664,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J72" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6672,7 +6672,7 @@
       </c>
       <c r="K72" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Orientación e Información (OI)-270110001 | Prod: Establecimientos-270110 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Orientación e Información (OI)-270110001 | Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L72" s="9" t="str">
         <f t="shared" ref="L72:L74" si="17">+SUBSTITUTE(G72&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I72, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -6680,7 +6680,7 @@
       </c>
       <c r="M72" s="28" t="str">
         <f t="shared" ref="M72:M74" si="18">+"INSERT INTO categoria VALUES ("&amp;G72&amp;",'"&amp;I72&amp;"','"&amp;J72&amp;"','"&amp;K72&amp;"',"&amp;E72&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270110001,'Orientación e Información (OI)','Orientación e Información (OI)-270110001','Orientación e Información (OI)-270110001 | Prod: Establecimientos-270110 | Sector: Mujer-2701 | Industria: MUJER-27',270110);</v>
+        <v>INSERT INTO categoria VALUES (270110001,'Orientación e Información (OI)','Orientación e Información (OI)-270110001','Orientación e Información (OI)-270110001 | Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27',270110);</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="36" x14ac:dyDescent="0.35">
@@ -6716,7 +6716,7 @@
         <v>2</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J73" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="K73" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Atención Reparatoria (AR)-270110002 | Prod: Establecimientos-270110 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Atención Reparatoria (AR)-270110002 | Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L73" s="9" t="str">
         <f t="shared" si="17"/>
@@ -6732,7 +6732,7 @@
       </c>
       <c r="M73" s="28" t="str">
         <f t="shared" si="18"/>
-        <v>INSERT INTO categoria VALUES (270110002,'Atención Reparatoria (AR)','Atención Reparatoria (AR)-270110002','Atención Reparatoria (AR)-270110002 | Prod: Establecimientos-270110 | Sector: Mujer-2701 | Industria: MUJER-27',270110);</v>
+        <v>INSERT INTO categoria VALUES (270110002,'Atención Reparatoria (AR)','Atención Reparatoria (AR)-270110002','Atención Reparatoria (AR)-270110002 | Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27',270110);</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
@@ -6768,7 +6768,7 @@
         <v>3</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J74" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6776,7 +6776,7 @@
       </c>
       <c r="K74" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Mujeres en continuidad de Intervención del año anterior-270110003 | Prod: Establecimientos-270110 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Mujeres en continuidad de Intervención del año anterior-270110003 | Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L74" s="9" t="str">
         <f t="shared" si="17"/>
@@ -6784,7 +6784,7 @@
       </c>
       <c r="M74" s="28" t="str">
         <f t="shared" si="18"/>
-        <v>INSERT INTO categoria VALUES (270110003,'Mujeres en continuidad de Intervención del año anterior','Mujeres en continuidad de Intervención del año anterior-270110003','Mujeres en continuidad de Intervención del año anterior-270110003 | Prod: Establecimientos-270110 | Sector: Mujer-2701 | Industria: MUJER-27',270110);</v>
+        <v>INSERT INTO categoria VALUES (270110003,'Mujeres en continuidad de Intervención del año anterior','Mujeres en continuidad de Intervención del año anterior-270110003','Mujeres en continuidad de Intervención del año anterior-270110003 | Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27',270110);</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="21" x14ac:dyDescent="0.35">
@@ -6820,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="K75" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Ingresos efectivos de Hombres-270111001 | Prod: Establecimientos-270111 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Ingresos efectivos de Hombres-270111001 | Prod: Establecimientos-270111 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L75" s="9" t="str">
         <f t="shared" ref="L75:L76" si="23">+SUBSTITUTE(G75&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I75, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
@@ -6836,7 +6836,7 @@
       </c>
       <c r="M75" s="28" t="str">
         <f t="shared" ref="M75:M76" si="24">+"INSERT INTO categoria VALUES ("&amp;G75&amp;",'"&amp;I75&amp;"','"&amp;J75&amp;"','"&amp;K75&amp;"',"&amp;E75&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270111001,'Ingresos efectivos de Hombres','Ingresos efectivos de Hombres-270111001','Ingresos efectivos de Hombres-270111001 | Prod: Establecimientos-270111 | Sector: Mujer-2701 | Industria: MUJER-27',270111);</v>
+        <v>INSERT INTO categoria VALUES (270111001,'Ingresos efectivos de Hombres','Ingresos efectivos de Hombres-270111001','Ingresos efectivos de Hombres-270111001 | Prod: Establecimientos-270111 | Sector: Violencia-2701 | Industria: MUJER-27',270111);</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -6872,7 +6872,7 @@
         <v>2</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J76" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6880,7 +6880,7 @@
       </c>
       <c r="K76" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Egresos-270111002 | Prod: Establecimientos-270111 | Sector: Mujer-2701 | Industria: MUJER-27</v>
+        <v>Egresos-270111002 | Prod: Establecimientos-270111 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L76" s="9" t="str">
         <f t="shared" si="23"/>
@@ -6888,7 +6888,7 @@
       </c>
       <c r="M76" s="28" t="str">
         <f t="shared" si="24"/>
-        <v>INSERT INTO categoria VALUES (270111002,'Egresos','Egresos-270111002','Egresos-270111002 | Prod: Establecimientos-270111 | Sector: Mujer-2701 | Industria: MUJER-27',270111);</v>
+        <v>INSERT INTO categoria VALUES (270111002,'Egresos','Egresos-270111002','Egresos-270111002 | Prod: Establecimientos-270111 | Sector: Violencia-2701 | Industria: MUJER-27',270111);</v>
       </c>
     </row>
   </sheetData>

--- a/000 TABLAS GENERALES/27-01 Colección VIOLENCIA.xlsx
+++ b/000 TABLAS GENERALES/27-01 Colección VIOLENCIA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\Diseño DATA's (1)\DATA-COMUN\000 TABLAS GENERALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08744BC3-7940-4AEB-800D-B5F9F407C7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAB2D48-413E-4FF7-A412-30E5B0131C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Industria" sheetId="2" r:id="rId1"/>
@@ -240,9 +240,6 @@
     <t>Salud</t>
   </si>
   <si>
-    <t>Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros</t>
-  </si>
-  <si>
     <t>Acoso Laboral</t>
   </si>
   <si>
@@ -343,6 +340,9 @@
   </si>
   <si>
     <t>Violencia-2701</t>
+  </si>
+  <si>
+    <t>Apremios Ilegítimos Violación, Abuso Sexual Agravado, Otros</t>
   </si>
 </sst>
 </file>
@@ -350,7 +350,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -515,7 +515,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2633,16 +2633,16 @@
       <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" customWidth="1"/>
-    <col min="4" max="4" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
         <v>27</v>
       </c>
@@ -2696,26 +2696,26 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" customWidth="1"/>
-    <col min="4" max="4" width="5.453125" customWidth="1"/>
-    <col min="5" max="5" width="26.453125" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.81640625" customWidth="1"/>
-    <col min="8" max="8" width="59.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.77734375" customWidth="1"/>
+    <col min="8" max="8" width="59.21875" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H9" s="29">
         <f>+SUBTOTAL(3,Sector[Sector])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>27</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>51</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="3" t="str">
         <f>+"Sector: "&amp;Sector[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Sector[[#This Row],[Id_industria]],Industria[[Id_industria]:[Auxiliar]],4,0)</f>
@@ -2796,28 +2796,28 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="5.81640625" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" customWidth="1"/>
-    <col min="6" max="6" width="5.54296875" customWidth="1"/>
-    <col min="7" max="7" width="25.453125" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
     <col min="9" max="9" width="33" customWidth="1"/>
-    <col min="10" max="10" width="64.81640625" customWidth="1"/>
+    <col min="10" max="10" width="64.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="29">
         <f>+SUBTOTAL(3,Productos[Producto])</f>
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="31.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>27</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>270101 Producto|| Delitos Cometidos por Empleados y Funcionarios Públicos</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <f>+A11</f>
         <v>27</v>
@@ -2933,7 +2933,7 @@
         <v>270102 Producto|| Delitos sexuales</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <f t="shared" ref="A13:A19" si="3">+A12</f>
         <v>27</v>
@@ -2976,7 +2976,7 @@
         <v>270103 Producto|| Delitos violentos</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3019,7 +3019,7 @@
         <v>270104 Producto|| Delitos Contra el Estado Civil y la Familia</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3062,7 +3062,7 @@
         <v>270105 Producto|| Delitos Contra la Vida, Integridad o Dignidad Personal</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3105,7 +3105,7 @@
         <v>270106 Producto|| Delitos Contra la Intimidad y la Libertad</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3148,7 +3148,7 @@
         <v>270107 Producto|| Atenciones médicas</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3176,7 +3176,7 @@
         <v>55</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3191,7 +3191,7 @@
         <v>270108 Producto|| Centros de la Mujer</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3219,7 +3219,7 @@
         <v>56</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3234,7 +3234,7 @@
         <v>270109 Producto|| Casas de Acogida</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="48" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="48" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <f t="shared" ref="A20:A21" si="4">+A19</f>
         <v>27</v>
@@ -3259,10 +3259,10 @@
         <v>10</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I20" s="42" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3277,7 +3277,7 @@
         <v>270110 Producto|| Centros de Atención y Reparación para Mujeres Víctimas/Sobrevivientes de Violencia Sexual</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -3302,10 +3302,10 @@
         <v>11</v>
       </c>
       <c r="G21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="I21" s="42" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3341,35 +3341,35 @@
   <dimension ref="A8:M76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" customWidth="1"/>
-    <col min="6" max="6" width="26.54296875" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" customWidth="1"/>
-    <col min="8" max="8" width="4.81640625" customWidth="1"/>
-    <col min="9" max="9" width="21.81640625" customWidth="1"/>
-    <col min="10" max="10" width="24.453125" customWidth="1"/>
-    <col min="11" max="11" width="29.453125" customWidth="1"/>
-    <col min="12" max="12" width="20.1796875" customWidth="1"/>
-    <col min="13" max="13" width="49.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="4.77734375" customWidth="1"/>
+    <col min="9" max="9" width="21.77734375" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" customWidth="1"/>
+    <col min="11" max="11" width="29.44140625" customWidth="1"/>
+    <col min="12" max="12" width="20.21875" customWidth="1"/>
+    <col min="13" max="13" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E8" s="12"/>
       <c r="G8" s="12">
         <f>+SUBTOTAL(3,Categorias[Id_categoría])</f>
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>27</v>
       </c>
@@ -3440,26 +3440,26 @@
         <v>1</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="J10" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001</v>
+        <v>Apremios Ilegítimos Violación, Abuso Sexual Agravado, Otros-270101001</v>
       </c>
       <c r="K10" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001 | Prod: Delitos-270101 | Sector: Violencia-2701 | Industria: MUJER-27</v>
+        <v>Apremios Ilegítimos Violación, Abuso Sexual Agravado, Otros-270101001 | Prod: Delitos-270101 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L10" s="9" t="str">
         <f>+SUBSTITUTE(G10&amp;LOWER(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(I10, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U"))," ","_")</f>
-        <v>270101001apremios_ilegiticos_violacion,_abuso_sexual_agravado,_otros</v>
+        <v>270101001apremios_ilegitimos_violacion,_abuso_sexual_agravado,_otros</v>
       </c>
       <c r="M10" s="21" t="str">
         <f t="shared" ref="M10:M69" si="0">+"INSERT INTO categoria VALUES ("&amp;G10&amp;",'"&amp;I10&amp;"','"&amp;J10&amp;"','"&amp;K10&amp;"',"&amp;E10&amp;");"</f>
-        <v>INSERT INTO categoria VALUES (270101001,'Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros','Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001','Apremios Ilegíticos Violación, Abuso Sexual Agravado, Otros-270101001 | Prod: Delitos-270101 | Sector: Violencia-2701 | Industria: MUJER-27',270101);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+        <v>INSERT INTO categoria VALUES (270101001,'Apremios Ilegítimos Violación, Abuso Sexual Agravado, Otros','Apremios Ilegítimos Violación, Abuso Sexual Agravado, Otros-270101001','Apremios Ilegítimos Violación, Abuso Sexual Agravado, Otros-270101001 | Prod: Delitos-270101 | Sector: Violencia-2701 | Industria: MUJER-27',270101);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <f>+A10</f>
         <v>27</v>
@@ -3511,7 +3511,7 @@
         <v>INSERT INTO categoria VALUES (270102001,'Estupro','Estupro-270102001','Estupro-270102001 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <f t="shared" ref="A12:A70" si="3">+A11</f>
         <v>27</v>
@@ -3563,7 +3563,7 @@
         <v>INSERT INTO categoria VALUES (270102002,'Violación','Violación-270102002','Violación-270102002 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3615,7 +3615,7 @@
         <v>INSERT INTO categoria VALUES (270102003,'Abuso Sexual (Sólo Crimen)','Abuso Sexual (Sólo Crimen)-270102003','Abuso Sexual (Sólo Crimen)-270102003 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3667,7 +3667,7 @@
         <v>INSERT INTO categoria VALUES (270102004,'Abuso Sexual Adulto','Abuso Sexual Adulto-270102004','Abuso Sexual Adulto-270102004 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3719,7 +3719,7 @@
         <v>INSERT INTO categoria VALUES (270102005,'Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal','Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005','Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3771,7 +3771,7 @@
         <v>INSERT INTO categoria VALUES (270102006,'Abuso Sexual Con Contacto De Menor De 14 Años','Abuso Sexual Con Contacto De Menor De 14 Años-270102006','Abuso Sexual Con Contacto De Menor De 14 Años-270102006 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3823,7 +3823,7 @@
         <v>INSERT INTO categoria VALUES (270102007,'Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro','Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007','Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3875,7 +3875,7 @@
         <v>INSERT INTO categoria VALUES (270102008,'Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)','Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008','Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3927,7 +3927,7 @@
         <v>INSERT INTO categoria VALUES (270102009,'Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento','Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009','Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3979,7 +3979,7 @@
         <v>INSERT INTO categoria VALUES (270102010,'Abuso Sexual Sin Contacto','Abuso Sexual Sin Contacto-270102010','Abuso Sexual Sin Contacto-270102010 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4031,7 +4031,7 @@
         <v>INSERT INTO categoria VALUES (270102011,'Delitos De Signifación Sexual','Delitos De Signifación Sexual-270102011','Delitos De Signifación Sexual-270102011 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4083,7 +4083,7 @@
         <v>INSERT INTO categoria VALUES (270102012,'Producción De Material Pornógrafico Utilizando Menores 18 Años','Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012','Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4135,7 +4135,7 @@
         <v>INSERT INTO categoria VALUES (270102013,'Promover O Facilitar Prostitucion De Menores','Promover O Facilitar Prostitucion De Menores-270102013','Promover O Facilitar Prostitucion De Menores-270102013 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4187,7 +4187,7 @@
         <v>INSERT INTO categoria VALUES (270102014,'Violación De Mayor De 14 Años','Violación De Mayor De 14 Años-270102014','Violación De Mayor De 14 Años-270102014 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4239,7 +4239,7 @@
         <v>INSERT INTO categoria VALUES (270102015,'Violación De Menor De 14 Años','Violación De Menor De 14 Años-270102015','Violación De Menor De 14 Años-270102015 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4291,7 +4291,7 @@
         <v>INSERT INTO categoria VALUES (270102016,'Acoso Sexual Lugares Públicos /Libre Acceso Público','Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016','Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4343,7 +4343,7 @@
         <v>INSERT INTO categoria VALUES (270102017,'Violación Con Homicidio O Femicidio','Violación Con Homicidio O Femicidio-270102017','Violación Con Homicidio O Femicidio-270102017 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4395,7 +4395,7 @@
         <v>INSERT INTO categoria VALUES (270102018,'Difusión De Material Pornográfico','Difusión De Material Pornográfico-270102018','Difusión De Material Pornográfico-270102018 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4447,7 +4447,7 @@
         <v>INSERT INTO categoria VALUES (270103001,'Femicidio','Femicidio-270103001','Femicidio-270103001 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4499,7 +4499,7 @@
         <v>INSERT INTO categoria VALUES (270103002,'Femicidio Intimo','Femicidio Intimo-270103002','Femicidio Intimo-270103002 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4551,7 +4551,7 @@
         <v>INSERT INTO categoria VALUES (270103003,'Secuestro Con Violación','Secuestro Con Violación-270103003','Secuestro Con Violación-270103003 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4603,7 +4603,7 @@
         <v>INSERT INTO categoria VALUES (270103004,'Secuestro Con Homicidio, Violación O Lesiones','Secuestro Con Homicidio, Violación O Lesiones-270103004','Secuestro Con Homicidio, Violación O Lesiones-270103004 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4655,7 +4655,7 @@
         <v>INSERT INTO categoria VALUES (270103005,'Tortura Con Violación, Abuso Sexual Agravado/Otros','Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005','Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4707,7 +4707,7 @@
         <v>INSERT INTO categoria VALUES (270103006,'Femicidio No Íntimo','Femicidio No Íntimo-270103006','Femicidio No Íntimo-270103006 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <f>+A34</f>
         <v>27</v>
@@ -4740,7 +4740,7 @@
         <v>7</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J35" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4759,7 +4759,7 @@
         <v>INSERT INTO categoria VALUES (270103007,'Violencia Económica','Violencia Económica-270103007','Violencia Económica-270103007 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <f>+A35</f>
         <v>27</v>
@@ -4792,7 +4792,7 @@
         <v>8</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J36" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4811,7 +4811,7 @@
         <v>INSERT INTO categoria VALUES (270103008,'Violencia Psicológica','Violencia Psicológica-270103008','Violencia Psicológica-270103008 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <f>+A36</f>
         <v>27</v>
@@ -4863,7 +4863,7 @@
         <v>INSERT INTO categoria VALUES (270104001,'Maltrato Habitual (Violencia Intrafamiliar)','Maltrato Habitual (Violencia Intrafamiliar)-270104001','Maltrato Habitual (Violencia Intrafamiliar)-270104001 | Prod: Delitos-270104 | Sector: Violencia-2701 | Industria: MUJER-27',270104);</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4915,7 +4915,7 @@
         <v>INSERT INTO categoria VALUES (270105001,'Aborto Cometido Por Facultativo Por Causales No Reguladas','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4967,7 +4967,7 @@
         <v>INSERT INTO categoria VALUES (270105002,'Aborto Consentido Causales No Reguladas','Aborto Consentido Causales No Reguladas-270105002','Aborto Consentido Causales No Reguladas-270105002 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5019,7 +5019,7 @@
         <v>INSERT INTO categoria VALUES (270105003,'Aborto Sin Consentimiento','Aborto Sin Consentimiento-270105003','Aborto Sin Consentimiento-270105003 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5052,7 +5052,7 @@
         <v>4</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J41" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5071,7 +5071,7 @@
         <v>INSERT INTO categoria VALUES (270105004,'Aborto','Aborto-270105004','Aborto-270105004 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <f>+A41</f>
         <v>27</v>
@@ -5123,7 +5123,7 @@
         <v>INSERT INTO categoria VALUES (270105005,'Tráfico De Órganos Incluyendo los Provenientes de Aborto','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <f>+A42</f>
         <v>27</v>
@@ -5175,7 +5175,7 @@
         <v>INSERT INTO categoria VALUES (270106001,'Infracciones A La Ley De Identidad De Género','Infracciones A La Ley De Identidad De Género-270106001','Infracciones A La Ley De Identidad De Género-270106001 | Prod: Delitos-270106 | Sector: Violencia-2701 | Industria: MUJER-27',270106);</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5208,7 +5208,7 @@
         <v>2</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J44" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5227,7 +5227,7 @@
         <v>INSERT INTO categoria VALUES (270106002,'Acoso Laboral','Acoso Laboral-270106002','Acoso Laboral-270106002 | Prod: Delitos-270106 | Sector: Violencia-2701 | Industria: MUJER-27',270106);</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="63" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5260,7 +5260,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J45" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5279,7 +5279,7 @@
         <v>INSERT INTO categoria VALUES (270107001,'Atención por violación (con entrega de anticoncepción de emergencia)','Atención por violación (con entrega de anticoncepción de emergencia)-270107001','Atención por violación (con entrega de anticoncepción de emergencia)-270107001 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="63" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5312,7 +5312,7 @@
         <v>2</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J46" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5331,7 +5331,7 @@
         <v>INSERT INTO categoria VALUES (270107002,'Atención por violación (sin entrega de anticoncepción de emergencia )','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5383,7 +5383,7 @@
         <v>INSERT INTO categoria VALUES (270107003,'Estupro','Estupro-270107003','Estupro-270107003 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5416,7 +5416,7 @@
         <v>4</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J48" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5435,7 +5435,7 @@
         <v>INSERT INTO categoria VALUES (270107004,'Abuso sexual','Abuso sexual-270107004','Abuso sexual-270107004 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5468,7 +5468,7 @@
         <v>5</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J49" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5487,7 +5487,7 @@
         <v>INSERT INTO categoria VALUES (270107005,'Otra violencia','Otra violencia-270107005','Otra violencia-270107005 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5520,7 +5520,7 @@
         <v>6</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J50" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5539,7 +5539,7 @@
         <v>INSERT INTO categoria VALUES (270107006,'Violencia Física','Violencia Física-270107006','Violencia Física-270107006 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5572,7 +5572,7 @@
         <v>7</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J51" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5591,7 +5591,7 @@
         <v>INSERT INTO categoria VALUES (270107007,'Violencia Intrafamiliar','Violencia Intrafamiliar-270107007','Violencia Intrafamiliar-270107007 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J52" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5643,7 +5643,7 @@
         <v>INSERT INTO categoria VALUES (270108001,'Orientación e Información','Orientación e Información-270108001','Orientación e Información-270108001 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5676,7 +5676,7 @@
         <v>2</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J53" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5695,7 +5695,7 @@
         <v>INSERT INTO categoria VALUES (270108002,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270108002','Ingresos de años anteriores (por arrastre)-270108002 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5728,7 +5728,7 @@
         <v>3</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J54" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5747,7 +5747,7 @@
         <v>INSERT INTO categoria VALUES (270108003,'Ingresos efectivos  de Mujeres','Ingresos efectivos  de Mujeres-270108003','Ingresos efectivos  de Mujeres-270108003 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5780,7 +5780,7 @@
         <v>4</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J55" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5799,7 +5799,7 @@
         <v>INSERT INTO categoria VALUES (270108004,'Egreso ','Egreso -270108004','Egreso -270108004 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5832,7 +5832,7 @@
         <v>5</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J56" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5851,7 +5851,7 @@
         <v>INSERT INTO categoria VALUES (270108005,'Deserción','Deserción-270108005','Deserción-270108005 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5884,7 +5884,7 @@
         <v>6</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J57" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5903,7 +5903,7 @@
         <v>INSERT INTO categoria VALUES (270108006,'Interrupción','Interrupción-270108006','Interrupción-270108006 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5936,7 +5936,7 @@
         <v>7</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J58" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5955,7 +5955,7 @@
         <v>INSERT INTO categoria VALUES (270108007,'Derivacion','Derivacion-270108007','Derivacion-270108007 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5988,7 +5988,7 @@
         <v>8</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J59" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6007,7 +6007,7 @@
         <v>INSERT INTO categoria VALUES (270108008,'Traslado','Traslado-270108008','Traslado-270108008 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6040,7 +6040,7 @@
         <v>9</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J60" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6059,7 +6059,7 @@
         <v>INSERT INTO categoria VALUES (270108009,'Fallecimiento','Fallecimiento-270108009','Fallecimiento-270108009 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <f>+A60</f>
         <v>27</v>
@@ -6111,7 +6111,7 @@
         <v>INSERT INTO categoria VALUES (270108010,'Centros de la Mujer','Centros de la Mujer-270108010','Centros de la Mujer-270108010 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <f>+A61</f>
         <v>27</v>
@@ -6144,7 +6144,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J62" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6163,7 +6163,7 @@
         <v>INSERT INTO categoria VALUES (270109001,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270109001','Ingresos de años anteriores (por arrastre)-270109001 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6196,7 +6196,7 @@
         <v>2</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J63" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6215,7 +6215,7 @@
         <v>INSERT INTO categoria VALUES (270109002,'Pre ingresos de Mujeres','Pre ingresos de Mujeres-270109002','Pre ingresos de Mujeres-270109002 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6248,7 +6248,7 @@
         <v>3</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J64" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6267,7 +6267,7 @@
         <v>INSERT INTO categoria VALUES (270109003,'Ingresos efectivos de Mujeres','Ingresos efectivos de Mujeres-270109003','Ingresos efectivos de Mujeres-270109003 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6300,7 +6300,7 @@
         <v>4</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J65" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6319,7 +6319,7 @@
         <v>INSERT INTO categoria VALUES (270109004,'Ingresos de niños y niñas','Ingresos de niños y niñas-270109004','Ingresos de niños y niñas-270109004 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6352,7 +6352,7 @@
         <v>5</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J66" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6371,7 +6371,7 @@
         <v>INSERT INTO categoria VALUES (270109005,'Egreso','Egreso-270109005','Egreso-270109005 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6404,7 +6404,7 @@
         <v>6</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J67" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6423,7 +6423,7 @@
         <v>INSERT INTO categoria VALUES (270109006,'Deserción','Deserción-270109006','Deserción-270109006 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6456,7 +6456,7 @@
         <v>7</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J68" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6475,7 +6475,7 @@
         <v>INSERT INTO categoria VALUES (270109007,'Traslado','Traslado-270109007','Traslado-270109007 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6508,7 +6508,7 @@
         <v>8</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J69" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6527,7 +6527,7 @@
         <v>INSERT INTO categoria VALUES (270109008,'Retiro','Retiro-270109008','Retiro-270109008 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6560,7 +6560,7 @@
         <v>9</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J70" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6579,7 +6579,7 @@
         <v>INSERT INTO categoria VALUES (270109009,'Fallecimiento ','Fallecimiento -270109009','Fallecimiento -270109009 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A71" s="33">
         <f>+A70</f>
         <v>27</v>
@@ -6631,7 +6631,7 @@
         <v>INSERT INTO categoria VALUES (270109010,'Casas de Acogida','Casas de Acogida-270109010','Casas de Acogida-270109010 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="36" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" ht="48" x14ac:dyDescent="0.3">
       <c r="A72" s="33">
         <f t="shared" ref="A72:A74" si="13">+A71</f>
         <v>27</v>
@@ -6664,7 +6664,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J72" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6683,7 +6683,7 @@
         <v>INSERT INTO categoria VALUES (270110001,'Orientación e Información (OI)','Orientación e Información (OI)-270110001','Orientación e Información (OI)-270110001 | Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27',270110);</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="36" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" ht="48" x14ac:dyDescent="0.3">
       <c r="A73" s="33">
         <f t="shared" si="13"/>
         <v>27</v>
@@ -6716,7 +6716,7 @@
         <v>2</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J73" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6735,7 +6735,7 @@
         <v>INSERT INTO categoria VALUES (270110002,'Atención Reparatoria (AR)','Atención Reparatoria (AR)-270110002','Atención Reparatoria (AR)-270110002 | Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27',270110);</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A74" s="33">
         <f t="shared" si="13"/>
         <v>27</v>
@@ -6768,7 +6768,7 @@
         <v>3</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J74" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6787,7 +6787,7 @@
         <v>INSERT INTO categoria VALUES (270110003,'Mujeres en continuidad de Intervención del año anterior','Mujeres en continuidad de Intervención del año anterior-270110003','Mujeres en continuidad de Intervención del año anterior-270110003 | Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27',270110);</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
         <f t="shared" ref="A75:A76" si="19">+A74</f>
         <v>27</v>
@@ -6820,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J75" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6839,7 +6839,7 @@
         <v>INSERT INTO categoria VALUES (270111001,'Ingresos efectivos de Hombres','Ingresos efectivos de Hombres-270111001','Ingresos efectivos de Hombres-270111001 | Prod: Establecimientos-270111 | Sector: Violencia-2701 | Industria: MUJER-27',270111);</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
         <f t="shared" si="19"/>
         <v>27</v>
@@ -6872,7 +6872,7 @@
         <v>2</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J76" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>

--- a/000 TABLAS GENERALES/27-01 Colección VIOLENCIA.xlsx
+++ b/000 TABLAS GENERALES/27-01 Colección VIOLENCIA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\Diseño DATA's (1)\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAB2D48-413E-4FF7-A412-30E5B0131C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E8EC0B-76D2-4D41-B651-63012A6F9894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Industria" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>Id_industria</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Abuso Sexual Adulto</t>
   </si>
   <si>
-    <t>Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal</t>
-  </si>
-  <si>
     <t>Abuso Sexual Con Contacto De Menor De 14 Años</t>
   </si>
   <si>
@@ -156,12 +153,6 @@
     <t>Delitos De Signifación Sexual</t>
   </si>
   <si>
-    <t>Producción De Material Pornógrafico Utilizando Menores 18 Años</t>
-  </si>
-  <si>
-    <t>Promover O Facilitar Prostitucion De Menores</t>
-  </si>
-  <si>
     <t>Violación De Mayor De 14 Años</t>
   </si>
   <si>
@@ -180,9 +171,6 @@
     <t>Femicidio</t>
   </si>
   <si>
-    <t>Femicidio Intimo</t>
-  </si>
-  <si>
     <t>Secuestro Con Violación</t>
   </si>
   <si>
@@ -267,9 +255,6 @@
     <t>Ingresos de años anteriores (por arrastre)</t>
   </si>
   <si>
-    <t>Ingresos efectivos  de Mujeres</t>
-  </si>
-  <si>
     <t xml:space="preserve">Egreso </t>
   </si>
   <si>
@@ -279,9 +264,6 @@
     <t>Interrupción</t>
   </si>
   <si>
-    <t>Derivacion</t>
-  </si>
-  <si>
     <t>Traslado</t>
   </si>
   <si>
@@ -343,6 +325,21 @@
   </si>
   <si>
     <t>Apremios Ilegítimos Violación, Abuso Sexual Agravado, Otros</t>
+  </si>
+  <si>
+    <t>Abuso Sexual Calificado c/Introducción Objetos O Uso Animal</t>
+  </si>
+  <si>
+    <t>Producción De Material Pornográfico Utilizando Menores 18 Años</t>
+  </si>
+  <si>
+    <t>Promover O Facilitar Prostitución De Menores</t>
+  </si>
+  <si>
+    <t>Femicidio Íntimo</t>
+  </si>
+  <si>
+    <t>Derivación</t>
   </si>
 </sst>
 </file>
@@ -350,7 +347,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -515,7 +512,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2633,16 +2630,16 @@
       <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -2659,15 +2656,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="31">
         <v>27</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D5" s="32" t="str">
         <f>+"Industria: "&amp;Industria[[#This Row],[Descripcion]]</f>
@@ -2693,29 +2690,29 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:G11"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.77734375" customWidth="1"/>
-    <col min="8" max="8" width="59.21875" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" customWidth="1"/>
+    <col min="5" max="5" width="26.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.81640625" customWidth="1"/>
+    <col min="8" max="8" width="59.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H9" s="29">
         <f>+SUBTOTAL(3,Sector[Sector])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -2741,7 +2738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="17">
         <v>27</v>
       </c>
@@ -2757,10 +2754,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G11" s="3" t="str">
         <f>+"Sector: "&amp;Sector[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Sector[[#This Row],[Id_industria]],Industria[[Id_industria]:[Auxiliar]],4,0)</f>
@@ -2793,31 +2790,31 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:I21"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" customWidth="1"/>
+    <col min="6" max="6" width="5.54296875" customWidth="1"/>
+    <col min="7" max="7" width="25.453125" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
     <col min="9" max="9" width="33" customWidth="1"/>
-    <col min="10" max="10" width="64.77734375" customWidth="1"/>
+    <col min="10" max="10" width="64.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J9" s="29">
         <f>+SUBTOTAL(3,Productos[Producto])</f>
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="31.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -2849,7 +2846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>27</v>
       </c>
@@ -2890,7 +2887,7 @@
         <v>270101 Producto|| Delitos Cometidos por Empleados y Funcionarios Públicos</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <f>+A11</f>
         <v>27</v>
@@ -2915,7 +2912,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>11</v>
@@ -2933,7 +2930,7 @@
         <v>270102 Producto|| Delitos sexuales</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <f t="shared" ref="A13:A19" si="3">+A12</f>
         <v>27</v>
@@ -2958,7 +2955,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>11</v>
@@ -2976,7 +2973,7 @@
         <v>270103 Producto|| Delitos violentos</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3019,7 +3016,7 @@
         <v>270104 Producto|| Delitos Contra el Estado Civil y la Familia</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3062,7 +3059,7 @@
         <v>270105 Producto|| Delitos Contra la Vida, Integridad o Dignidad Personal</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3105,7 +3102,7 @@
         <v>270106 Producto|| Delitos Contra la Intimidad y la Libertad</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3130,10 +3127,10 @@
         <v>7</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I17" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3148,7 +3145,7 @@
         <v>270107 Producto|| Atenciones médicas</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3173,10 +3170,10 @@
         <v>8</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I18" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3191,7 +3188,7 @@
         <v>270108 Producto|| Centros de la Mujer</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3216,10 +3213,10 @@
         <v>9</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I19" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3234,7 +3231,7 @@
         <v>270109 Producto|| Casas de Acogida</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="48" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="48" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <f t="shared" ref="A20:A21" si="4">+A19</f>
         <v>27</v>
@@ -3259,10 +3256,10 @@
         <v>10</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I20" s="42" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3277,7 +3274,7 @@
         <v>270110 Producto|| Centros de Atención y Reparación para Mujeres Víctimas/Sobrevivientes de Violencia Sexual</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -3302,10 +3299,10 @@
         <v>11</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I21" s="42" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3341,35 +3338,35 @@
   <dimension ref="A8:M76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="4.77734375" customWidth="1"/>
-    <col min="9" max="9" width="21.77734375" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" customWidth="1"/>
-    <col min="11" max="11" width="29.44140625" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" customWidth="1"/>
-    <col min="13" max="13" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" customWidth="1"/>
+    <col min="8" max="8" width="4.81640625" customWidth="1"/>
+    <col min="9" max="9" width="21.81640625" customWidth="1"/>
+    <col min="10" max="10" width="24.453125" customWidth="1"/>
+    <col min="11" max="11" width="29.453125" customWidth="1"/>
+    <col min="12" max="12" width="20.1796875" customWidth="1"/>
+    <col min="13" max="13" width="49.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E8" s="12"/>
       <c r="G8" s="12">
         <f>+SUBTOTAL(3,Categorias[Id_categoría])</f>
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -3410,7 +3407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>27</v>
       </c>
@@ -3440,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J10" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -3459,7 +3456,7 @@
         <v>INSERT INTO categoria VALUES (270101001,'Apremios Ilegítimos Violación, Abuso Sexual Agravado, Otros','Apremios Ilegítimos Violación, Abuso Sexual Agravado, Otros-270101001','Apremios Ilegítimos Violación, Abuso Sexual Agravado, Otros-270101001 | Prod: Delitos-270101 | Sector: Violencia-2701 | Industria: MUJER-27',270101);</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <f>+A10</f>
         <v>27</v>
@@ -3511,7 +3508,7 @@
         <v>INSERT INTO categoria VALUES (270102001,'Estupro','Estupro-270102001','Estupro-270102001 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <f t="shared" ref="A12:A70" si="3">+A11</f>
         <v>27</v>
@@ -3563,7 +3560,7 @@
         <v>INSERT INTO categoria VALUES (270102002,'Violación','Violación-270102002','Violación-270102002 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3615,7 +3612,7 @@
         <v>INSERT INTO categoria VALUES (270102003,'Abuso Sexual (Sólo Crimen)','Abuso Sexual (Sólo Crimen)-270102003','Abuso Sexual (Sólo Crimen)-270102003 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3667,7 +3664,7 @@
         <v>INSERT INTO categoria VALUES (270102004,'Abuso Sexual Adulto','Abuso Sexual Adulto-270102004','Abuso Sexual Adulto-270102004 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3700,15 +3697,15 @@
         <v>5</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="J15" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005</v>
+        <v>Abuso Sexual Calificado c/Introducción Objetos O Uso Animal-270102005</v>
       </c>
       <c r="K15" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
+        <v>Abuso Sexual Calificado c/Introducción Objetos O Uso Animal-270102005 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L15" s="9" t="str">
         <f t="shared" si="2"/>
@@ -3716,10 +3713,10 @@
       </c>
       <c r="M15" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270102005,'Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal','Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005','Abuso Sexual Calificado c/Introduccion Objetos O Uso Animal-270102005 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>INSERT INTO categoria VALUES (270102005,'Abuso Sexual Calificado c/Introducción Objetos O Uso Animal','Abuso Sexual Calificado c/Introducción Objetos O Uso Animal-270102005','Abuso Sexual Calificado c/Introducción Objetos O Uso Animal-270102005 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3752,7 +3749,7 @@
         <v>6</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J16" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -3771,7 +3768,7 @@
         <v>INSERT INTO categoria VALUES (270102006,'Abuso Sexual Con Contacto De Menor De 14 Años','Abuso Sexual Con Contacto De Menor De 14 Años-270102006','Abuso Sexual Con Contacto De Menor De 14 Años-270102006 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3804,7 +3801,7 @@
         <v>7</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -3823,7 +3820,7 @@
         <v>INSERT INTO categoria VALUES (270102007,'Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro','Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007','Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia Estupro-270102007 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3856,7 +3853,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J18" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -3875,7 +3872,7 @@
         <v>INSERT INTO categoria VALUES (270102008,'Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)','Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008','Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación)-270102008 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3908,7 +3905,7 @@
         <v>9</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J19" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -3927,7 +3924,7 @@
         <v>INSERT INTO categoria VALUES (270102009,'Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento','Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009','Abuso Sexual Mayor 14 /Sorpresa Sin Consentimiento-270102009 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3960,7 +3957,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J20" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -3979,7 +3976,7 @@
         <v>INSERT INTO categoria VALUES (270102010,'Abuso Sexual Sin Contacto','Abuso Sexual Sin Contacto-270102010','Abuso Sexual Sin Contacto-270102010 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4012,7 +4009,7 @@
         <v>11</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J21" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4031,7 +4028,7 @@
         <v>INSERT INTO categoria VALUES (270102011,'Delitos De Signifación Sexual','Delitos De Signifación Sexual-270102011','Delitos De Signifación Sexual-270102011 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4064,15 +4061,15 @@
         <v>12</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="J22" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012</v>
+        <v>Producción De Material Pornográfico Utilizando Menores 18 Años-270102012</v>
       </c>
       <c r="K22" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
+        <v>Producción De Material Pornográfico Utilizando Menores 18 Años-270102012 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L22" s="9" t="str">
         <f t="shared" si="7"/>
@@ -4080,10 +4077,10 @@
       </c>
       <c r="M22" s="28" t="str">
         <f t="shared" si="8"/>
-        <v>INSERT INTO categoria VALUES (270102012,'Producción De Material Pornógrafico Utilizando Menores 18 Años','Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012','Producción De Material Pornógrafico Utilizando Menores 18 Años-270102012 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>INSERT INTO categoria VALUES (270102012,'Producción De Material Pornográfico Utilizando Menores 18 Años','Producción De Material Pornográfico Utilizando Menores 18 Años-270102012','Producción De Material Pornográfico Utilizando Menores 18 Años-270102012 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4116,15 +4113,15 @@
         <v>13</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="J23" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Promover O Facilitar Prostitucion De Menores-270102013</v>
+        <v>Promover O Facilitar Prostitución De Menores-270102013</v>
       </c>
       <c r="K23" s="27" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Promover O Facilitar Prostitucion De Menores-270102013 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
+        <v>Promover O Facilitar Prostitución De Menores-270102013 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L23" s="9" t="str">
         <f t="shared" si="7"/>
@@ -4132,10 +4129,10 @@
       </c>
       <c r="M23" s="28" t="str">
         <f t="shared" si="8"/>
-        <v>INSERT INTO categoria VALUES (270102013,'Promover O Facilitar Prostitucion De Menores','Promover O Facilitar Prostitucion De Menores-270102013','Promover O Facilitar Prostitucion De Menores-270102013 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>INSERT INTO categoria VALUES (270102013,'Promover O Facilitar Prostitución De Menores','Promover O Facilitar Prostitución De Menores-270102013','Promover O Facilitar Prostitución De Menores-270102013 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4168,7 +4165,7 @@
         <v>14</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J24" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4187,7 +4184,7 @@
         <v>INSERT INTO categoria VALUES (270102014,'Violación De Mayor De 14 Años','Violación De Mayor De 14 Años-270102014','Violación De Mayor De 14 Años-270102014 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4220,7 +4217,7 @@
         <v>15</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J25" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4239,7 +4236,7 @@
         <v>INSERT INTO categoria VALUES (270102015,'Violación De Menor De 14 Años','Violación De Menor De 14 Años-270102015','Violación De Menor De 14 Años-270102015 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4272,7 +4269,7 @@
         <v>16</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J26" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4291,7 +4288,7 @@
         <v>INSERT INTO categoria VALUES (270102016,'Acoso Sexual Lugares Públicos /Libre Acceso Público','Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016','Acoso Sexual Lugares Públicos /Libre Acceso Público-270102016 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4324,7 +4321,7 @@
         <v>17</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J27" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4343,7 +4340,7 @@
         <v>INSERT INTO categoria VALUES (270102017,'Violación Con Homicidio O Femicidio','Violación Con Homicidio O Femicidio-270102017','Violación Con Homicidio O Femicidio-270102017 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4376,7 +4373,7 @@
         <v>18</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J28" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4395,7 +4392,7 @@
         <v>INSERT INTO categoria VALUES (270102018,'Difusión De Material Pornográfico','Difusión De Material Pornográfico-270102018','Difusión De Material Pornográfico-270102018 | Prod: Delitos-270102 | Sector: Violencia-2701 | Industria: MUJER-27',270102);</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4428,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J29" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4447,7 +4444,7 @@
         <v>INSERT INTO categoria VALUES (270103001,'Femicidio','Femicidio-270103001','Femicidio-270103001 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4480,15 +4477,15 @@
         <v>2</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="J30" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Femicidio Intimo-270103002</v>
+        <v>Femicidio Íntimo-270103002</v>
       </c>
       <c r="K30" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Femicidio Intimo-270103002 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27</v>
+        <v>Femicidio Íntimo-270103002 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L30" s="9" t="str">
         <f t="shared" si="2"/>
@@ -4496,10 +4493,10 @@
       </c>
       <c r="M30" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270103002,'Femicidio Intimo','Femicidio Intimo-270103002','Femicidio Intimo-270103002 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>INSERT INTO categoria VALUES (270103002,'Femicidio Íntimo','Femicidio Íntimo-270103002','Femicidio Íntimo-270103002 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4532,7 +4529,7 @@
         <v>3</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J31" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4551,7 +4548,7 @@
         <v>INSERT INTO categoria VALUES (270103003,'Secuestro Con Violación','Secuestro Con Violación-270103003','Secuestro Con Violación-270103003 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4584,7 +4581,7 @@
         <v>4</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J32" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4603,7 +4600,7 @@
         <v>INSERT INTO categoria VALUES (270103004,'Secuestro Con Homicidio, Violación O Lesiones','Secuestro Con Homicidio, Violación O Lesiones-270103004','Secuestro Con Homicidio, Violación O Lesiones-270103004 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4636,7 +4633,7 @@
         <v>5</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J33" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4655,7 +4652,7 @@
         <v>INSERT INTO categoria VALUES (270103005,'Tortura Con Violación, Abuso Sexual Agravado/Otros','Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005','Tortura Con Violación, Abuso Sexual Agravado/Otros-270103005 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4688,7 +4685,7 @@
         <v>6</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J34" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4707,7 +4704,7 @@
         <v>INSERT INTO categoria VALUES (270103006,'Femicidio No Íntimo','Femicidio No Íntimo-270103006','Femicidio No Íntimo-270103006 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <f>+A34</f>
         <v>27</v>
@@ -4740,7 +4737,7 @@
         <v>7</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J35" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4759,7 +4756,7 @@
         <v>INSERT INTO categoria VALUES (270103007,'Violencia Económica','Violencia Económica-270103007','Violencia Económica-270103007 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
         <f>+A35</f>
         <v>27</v>
@@ -4792,7 +4789,7 @@
         <v>8</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J36" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4811,7 +4808,7 @@
         <v>INSERT INTO categoria VALUES (270103008,'Violencia Psicológica','Violencia Psicológica-270103008','Violencia Psicológica-270103008 | Prod: Delitos-270103 | Sector: Violencia-2701 | Industria: MUJER-27',270103);</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
         <f>+A36</f>
         <v>27</v>
@@ -4844,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J37" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4863,7 +4860,7 @@
         <v>INSERT INTO categoria VALUES (270104001,'Maltrato Habitual (Violencia Intrafamiliar)','Maltrato Habitual (Violencia Intrafamiliar)-270104001','Maltrato Habitual (Violencia Intrafamiliar)-270104001 | Prod: Delitos-270104 | Sector: Violencia-2701 | Industria: MUJER-27',270104);</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4896,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J38" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4915,7 +4912,7 @@
         <v>INSERT INTO categoria VALUES (270105001,'Aborto Cometido Por Facultativo Por Causales No Reguladas','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001','Aborto Cometido Por Facultativo Por Causales No Reguladas-270105001 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4948,7 +4945,7 @@
         <v>2</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J39" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4967,7 +4964,7 @@
         <v>INSERT INTO categoria VALUES (270105002,'Aborto Consentido Causales No Reguladas','Aborto Consentido Causales No Reguladas-270105002','Aborto Consentido Causales No Reguladas-270105002 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5000,7 +4997,7 @@
         <v>3</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J40" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5019,7 +5016,7 @@
         <v>INSERT INTO categoria VALUES (270105003,'Aborto Sin Consentimiento','Aborto Sin Consentimiento-270105003','Aborto Sin Consentimiento-270105003 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5052,7 +5049,7 @@
         <v>4</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J41" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5071,7 +5068,7 @@
         <v>INSERT INTO categoria VALUES (270105004,'Aborto','Aborto-270105004','Aborto-270105004 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A42" s="10">
         <f>+A41</f>
         <v>27</v>
@@ -5104,7 +5101,7 @@
         <v>5</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J42" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5123,7 +5120,7 @@
         <v>INSERT INTO categoria VALUES (270105005,'Tráfico De Órganos Incluyendo los Provenientes de Aborto','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005','Tráfico De Órganos Incluyendo los Provenientes de Aborto-270105005 | Prod: Delitos-270105 | Sector: Violencia-2701 | Industria: MUJER-27',270105);</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
         <f>+A42</f>
         <v>27</v>
@@ -5156,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J43" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5175,7 +5172,7 @@
         <v>INSERT INTO categoria VALUES (270106001,'Infracciones A La Ley De Identidad De Género','Infracciones A La Ley De Identidad De Género-270106001','Infracciones A La Ley De Identidad De Género-270106001 | Prod: Delitos-270106 | Sector: Violencia-2701 | Industria: MUJER-27',270106);</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5208,7 +5205,7 @@
         <v>2</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J44" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5227,7 +5224,7 @@
         <v>INSERT INTO categoria VALUES (270106002,'Acoso Laboral','Acoso Laboral-270106002','Acoso Laboral-270106002 | Prod: Delitos-270106 | Sector: Violencia-2701 | Industria: MUJER-27',270106);</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="63" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5260,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J45" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5279,7 +5276,7 @@
         <v>INSERT INTO categoria VALUES (270107001,'Atención por violación (con entrega de anticoncepción de emergencia)','Atención por violación (con entrega de anticoncepción de emergencia)-270107001','Atención por violación (con entrega de anticoncepción de emergencia)-270107001 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="63" x14ac:dyDescent="0.35">
       <c r="A46" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5312,7 +5309,7 @@
         <v>2</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J46" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5331,7 +5328,7 @@
         <v>INSERT INTO categoria VALUES (270107002,'Atención por violación (sin entrega de anticoncepción de emergencia )','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002','Atención por violación (sin entrega de anticoncepción de emergencia )-270107002 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A47" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5383,7 +5380,7 @@
         <v>INSERT INTO categoria VALUES (270107003,'Estupro','Estupro-270107003','Estupro-270107003 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A48" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5416,7 +5413,7 @@
         <v>4</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J48" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5435,7 +5432,7 @@
         <v>INSERT INTO categoria VALUES (270107004,'Abuso sexual','Abuso sexual-270107004','Abuso sexual-270107004 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5468,7 +5465,7 @@
         <v>5</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J49" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5487,7 +5484,7 @@
         <v>INSERT INTO categoria VALUES (270107005,'Otra violencia','Otra violencia-270107005','Otra violencia-270107005 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A50" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5520,7 +5517,7 @@
         <v>6</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J50" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5539,7 +5536,7 @@
         <v>INSERT INTO categoria VALUES (270107006,'Violencia Física','Violencia Física-270107006','Violencia Física-270107006 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A51" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5572,7 +5569,7 @@
         <v>7</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J51" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5591,7 +5588,7 @@
         <v>INSERT INTO categoria VALUES (270107007,'Violencia Intrafamiliar','Violencia Intrafamiliar-270107007','Violencia Intrafamiliar-270107007 | Prod: Salud-270107 | Sector: Violencia-2701 | Industria: MUJER-27',270107);</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A52" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5624,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J52" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5643,7 +5640,7 @@
         <v>INSERT INTO categoria VALUES (270108001,'Orientación e Información','Orientación e Información-270108001','Orientación e Información-270108001 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A53" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5676,7 +5673,7 @@
         <v>2</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J53" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5695,7 +5692,7 @@
         <v>INSERT INTO categoria VALUES (270108002,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270108002','Ingresos de años anteriores (por arrastre)-270108002 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A54" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5728,26 +5725,26 @@
         <v>3</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J54" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Ingresos efectivos  de Mujeres-270108003</v>
+        <v>Ingresos efectivos de Mujeres-270108003</v>
       </c>
       <c r="K54" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Ingresos efectivos  de Mujeres-270108003 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</v>
+        <v>Ingresos efectivos de Mujeres-270108003 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L54" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>270108003ingresos_efectivos__de_mujeres</v>
+        <v>270108003ingresos_efectivos_de_mujeres</v>
       </c>
       <c r="M54" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270108003,'Ingresos efectivos  de Mujeres','Ingresos efectivos  de Mujeres-270108003','Ingresos efectivos  de Mujeres-270108003 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <v>INSERT INTO categoria VALUES (270108003,'Ingresos efectivos de Mujeres','Ingresos efectivos de Mujeres-270108003','Ingresos efectivos de Mujeres-270108003 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A55" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5780,7 +5777,7 @@
         <v>4</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J55" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5799,7 +5796,7 @@
         <v>INSERT INTO categoria VALUES (270108004,'Egreso ','Egreso -270108004','Egreso -270108004 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A56" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5832,7 +5829,7 @@
         <v>5</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J56" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5851,7 +5848,7 @@
         <v>INSERT INTO categoria VALUES (270108005,'Deserción','Deserción-270108005','Deserción-270108005 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A57" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5884,7 +5881,7 @@
         <v>6</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J57" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5903,7 +5900,7 @@
         <v>INSERT INTO categoria VALUES (270108006,'Interrupción','Interrupción-270108006','Interrupción-270108006 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A58" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5936,15 +5933,15 @@
         <v>7</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="J58" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
-        <v>Derivacion-270108007</v>
+        <v>Derivación-270108007</v>
       </c>
       <c r="K58" s="9" t="str">
         <f>+Categorias[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Categorias[[#This Row],[Id_producto]],Productos[[Id_producto]:[Auxiliar]],5,0)</f>
-        <v>Derivacion-270108007 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</v>
+        <v>Derivación-270108007 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27</v>
       </c>
       <c r="L58" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5952,10 +5949,10 @@
       </c>
       <c r="M58" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO categoria VALUES (270108007,'Derivacion','Derivacion-270108007','Derivacion-270108007 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+        <v>INSERT INTO categoria VALUES (270108007,'Derivación','Derivación-270108007','Derivación-270108007 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A59" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5988,7 +5985,7 @@
         <v>8</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J59" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6007,7 +6004,7 @@
         <v>INSERT INTO categoria VALUES (270108008,'Traslado','Traslado-270108008','Traslado-270108008 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A60" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6040,7 +6037,7 @@
         <v>9</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J60" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6059,7 +6056,7 @@
         <v>INSERT INTO categoria VALUES (270108009,'Fallecimiento','Fallecimiento-270108009','Fallecimiento-270108009 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A61" s="10">
         <f>+A60</f>
         <v>27</v>
@@ -6092,7 +6089,7 @@
         <v>10</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J61" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6111,7 +6108,7 @@
         <v>INSERT INTO categoria VALUES (270108010,'Centros de la Mujer','Centros de la Mujer-270108010','Centros de la Mujer-270108010 | Prod: Establecimientos-270108 | Sector: Violencia-2701 | Industria: MUJER-27',270108);</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A62" s="10">
         <f>+A61</f>
         <v>27</v>
@@ -6144,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J62" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6163,7 +6160,7 @@
         <v>INSERT INTO categoria VALUES (270109001,'Ingresos de años anteriores (por arrastre)','Ingresos de años anteriores (por arrastre)-270109001','Ingresos de años anteriores (por arrastre)-270109001 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A63" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6196,7 +6193,7 @@
         <v>2</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J63" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6215,7 +6212,7 @@
         <v>INSERT INTO categoria VALUES (270109002,'Pre ingresos de Mujeres','Pre ingresos de Mujeres-270109002','Pre ingresos de Mujeres-270109002 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A64" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6248,7 +6245,7 @@
         <v>3</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J64" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6267,7 +6264,7 @@
         <v>INSERT INTO categoria VALUES (270109003,'Ingresos efectivos de Mujeres','Ingresos efectivos de Mujeres-270109003','Ingresos efectivos de Mujeres-270109003 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A65" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6300,7 +6297,7 @@
         <v>4</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J65" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6319,7 +6316,7 @@
         <v>INSERT INTO categoria VALUES (270109004,'Ingresos de niños y niñas','Ingresos de niños y niñas-270109004','Ingresos de niños y niñas-270109004 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A66" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6352,7 +6349,7 @@
         <v>5</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J66" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6371,7 +6368,7 @@
         <v>INSERT INTO categoria VALUES (270109005,'Egreso','Egreso-270109005','Egreso-270109005 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A67" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6404,7 +6401,7 @@
         <v>6</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J67" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6423,7 +6420,7 @@
         <v>INSERT INTO categoria VALUES (270109006,'Deserción','Deserción-270109006','Deserción-270109006 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A68" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6456,7 +6453,7 @@
         <v>7</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J68" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6475,7 +6472,7 @@
         <v>INSERT INTO categoria VALUES (270109007,'Traslado','Traslado-270109007','Traslado-270109007 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A69" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6508,7 +6505,7 @@
         <v>8</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J69" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6527,7 +6524,7 @@
         <v>INSERT INTO categoria VALUES (270109008,'Retiro','Retiro-270109008','Retiro-270109008 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A70" s="10">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6560,7 +6557,7 @@
         <v>9</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J70" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6579,7 +6576,7 @@
         <v>INSERT INTO categoria VALUES (270109009,'Fallecimiento ','Fallecimiento -270109009','Fallecimiento -270109009 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A71" s="33">
         <f>+A70</f>
         <v>27</v>
@@ -6612,7 +6609,7 @@
         <v>10</v>
       </c>
       <c r="I71" s="34" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J71" s="37" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6631,7 +6628,7 @@
         <v>INSERT INTO categoria VALUES (270109010,'Casas de Acogida','Casas de Acogida-270109010','Casas de Acogida-270109010 | Prod: Establecimientos-270109 | Sector: Violencia-2701 | Industria: MUJER-27',270109);</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="48" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A72" s="33">
         <f t="shared" ref="A72:A74" si="13">+A71</f>
         <v>27</v>
@@ -6664,7 +6661,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J72" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6683,7 +6680,7 @@
         <v>INSERT INTO categoria VALUES (270110001,'Orientación e Información (OI)','Orientación e Información (OI)-270110001','Orientación e Información (OI)-270110001 | Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27',270110);</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="48" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A73" s="33">
         <f t="shared" si="13"/>
         <v>27</v>
@@ -6716,7 +6713,7 @@
         <v>2</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J73" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6735,7 +6732,7 @@
         <v>INSERT INTO categoria VALUES (270110002,'Atención Reparatoria (AR)','Atención Reparatoria (AR)-270110002','Atención Reparatoria (AR)-270110002 | Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27',270110);</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A74" s="33">
         <f t="shared" si="13"/>
         <v>27</v>
@@ -6768,7 +6765,7 @@
         <v>3</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J74" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6787,7 +6784,7 @@
         <v>INSERT INTO categoria VALUES (270110003,'Mujeres en continuidad de Intervención del año anterior','Mujeres en continuidad de Intervención del año anterior-270110003','Mujeres en continuidad de Intervención del año anterior-270110003 | Prod: Establecimientos-270110 | Sector: Violencia-2701 | Industria: MUJER-27',270110);</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A75" s="10">
         <f t="shared" ref="A75:A76" si="19">+A74</f>
         <v>27</v>
@@ -6820,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J75" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6839,7 +6836,7 @@
         <v>INSERT INTO categoria VALUES (270111001,'Ingresos efectivos de Hombres','Ingresos efectivos de Hombres-270111001','Ingresos efectivos de Hombres-270111001 | Prod: Establecimientos-270111 | Sector: Violencia-2701 | Industria: MUJER-27',270111);</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A76" s="10">
         <f t="shared" si="19"/>
         <v>27</v>
@@ -6872,7 +6869,7 @@
         <v>2</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J76" s="26" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
